--- a/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância poderosa pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
+          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância menos potente pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -15732,7 +15732,7 @@
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Resiliência: se você estiver usando a taxa de transferência provisionada, considere também implantar uma instância paga conforme o uso para lidar com o estouro. Você pode rotear chamadas para a instância paga conforme o uso por meio do gateway quando o modelo de taxa de transferência provisionada estiver limitado. Você também pode usar o monitoramento para prever quando o modelo será limitado e rotear preventivamente as chamadas para a instância paga conforme o uso.</t>
+          <t>Resiliência: se você estiver usando a taxa de transferência provisionada, considere também implantar uma instância paga conforme o uso para lidar com o estouro. Você pode rotear chamadas para a instância paga conforme o uso por meio do gateway quando o modelo de taxa de transferência provisionada estiver limitado.</t>
         </is>
       </c>
       <c r="D584" t="inlineStr"/>
@@ -15743,7 +15743,7 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>4b6855b3-069d-4bb2-b9c6-f1c021803f77</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
@@ -15768,7 +15768,7 @@
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Resiliência: siga as diretrizes para arquivos de dados grandes e importe os dados de um repositório de blobs do Azure. Arquivos grandes, de 100 MB ou mais, podem se tornar instáveis quando carregados por meio de formulários de várias partes porque as solicitações são atômicas e não podem ser repetidas ou retomadas.</t>
+          <t>Resiliência: siga as diretrizes para ajustar com arquivos de dados grandes e importe os dados de um repositório de blobs do Azure. Arquivos grandes, de 100 MB ou mais, podem se tornar instáveis quando carregados por meio de formulários de várias partes porque as solicitações são atômicas e não podem ser repetidas ou retomadas.</t>
         </is>
       </c>
       <c r="D586" t="inlineStr"/>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>c41d1ed1-6f1d-4e6e-9dde-2d8172365170</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
@@ -6808,7 +6808,7 @@
       <c r="B193" s="21" t="n"/>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Configure conexões do ExpressRoute ativo-ativo entre o local e o Azure.</t>
+          <t>Configure circuitos do ExpressRoute com resiliência máxima ou alta para cargas de trabalho de produção.</t>
         </is>
       </c>
       <c r="D193" s="21" t="inlineStr"/>
@@ -6823,7 +6823,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
+          <t>e58c1767-6db4-4b40-a26e-1ab8967517f4</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -6836,7 +6836,7 @@
       <c r="B194" s="21" t="n"/>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Configure Gateways de Rede Virtual do ExpressRoute com reconhecimento de zona de disponibilidade.</t>
+          <t>Configure conexões do ExpressRoute ativo-ativo entre o local e o Azure.</t>
         </is>
       </c>
       <c r="D194" s="21" t="inlineStr"/>
@@ -6851,7 +6851,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
+          <t>b356e60e-cb41-4ee6-a8d5-290b429619f7</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -6864,7 +6864,7 @@
       <c r="B195" s="21" t="n"/>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Configure Gateways de Rede Virtual do ExpressRoute em diferentes regiões.</t>
+          <t>Configure Gateways de Rede Virtual do ExpressRoute com reconhecimento de zona de disponibilidade.</t>
         </is>
       </c>
       <c r="D195" s="21" t="inlineStr"/>
@@ -6879,7 +6879,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
+          <t>877b9a2d-8171-441b-ba7f-b8c6191f12bc</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -6892,7 +6892,7 @@
       <c r="B196" s="21" t="n"/>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Configure a VPN site a site como um backup para o emparelhamento privado do ExpressRoute.</t>
+          <t>Configure Gateways de Rede Virtual do ExpressRoute em diferentes regiões.</t>
         </is>
       </c>
       <c r="D196" s="21" t="inlineStr"/>
@@ -6907,7 +6907,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
+          <t>64ad6a67-7f17-4d55-a365-0ec8716fb135</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -6920,7 +6920,7 @@
       <c r="B197" s="21" t="n"/>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Configure a integridade do serviço para receber a notificação de manutenção do circuito do ExpressRoute.</t>
+          <t>Configure a VPN site a site como um backup para o emparelhamento privado do ExpressRoute.</t>
         </is>
       </c>
       <c r="D197" s="21" t="inlineStr"/>
@@ -6935,7 +6935,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>198fd707-5344-46d9-a3f9-c05a90749ccb</t>
+          <t>20bbf3a5-e3d8-42eb-9b88-9c4a811a483a</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -6948,14 +6948,10 @@
       <c r="B198" s="21" t="n"/>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Planejar o circuito do ExpressRoute ou o ExpressRoute Direct</t>
-        </is>
-      </c>
-      <c r="D198" s="21" t="inlineStr">
-        <is>
-          <t>Durante a fase de planejamento inicial, você deseja decidir se deseja configurar um circuito do ExpressRoute ou uma conexão do ExpressRoute Direct. Um circuito do ExpressRoute permite uma conexão privada dedicada ao Azure com a ajuda de um provedor de conectividade. O ExpressRoute Direct permite que você estenda a rede local diretamente para a rede da Microsoft em um local de emparelhamento. Você também precisa identificar o requisito de largura de banda e o requisito de tipo de SKU para suas necessidades de negócios.</t>
-        </is>
-      </c>
+          <t>Configure a integridade do serviço para receber notificações de manutenção de circuito do ExpressRoute.</t>
+        </is>
+      </c>
+      <c r="D198" s="21" t="inlineStr"/>
       <c r="E198" s="21" t="n"/>
       <c r="F198" t="inlineStr">
         <is>
@@ -6967,7 +6963,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
+          <t>da08260d-363c-4fcb-a555-ed4448d0be3a</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -6980,12 +6976,12 @@
       <c r="B199" s="21" t="n"/>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Diversidade de camadas físicas</t>
+          <t>Planejar o circuito do ExpressRoute ou o ExpressRoute Direct</t>
         </is>
       </c>
       <c r="D199" s="21" t="inlineStr">
         <is>
-          <t>Para obter melhor resiliência, planeje ter vários caminhos entre a borda local e os locais de emparelhamento (locais de borda do provedor/Microsoft). Essa configuração pode ser obtida passando por um provedor de serviços diferente ou por um local diferente da rede local.</t>
+          <t>Durante a fase de planejamento inicial, você deseja decidir se deseja configurar um circuito do ExpressRoute ou uma conexão do ExpressRoute Direct. Um circuito do ExpressRoute permite uma conexão privada dedicada ao Azure com a ajuda de um provedor de conectividade. O ExpressRoute Direct permite que você estenda a rede local diretamente para a rede da Microsoft em um local de emparelhamento. Você também precisa identificar o requisito de largura de banda e o requisito de tipo de SKU para suas necessidades de negócios.</t>
         </is>
       </c>
       <c r="E199" s="21" t="n"/>
@@ -6999,7 +6995,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>67812ddc-7c52-4b52-9569-b3f84d591def</t>
+          <t>09e0dd1a-b1f7-46c3-8df1-48e841f53dca</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10303,7 +10299,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Há limites na estrutura da política, incluindo números de regras e grupos de coleta de regras, tamanho total da política, destinos de origem/destino. Certifique-se de redigir sua política e ficar atrás dos limites documentados.</t>
+          <t>Há limites na estrutura da política, incluindo números de regras e grupos de coleta de regras, tamanho total da política, destinos de origem/destino. Certifique-se de redigir sua política e ficar abaixo dos limites documentados.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10627,7 +10623,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Em uma arquitetura Hub e Spokes tradicional, configure UDRs para forçar o tráfego por meio do Firewall do Azure para conectividade 'SpoketoSpoke', 'SpoketoInternet' e 'SpoketoHybrid'. Na WAN Virtual do Azure, em vez disso, configure a Intenção de Roteamento e as Políticas para redirecionar o tráfego privado e/ou da Internet por meio da instância do Firewall do Azure integrada ao hub.</t>
+          <t>Em uma arquitetura tradicional de Hub e Spokes, configure UDRs para forçar o tráfego por meio do Firewall do Azure para conectividade 'Spoke-to-Spoke', 'Spoke-to-Internet' e 'Spoke-to-Hybrid'. Na WAN Virtual do Azure, em vez disso, configure a Intenção de Roteamento e as Políticas para redirecionar o tráfego privado e/ou da Internet por meio da instância do Firewall do Azure integrada ao hub.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -11531,7 +11527,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Se o Firewall do Azure precisar operar no modo IDPS Alertar e negar, considere cuidadosamente o impacto no desempenho, conforme documentado nesta página.</t>
+          <t>Se o Firewall do Azure for necessário para operar no modo IDPS Alertar e negar, considere cuidadosamente o impacto no desempenho, conforme documentado no desempenho do firewall.</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">

--- a/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/wafsg_checklist.pt.xlsx
@@ -890,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:P700"/>
+  <dimension ref="A2:P672"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D201" s="21" t="inlineStr">
         <is>
-          <t>Os circuitos dedicados do ExpressRoute garantem a disponibilidade de '99,95%' quando uma conectividade ativa-ativa é configurada entre o local e o Azure. Esse modo fornece maior disponibilidade da conexão do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
+          <t>Esse modo fornece maior disponibilidade de suas conexões do Expressroute. Também é recomendável configurar o BFD para failover mais rápido se houver uma falha de link em uma conexão.</t>
         </is>
       </c>
       <c r="E201" s="21" t="n"/>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="D202" s="21" t="inlineStr">
         <is>
-          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para recuperação de desastre e alta disponibilidade.</t>
+          <t>Crie um Gateway de Rede Virtual com reconhecimento de zona de disponibilidade para maior resiliência e planeje Gateways de Rede Virtual em diferentes regiões para resiliência, recuperação de desastre e alta disponibilidade.</t>
         </is>
       </c>
       <c r="E202" s="21" t="n"/>
@@ -10116,7 +10116,7 @@
     <row r="306">
       <c r="C306" t="inlineStr">
         <is>
-          <t>Implante o Firewall do Azure em redes virtuais de hub ou como parte de hubs de WAN Virtual do Azure.</t>
+          <t>Examine a lista de problemas conhecidos do Firewall do Azure. Os produtos do Firewall do Azure mantêm uma lista atualizada de problemas conhecidos. Esta lista contém informações importantes sobre o comportamento por design, correções em construção, limitações da plataforma e possíveis soluções alternativas ou estratégias de mitigação.</t>
         </is>
       </c>
       <c r="D306" t="inlineStr"/>
@@ -10127,14 +10127,14 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>5820ff87-d98e-490e-93a0-28028bbb05e6</t>
+          <t>20ce14f0-d217-45ca-953e-da6acda1b73c</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="C307" t="inlineStr">
         <is>
-          <t>Aproveite a resiliência das Zonas de Disponibilidade.</t>
+          <t>Implante o Firewall do Azure em várias zonas de disponibilidade para obter um SLA (contrato de nível de serviço) mais alto. O Firewall do Azure fornece SLAs diferentes, dependendo se você implanta o serviço em uma única zona de disponibilidade ou em várias zonas. Para obter mais informações, consulte SLAs para serviços online.</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -10145,14 +10145,14 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>7c605481-a9d5-480f-8738-ac2022ef28ed</t>
+          <t>de630a06-a4a8-4215-bb80-cc89dd3ced08</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="C308" t="inlineStr">
         <is>
-          <t>Crie a estrutura de Política de Firewall do Azure.</t>
+          <t>Implante uma instância do Firewall do Azure em cada região em ambientes de várias regiões. Para arquiteturas hub-and-spoke tradicionais, consulte Considerações de várias regiões. Para hubs de WAN Virtual do Azure protegidos, configure a intenção e as políticas de roteamento para proteger as comunicações entre hubs e ramificação a ramificação. Para cargas de trabalho resistentes a falhas e tolerantes a falhas, considere instâncias do Firewall do Azure e da Rede Virtual do Azure como recursos regionais.</t>
         </is>
       </c>
       <c r="D308" t="inlineStr"/>
@@ -10163,14 +10163,14 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>2ceafe5f-6511-42a6-9687-cebaf586b293</t>
+          <t>be394cd4-78f2-4737-8d8d-ec8f83193584</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="C309" t="inlineStr">
         <is>
-          <t>Revise a lista de problemas conhecidos.</t>
+          <t>Monitore as métricas do Firewall do Azure e o estado de integridade do recurso. O Firewall do Azure se integra ao Azure Resource Health. Use a verificação de Integridade do Recurso para exibir o status de integridade do Firewall do Azure e resolver problemas de serviço que podem afetar o recurso do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D309" t="inlineStr"/>
@@ -10181,14 +10181,14 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>85a53628-bd7b-43bb-a817-b6f0c11c34c9</t>
+          <t>5f5c6480-7d26-4d6a-b375-e5786b200448</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="C310" t="inlineStr">
         <is>
-          <t>Monitore o estado de integridade do Firewall do Azure.</t>
+          <t>Implante o Firewall do Azure em redes virtuais de hub ou como parte de hubs de WAN Virtual.</t>
         </is>
       </c>
       <c r="D310" t="inlineStr"/>
@@ -10199,19 +10199,19 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>74a2596f-1cc9-4715-8de2-5afdde7b9f9a</t>
+          <t>e1c47da5-f5ed-4300-911e-7fc916e4c488</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall do Azure com topologias de rede tradicionais de Hub &amp; Spokes ou WAN Virtual do Azure para implantar e gerenciar instâncias do Firewall do Azure.</t>
+          <t>Implante o Firewall do Azure em várias zonas de disponibilidade.</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Crie facilmente arquiteturas hub-and-spoke e transitivas com serviços de segurança nativos para governança e proteção de tráfego.  Para obter mais informações sobre topologias de rede, consulte a documentação do Azure Cloud Adoption Framework.</t>
+          <t>Implante o Firewall do Azure em várias zonas de disponibilidade para manter um nível específico de resiliência. Se uma zona sofrer uma interrupção, outra zona continuará a atender ao tráfego.</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -10221,19 +10221,19 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>21f4d348-c086-4e96-b5bc-91f8a3c25841</t>
+          <t>13571efe-01ca-4dd1-8cc8-fe95125e3bf2</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="C312" t="inlineStr">
         <is>
-          <t>Crie políticas de firewall do Azure para controlar a postura de segurança em ambientes de rede globais. Atribua políticas a todas as instâncias do Firewall do Azure.</t>
+          <t>Monitore as métricas do Firewall do Azure em um workspace do Log Analytics. Monitore de perto as métricas que indicam o estado de integridade do Firewall do Azure, como taxa de transferência, estado de integridade do firewall, utilização da porta SNAT e métricas de investigação de latência AZFW.  Use a Integridade do Serviço do Azure para monitorar a integridade do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>As Políticas de Firewall do Azure podem ser organizadas em uma estrutura hierárquica para sobrepor uma política de base central. Permita políticas granulares para atender aos requisitos de regiões específicas. Delegue políticas de firewall incrementais às equipes de segurança locais por meio do RBAC (controle de acesso baseado em função). Algumas configurações são específicas por instância, por exemplo, regras DNAT e configuração de DNS, então várias políticas especializadas podem ser necessárias.</t>
+          <t>Monitore as métricas de recursos e a integridade do serviço para que você possa detectar quando um estado de serviço é degradado e tomar medidas proativas para evitar falhas.</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -10243,19 +10243,19 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>1e604a31-46f0-4fcc-9f0e-1ca46cc3f677</t>
+          <t>09d6362f-d7a1-4c56-822c-065064bbcad7</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="C313" t="inlineStr">
         <is>
-          <t>Migre as Regras Clássicas do Firewall do Azure para as Políticas do Gerenciador de Firewall do Azure para implantações existentes.</t>
+          <t>Configure o Firewall do Azure no modo de túnel forçado se precisar rotear todo o tráfego vinculado à Internet para um próximo salto designado em vez de diretamente para a Internet. Essa recomendação não se aplica à WAN Virtual. &lt;BR&gt;&lt;BR&gt; O Firewall do Azure deve ter conectividade direta com a Internet. Se o AzureFirewallSubnet aprender uma rota padrão para sua rede local por meio do Protocolo de Gateway de Borda, você deverá configurar o Firewall do Azure no modo de túnel forçado. Você pode usar o recurso de túnel forçado para adicionar outro espaço de endereço /26 para a sub-rede de Gerenciamento do Firewall do Azure. Nomeie a sub-rede AzureFirewallManagementSubnet. Se você tiver uma instância existente do Firewall do Azure que não pode ser reconfigurada no modo de túnel forçado, crie uma UDR com uma rota 0.0.0.0/0. Defina o valor NextHopType como Internet. Para manter a conectividade com a Internet, associe a UDR a AzureFirewallSubnet.  Defina o endereço IP público como Nenhum para implantar um plano de dados totalmente privado ao configurar o Firewall do Azure no modo de túnel forçado. Mas o plano de gerenciamento ainda requer um IP público apenas para fins de gerenciamento. O tráfego interno de redes virtuais e locais não usa esse IP público.</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Para implantações existentes, migre as regras do Firewall do Azure para as políticas do Gerenciador de Firewall do Azure. Use o Gerenciador de Firewall do Azure para gerenciar centralmente seus firewalls e políticas.  Para obter mais informações, consulte Migrar para o Firewall do Azure Premium.</t>
+          <t>Use o túnel forçado para não expor seus recursos do Azure diretamente à Internet. Essa abordagem reduz a superfície de ataque e minimiza o risco de ameaças externas. Para impor políticas corporativas e requisitos de conformidade com mais eficiência, roteie todo o tráfego vinculado à Internet por meio de um firewall local ou de uma NVA.</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -10265,19 +10265,19 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>d17fbf01-c796-45dd-9ca4-99af38b2ae9b</t>
+          <t>7abca50a-05ca-41fc-8485-cd536ba9ec86</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="C314" t="inlineStr">
         <is>
-          <t>Examine a lista de Problemas Conhecidos do Firewall do Azure.</t>
+          <t>Crie regras para políticas de firewall em uma estrutura hierárquica para sobrepor uma política de base central. Para obter mais informações, consulte Usar políticas de Firewall do Azure para processar regras. &lt;BR&gt;&lt;BR&gt; Crie suas regras com base no princípio Zero Trust de acesso com privilégios mínimos</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>O Grupo de Produtos do Firewall do Azure mantém uma lista atualizada de problemas conhecidos neste local. Esta lista contém informações importantes relacionadas ao comportamento por design, correções em construção, limitações da plataforma, juntamente com possíveis soluções alternativas ou mitigação.</t>
+          <t>Organize as regras em uma estrutura hierárquica para que as políticas granulares possam atender aos requisitos de regiões específicas. Cada política pode conter diferentes conjuntos de regras de DNAT (Destination Network Address Translation), rede e aplicativo que têm prioridades, ações e ordens de processamento específicas.</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -10287,19 +10287,19 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>b7623c43-bb6b-4629-a655-551c92e2dffa</t>
+          <t>0d9c6369-6b1b-49db-8198-68f2344273d8</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="C315" t="inlineStr">
         <is>
-          <t>Verifique se a Política de Firewall do Azure está de acordo com os limites e recomendações do Firewall do Azure.</t>
+          <t>Configure provedores de parceiros de segurança compatíveis no Firewall Manager para proteger as conexões de saída. &lt;BR&gt;&lt;BR&gt; Esse cenário requer a WAN Virtual com um gateway de VPN S2S no hub porque ele usa um túnel IPsec para se conectar à infraestrutura do provedor. Os provedores de serviços de segurança gerenciados podem cobrar taxas de licença extras e limitar a taxa de transferência em conexões IPsec. Você também pode usar soluções alternativas, como o Zscaler Cloud Connector.</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Há limites na estrutura da política, incluindo números de regras e grupos de coleta de regras, tamanho total da política, destinos de origem/destino. Certifique-se de redigir sua política e ficar abaixo dos limites documentados.</t>
+          <t>Habilite os provedores de parceiros de segurança no Firewall do Azure para aproveitar as melhores ofertas de segurança na nuvem, que fornecem proteção avançada para o tráfego da Internet. Esses provedores oferecem filtragem especializada e com reconhecimento do usuário e recursos abrangentes de detecção de ameaças que aprimoram sua postura geral de segurança.</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -10309,19 +10309,19 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>9230da4d-4e27-4106-9552-294b1a93d780</t>
+          <t>7bfae9e9-d97d-4d04-97a6-7eb31a73ed10</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="C316" t="inlineStr">
         <is>
-          <t>Implante o Firewall do Azure em várias zonas de disponibilidade para obter um SLA (contrato de nível de serviço) mais alto.</t>
+          <t>Habilite a configuração de proxy DNS do Firewall do Azure. &lt;BR&gt;&lt;BR&gt; Configure também o Firewall do Azure para usar o DNS personalizado para encaminhar consultas DNS.</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>O Firewall do Azure fornece SLAs diferentes quando é implantado em uma única zona de disponibilidade e quando é implantado em várias zonas. Para obter mais informações, consulte SLA para Firewall do Azure. Para obter informações sobre todos os SLAs do Azure, consulte Resumo de SLA para serviços do Azure.</t>
+          <t>Habilite esse recurso para apontar clientes nas redes virtuais para o Firewall do Azure como um servidor DNS. Esse recurso protege a infraestrutura DNS interna que não é acessada e exposta diretamente.</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -10331,19 +10331,19 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>6a88967d-b182-437d-ac3b-1cb45ddfaa86</t>
+          <t>68949fe5-365d-4c55-b909-d52c39d24b6d</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="C317" t="inlineStr">
         <is>
-          <t>Em ambientes de várias regiões, implante uma instância do Firewall do Azure por região.</t>
+          <t>Configure UDRs para forçar o tráfego por meio do Firewall do Azure em uma arquitetura hub-and-spoke tradicional para conectividade spoke-to-spoke, spoke-to-internet e spoke-to-hybrid. &lt;BR&gt;&lt;BR&gt; Na WAN Virtual, configure a intenção e as políticas de roteamento para redirecionar o tráfego privado ou o tráfego da Internet por meio da instância do Firewall do Azure integrada ao hub. &lt;BR&gt;&lt;BR&gt; Se você não puder aplicar uma UDR e precisar apenas de redirecionamento de tráfego da Web, use o Firewall do Azure como um proxy explícito no caminho de saída. Você pode definir uma configuração de proxy no aplicativo de envio, como um navegador da Web, ao configurar o Firewall do Azure como um proxy.</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Para arquiteturas tradicionais de Hub &amp; Spokes, os detalhes de várias regiões são explicados neste artigo. Para hubs virtuais protegidos (WAN Virtual do Azure), a Intenção e as Políticas de Roteamento devem ser configuradas para proteger as comunicações entre hubs e branch a branch. Para cargas de trabalho projetadas para serem resistentes a falhas e tolerantes a falhas, lembre-se de considerar essas instâncias do Firewall do Azure e da Rede Virtual do Azure como recursos regionais.</t>
+          <t>Envie tráfego pelo firewall para inspecionar o tráfego e ajudar a identificar e bloquear o tráfego mal-intencionado. &lt;BR&gt;&lt;BR&gt; Use o Firewall do Azure como um proxy explícito para o tráfego de saída para que o tráfego da Web atinja o endereço IP privado do firewall e, portanto, saia diretamente do firewall sem usar uma UDR. Esse recurso também facilita o uso de vários firewalls sem modificar as rotas de rede existentes.</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -10353,19 +10353,19 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>a4b78865-a047-4afc-b7e6-b2f54cee83cb</t>
+          <t>7269ebdb-4f21-41f7-846b-b0f90145a8ca</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="C318" t="inlineStr">
         <is>
-          <t>Monitore as métricas do Firewall do Azure e o estado do Resource Health.</t>
+          <t>Use a filtragem FQDN em regras de rede. Você deve habilitar a configuração de proxy DNS do Firewall do Azure para usar FQDNs em suas regras de rede.</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Monitore de perto o indicador de métricas principais do estado de integridade do Firewall do Azure, como taxa de transferência, estado de integridade do firewall, utilização da porta SNAT e métricas de investigação de latência do AZFW. Além disso, o Firewall do Azure agora se integra ao Azure Resource Health. Com a verificação de Integridade do Recurso do Firewall do Azure, agora você pode exibir o status de integridade do Firewall do Azure e resolver problemas de serviço que podem afetar o recurso do Firewall do Azure.</t>
+          <t>Use FQDNs nas regras de rede do Firewall do Azure para que os administradores possam gerenciar nomes de domínio em vez de vários endereços IP, o que simplifica o gerenciamento. Essa resolução dinâmica garante que as regras de firewall sejam atualizadas automaticamente quando os IPs de domínio forem alterados.</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -10375,17 +10375,21 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>9621bb59-3034-4e42-8344-5ce24b47425b</t>
+          <t>dbcfaeb4-af8a-4536-aea5-b0941fe8cb1c</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="C319" t="inlineStr">
         <is>
-          <t>Determine se você precisa de tunelamento forçado.</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr"/>
+          <t>Use marcas de serviço do Firewall do Azure no lugar de endereços IP específicos para fornecer acesso seletivo a serviços específicos no Azure, Microsoft Dynamics 365 e Microsoft 365.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Use marcas de serviço em regras de rede para que você possa definir controles de acesso com base em nomes de serviço em vez de endereços IP específicos, o que simplifica o gerenciamento de segurança. A Microsoft gerencia e atualiza essas marcas automaticamente quando os endereços IP são alterados. Esse método garante que suas regras de firewall permaneçam precisas e eficazes sem intervenção manual.</t>
+        </is>
+      </c>
       <c r="F319" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10393,17 +10397,21 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>b0b563a2-ec75-4a12-981a-6c6138175122</t>
+          <t>a24f4843-209c-4f51-88e6-1908be48e722</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="C320" t="inlineStr">
         <is>
-          <t>Crie regras para políticas com base em critérios de acesso com privilégios mínimos.</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr"/>
+          <t>Use marcas FQDN em regras de aplicativo para fornecer acesso seletivo a serviços específicos da Microsoft. &lt;BR&gt;&lt;BR&gt; Você pode usar uma marca FQDN em regras de aplicativo para permitir o tráfego de rede de saída necessário por meio do firewall para serviços específicos do Azure, como Microsoft 365, Windows 365 e Microsoft Intune.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Use marcas FQDN em regras de aplicativo do Firewall do Azure para representar um grupo de FQDNs associados a serviços conhecidos da Microsoft. Esse método simplifica o gerenciamento de regras de segurança de rede.</t>
+        </is>
+      </c>
       <c r="F320" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10411,17 +10419,21 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>c39df35c-43a4-4bc2-ae65-3201a1b274a4</t>
+          <t>4063f792-86cc-469b-9b6d-3c3d5e7f5d74</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="C321" t="inlineStr">
         <is>
-          <t>Aproveite a inteligência de ameaças.</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr"/>
+          <t>Habilite a inteligência contra ameaças no Firewall do Azure no modo de alerta e negação.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Use inteligência de ameaças para fornecer proteção em tempo real contra ameaças emergentes, o que reduz o risco de ataques cibernéticos. Esse recurso usa o feed de inteligência contra ameaças da Microsoft para alertar e bloquear automaticamente o tráfego de endereços IP, domínios e URLs mal-intencionados conhecidos.</t>
+        </is>
+      </c>
       <c r="F321" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10429,17 +10441,21 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>08bebd22-0d6a-469c-ae5b-fed8774452de</t>
+          <t>e8dcc3ab-b391-475c-8d78-cee55c784f06</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="C322" t="inlineStr">
         <is>
-          <t>Habilite o proxy DNS do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr"/>
+          <t>Habilite o IDPS no modo Alerta ou Alerta e negação. Considere o impacto no desempenho desse recurso.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Habilitar a filtragem IDPS no Firewall do Azure fornece monitoramento e análise em tempo real do tráfego de rede para detectar e impedir atividades mal-intencionadas. Esse recurso usa detecção baseada em assinatura para identificar rapidamente ameaças conhecidas e bloqueá-las antes que causem danos.  Para obter mais informações, consulte Detectar abuso.</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10447,17 +10463,21 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>89484b0c-7b36-4fa2-9064-ae6db7dc411a</t>
+          <t>053202f4-db7d-4b08-ad61-c5d0037b713a</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="C323" t="inlineStr">
         <is>
-          <t>Direcione o tráfego de rede por meio do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>Use uma AC (autoridade de certificação) corporativa interna para gerar certificados ao usar a inspeção TLS com o Firewall do Azure Premium. Use certificados autoassinados apenas para fins de teste e PoC (prova de conceito).</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Habilite a inspeção TLS para que o Firewall do Azure Premium encerre e inspecione as conexões TLS para detectar, alertar e mitigar atividades mal-intencionadas em HTTPS.</t>
+        </is>
+      </c>
       <c r="F323" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10465,17 +10485,21 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>a875d2e4-5476-450f-8206-aa79ecdcb2e3</t>
+          <t>ab822518-b2ff-4048-8e9f-5a86d431d063</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="C324" t="inlineStr">
         <is>
-          <t>Determine se você deseja usar provedores de segurança como serviço (SECaaS) de terceiros.</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr"/>
+          <t>Use o Gerenciador de Firewall para criar e associar um plano de Proteção contra DDoS do Azure à rede virtual do hub. Essa abordagem não se aplica à WAN Virtual.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Configure um plano de Proteção contra DDoS do Azure para que você possa gerenciar centralmente a proteção contra DDoS junto com suas políticas de firewall. Essa abordagem simplifica a forma como você gerencia a segurança da rede e simplifica a forma como você implanta e monitora os processos.</t>
+        </is>
+      </c>
       <c r="F324" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10483,14 +10507,14 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>50dc96a3-9dca-4aab-97f5-9f8654d4f49c</t>
+          <t>05a6fac9-edc2-49bc-8bf8-17950c0cd710</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="C325" t="inlineStr">
         <is>
-          <t>Proteja seus endereços IP públicos do Firewall do Azure com DDoS.</t>
+          <t>Selecione um SKU do Firewall do Azure para implantar. Escolha entre três SKUs do Firewall do Azure: Básico, Standard e Premium. Use o Firewall do Azure Premium para proteger aplicativos altamente confidenciais, como processamento de pagamentos. Use o Firewall do Azure Standard se sua carga de trabalho precisar de um firewall de Camada 3 a Camada 7 e precisar de dimensionamento automático para lidar com períodos de pico de tráfego de até 30 Gbps. Use o Firewall do Azure Basic se você usar SMB e exigir até 250 Mbps de taxa de transferência. Você pode fazer downgrade ou upgrade entre SKUs Standard e Premium. Para obter mais informações, consulte Escolher o SKU correto do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D325" t="inlineStr"/>
@@ -10501,21 +10525,17 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>98318578-48f2-4870-adc0-a6a2cf9ce25e</t>
+          <t>9220cde5-ecbc-4eb1-a5ac-65e56e2aa925</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="C326" t="inlineStr">
         <is>
-          <t>Se necessário rotear todo o tráfego vinculado à Internet para um próximo salto designado em vez de ir diretamente para a Internet, configure o Firewall do Azure no modo de túnel forçado (não se aplica à WAN Virtual do Azure).</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>O Firewall do Azure deve ter conectividade direta com a Internet. Se o AzureFirewallSubnet aprender uma rota padrão para sua rede local por meio do Protocolo de Gateway de Borda, você deverá configurar o Firewall do Azure no modo de túnel forçado. Usando o recurso de túnel forçado, você precisará de outro espaço de endereço /26 para a sub-rede de Gerenciamento do Firewall do Azure. Se essa for uma instância existente do Firewall do Azure que não pode ser reconfigurada no modo de túnel forçado, crie uma UDR com uma rota 0.0.0.0/0. Defina o valor NextHopType como Internet. Associe-o a AzureFirewallSubnet para manter a conectividade com a Internet.</t>
-        </is>
-      </c>
+          <t>Remova implantações de firewall não utilizadas e otimize implantações subutilizadas. Pare as implantações do Firewall do Azure que não precisam ser executadas continuamente. Identifique e exclua implantações de Firewall do Azure não utilizadas. Para reduzir os custos operacionais, monitore e otimize o uso de instâncias de firewall, a configuração de políticas do Gerenciador de Firewall do Azure e o número de endereços IP públicos e políticas que você usa.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr"/>
       <c r="F326" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10523,21 +10543,17 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>a845b563-f080-4a92-83b0-400feb87ee4e</t>
+          <t>54c37b38-2e3d-4cf9-b174-bee69a2a5b5d</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="C327" t="inlineStr">
         <is>
-          <t>Defina o endereço IP público como Nenhum para implantar um plano de dados totalmente privado ao configurar o Firewall do Azure no modo de túnel forçado (não se aplica à WAN Virtual do Azure).</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>Ao implantar uma nova instância do Firewall do Azure, se você habilitar o modo de túnel forçado, poderá definir o endereço IP público como Nenhum para implantar um plano de dados totalmente privado. No entanto, o plano de gerenciamento ainda requer um IP público apenas para fins de gerenciamento. O tráfego interno de redes virtuais e locais não usará esse IP público. Para obter mais informações sobre o túnel forçado, consulte Túnel forçado do Firewall do Azure.</t>
-        </is>
-      </c>
+          <t>Compartilhe a mesma instância do Firewall do Azure. Você pode usar uma instância central do Firewall do Azure na rede virtual do hub ou no hub seguro da WAN Virtual e compartilhar a mesma instância do Firewall do Azure entre redes virtuais spoke que se conectam ao mesmo hub da mesma região. Certifique-se de que você não tenha tráfego inesperado entre regiões em uma topologia hub-and-spoke.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10545,21 +10561,17 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>176ae9e3-7a07-4885-ab4e-72a9ea2ee7fc</t>
+          <t>a522ab1e-0659-43b3-9fad-906116bb1432</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="C328" t="inlineStr">
         <is>
-          <t>Crie regras para políticas de firewall com base em critérios de acesso com privilégios mínimos.</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>As Políticas de Firewall do Azure podem ser organizadas em uma estrutura hierárquica para sobrepor uma política de base central. Permita políticas granulares para atender aos requisitos de regiões específicas. Cada política pode conter diferentes conjuntos de regras de DNAT, Rede e Aplicativo com prioridade, ação e ordem de processamento específicas. Crie suas regras com base no princípio Zero Trust de acesso com privilégios mínimos. Como as regras são processadas é explicado neste artigo.</t>
-        </is>
-      </c>
+          <t>Otimize o tráfego através do firewall. Examine regularmente o tráfego que o Firewall do Azure processa. Encontre oportunidades para reduzir a quantidade de tráfego que atravessa o firewall.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10567,21 +10579,17 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>f1c5e5d4-9e41-4b27-b53f-fb36ddce75b7</t>
+          <t>0976c680-8f44-46f9-ae4d-2349eaafd800</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="C329" t="inlineStr">
         <is>
-          <t>Habilite o IDPS no modo Alerta ou Alerta e negação.</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>O IDPS é um dos recursos de segurança mais poderosos do Firewall do Azure (Premium) e deve ser habilitado. Com base nos requisitos de segurança e do aplicativo, e considerando o impacto no desempenho (consulte a seção Custo abaixo), os modos Alerta ou Alerta e negação podem ser selecionados.</t>
-        </is>
-      </c>
+          <t>Diminua a quantidade de dados de log armazenados. O Firewall do Azure pode usar os Hubs de Eventos do Azure para registrar de forma abrangente os metadados do tráfego e enviá-los para workspaces do Log Analytics, Armazenamento do Azure ou soluções que não são da Microsoft. Todas as soluções de registro incorrem em custos para processar dados e fornecer armazenamento. Grandes quantidades de dados podem incorrer em custos significativos. Considere uma abordagem econômica e uma alternativa ao Log Analytics e estime o custo. Considere se você precisa registrar metadados de tráfego para todas as categorias de log.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10589,19 +10597,19 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>0722a8f4-bea5-4309-93de-d93fb93e0733</t>
+          <t>debc5298-dba5-4c67-a03a-1ca626025139</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="C330" t="inlineStr">
         <is>
-          <t>Habilite a configuração de proxy do DNS (Firewall do Azure).</t>
+          <t>Pare as implantações do Firewall do Azure que não precisam ser executadas continuamente. Você pode ter ambientes de desenvolvimento ou teste que você usa apenas durante o horário comercial. Para obter mais informações, consulte Desalocar e alocar o Firewall do Azure.</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Habilitar esse recurso aponta clientes nas VNets para o Firewall do Azure como um servidor DNS. Ele protegerá a infraestrutura DNS interna que não será acessada e exposta diretamente. O Firewall do Azure também deve ser configurado para usar o DNS personalizado que será usado para encaminhar consultas DNS.</t>
+          <t>Desligue essas implantações fora do horário de pico ou quando ocioso para reduzir despesas desnecessárias, mas mantenha a segurança e o desempenho durante momentos críticos.</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -10611,19 +10619,19 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>8afc40b9-179e-4b5d-ba89-897925ad6d09</t>
+          <t>c12bc13f-aeea-4f9c-a7c0-476028848d3c</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>Configure UDR (rotas definidas pelo usuário) para forçar o tráfego por meio do Firewall do Azure.</t>
+          <t>Examine regularmente o tráfego que o Firewall do Azure processa e encontre otimizações de carga de trabalho de origem. O log de fluxos superiores, também conhecido como log de fluxos de gordura, mostra as principais conexões que contribuem para a maior taxa de transferência por meio do firewall.</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Em uma arquitetura tradicional de Hub e Spokes, configure UDRs para forçar o tráfego por meio do Firewall do Azure para conectividade 'Spoke-to-Spoke', 'Spoke-to-Internet' e 'Spoke-to-Hybrid'. Na WAN Virtual do Azure, em vez disso, configure a Intenção de Roteamento e as Políticas para redirecionar o tráfego privado e/ou da Internet por meio da instância do Firewall do Azure integrada ao hub.</t>
+          <t>Otimize as cargas de trabalho que geram mais tráfego por meio do firewall para reduzir o volume de tráfego, o que diminui a carga no firewall e minimiza os custos de processamento de dados e largura de banda.</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -10633,19 +10641,19 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>54cc495b-54f8-4dc9-9ed9-e20c15a8beb9</t>
+          <t>fcd6975c-5cb6-4716-9bab-fe8e7cd50e00</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="C332" t="inlineStr">
         <is>
-          <t>Se não for possível aplicar a UDR e apenas o redirecionamento de tráfego da Web for necessário, considere usar o Firewall do Azure como um Proxy Explícito</t>
+          <t>Identifique e exclua implantações de Firewall do Azure não utilizadas. Analise métricas de monitoramento e UDRs associadas a sub-redes que apontam para o IP privado do firewall. Considere também outras validações e documentação interna sobre seu ambiente e implantações. Por exemplo, analise qualquer NAT clássico, rede e regras de aplicativo para o Firewall do Azure. E considere suas configurações. Por exemplo, você pode definir a configuração de proxy DNS como Desabilitado.  Para obter mais informações, consulte Monitorar o Firewall do Azure.</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Com o recurso de proxy explícito habilitado no caminho de saída, você pode definir uma configuração de proxy no aplicativo Web de envio (como um navegador da Web) com o Firewall do Azure configurado como o proxy. Como resultado, o tráfego da Web alcançará o endereço IP privado do firewall e, portanto, sairá diretamente do firewall sem usar uma UDR. Esse recurso também facilita o uso de vários firewalls sem modificar as rotas de rede existentes.</t>
+          <t>Use essa abordagem para detectar implantações econômicas ao longo do tempo e eliminar recursos não utilizados, o que evita custos desnecessários.</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10655,19 +10663,19 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>18462426-38d0-444b-aaec-99aa97aefc57</t>
+          <t>06d0aca0-59c3-4474-aea8-314ebc1d4367</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="C333" t="inlineStr">
         <is>
-          <t>Configure provedores de segurança de software como serviço (SaaS) de terceiros com suporte no Firewall Manager se quiser usar essas soluções para proteger conexões de saída.</t>
+          <t>Revise cuidadosamente as políticas, associações e herança do Firewall Manager para otimizar os custos. As políticas são cobradas com base em associações de firewall. Uma política com zero ou uma associação de firewall é gratuita. Uma política com várias associações de firewall é cobrada a uma taxa fixa. Para obter mais informações, consulte Preços do Firewall Manager.</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Você pode usar suas ofertas conhecidas e de terceiros SECaaS para proteger o acesso à Internet para seus usuários. Esse cenário requer a WAN Virtual do Azure com um Gateway de VPN S2S no Hub, pois ele usa um túnel IPSec para se conectar à infraestrutura do provedor. Os provedores de SECaaS podem cobrar taxas de licença adicionais e limitar a taxa de transferência em conexões IPSec. Soluções alternativas, como o ZScaler Cloud Connector, existem e podem ser mais adequadas.</t>
+          <t>Use adequadamente o Firewall Manager e suas políticas para reduzir os custos operacionais, aumentar a eficiência e reduzir a sobrecarga de gerenciamento.</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -10677,19 +10685,19 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>cfcce0d3-c52d-4405-9316-d503ffcf5349</t>
+          <t>0afd66fd-36c6-44ad-8e71-cd3b247c6816</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="C334" t="inlineStr">
         <is>
-          <t>Use a filtragem de FQDN (Nome de Domínio Totalmente Qualificado) em regras de rede.</t>
+          <t>Revise todos os endereços IP públicos em sua configuração e desassocie e exclua aqueles que você não usa. Avalie o uso da porta SNAT (conversão de endereços de rede de origem) antes de remover qualquer endereço IP.  Para obter mais informações, consulte Monitorar logs e métricas do Firewall do Azure e uso da porta SNAT.</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Você pode usar o FQDN com base na resolução DNS no Firewall do Azure e nas políticas de firewall. Esse recurso permite filtrar o tráfego de saída com qualquer protocolo TCP/UDP (incluindo NTP, SSH, RDP e muito mais). Você deve habilitar a configuração de Proxy DNS do Firewall do Azure para usar FQDNs em suas regras de rede. Para saber como funciona, confira Filtragem de FQDN do Firewall do Azure em regras de rede.</t>
+          <t>Exclua endereços IP não utilizados para reduzir custos.</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -10699,21 +10707,17 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>ce2815a6-eee5-4c54-91e7-9ee1e95a191a</t>
+          <t>2cbff8d4-4f59-42dc-b186-58f7c4965dbe</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="C335" t="inlineStr">
         <is>
-          <t>Use marcas de serviço em regras de rede para habilitar o acesso seletivo a serviços específicos da Microsoft.</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Uma marca de serviço representa um grupo de prefixos de endereço IP para ajudar a minimizar a complexidade da criação de regras de segurança. Usando marcas de serviço em regras de rede, é possível habilitar o acesso de saída a serviços específicos no Azure, Dynamics e Office 365 sem abrir grandes intervalos de endereços IP. O Azure manterá automaticamente o mapeamento entre essas marcas e os endereços IP subjacentes usados por cada serviço. A lista de marcas de serviço disponíveis para o Firewall do Azure está listada aqui: Marcas de serviço do Firewall Az.</t>
-        </is>
-      </c>
+          <t>Use o Gerenciador de Firewall com topologias hub-and-spoke tradicionais ou topologias de rede WAN Virtual para implantar e gerenciar instâncias do Firewall do Azure. Use serviços de segurança nativos para governança e proteção de tráfego para criar arquiteturas hub-and-spoke e transitivas. Para obter mais informações, consulte Topologia de rede e conectividade.</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr"/>
       <c r="F335" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10721,21 +10725,17 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>55fe92cd-c2a0-4b0b-bd8b-691291c73651</t>
+          <t>733bab93-bd9d-43c1-a780-e977d8f4fd3d</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="C336" t="inlineStr">
         <is>
-          <t>Use marcas FQDN em regras de aplicativo para habilitar o acesso seletivo a serviços específicos da Microsoft.</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>Uma marca FQDN representa um grupo de FQDNs (nomes de domínio totalmente qualificados) associados a serviços conhecidos da Microsoft. Você pode usar uma marca FQDN em regras de aplicativo para permitir o tráfego de rede de saída necessário por meio do firewall para alguns serviços específicos do Azure, Office 365, Windows 365 e Intune.</t>
-        </is>
-      </c>
+          <t>Mantenha backups regulares de artefatos do Azure Policy. Se você usar uma abordagem de infraestrutura como código para manter o Firewall do Azure e todas as dependências, deverá ter backup e controle de versão das políticas do Firewall do Azure em vigor. Caso contrário, você poderá implantar um mecanismo complementar baseado em um aplicativo lógico externo para fornecer uma solução automatizada eficaz.</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr"/>
       <c r="F336" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10743,21 +10743,17 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>c9cac1b2-3969-4de0-b36f-6f9992d9ebc6</t>
+          <t>8271c7ff-1472-4a86-ab05-0538a869631c</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="C337" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall do Azure para criar e associar um plano de proteção contra DDoS à sua rede virtual do hub (não se aplica à WAN Virtual do Azure).</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>Um plano de proteção contra DDoS fornece recursos aprimorados de mitigação para defender seu firewall contra ataques DDoS. O Gerenciador de Firewall do Azure é uma ferramenta integrada para criar sua infraestrutura de firewall e planos de proteção contra DDoS. Para obter mais informações, consulte Configurar um Plano de Proteção contra DDoS do Azure usando o Gerenciador de Firewall do Azure.</t>
-        </is>
-      </c>
+          <t>Monitore os logs e as métricas do Firewall do Azure. Aproveite os logs de diagnóstico para monitoramento e solução de problemas de firewall e os logs de atividades para operações de auditoria.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
       <c r="F337" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10765,21 +10761,17 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>e7925fd9-7502-4cb4-9b51-cbf8f546a5b2</t>
+          <t>09e15d81-89b9-458e-85a1-98ea29c9c72f</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="C338" t="inlineStr">
         <is>
-          <t>Use uma PKI corporativa para gerar certificados para inspeção TLS.</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Com o Firewall do Azure Premium, se o recurso de Inspeção TLS for usado, é recomendável aproveitar uma AC (Autoridade de Certificação) Corporativa interna para o ambiente de produção. Os certificados autoassinados devem ser usados apenas para fins de teste/PoC.</t>
-        </is>
-      </c>
+          <t>Analise os dados de monitoramento para avaliar a integridade geral do sistema. Use a pasta de trabalho de monitoramento interna do Firewall do Azure, familiarize-se com as consultas KQL (Linguagem de Consulta Kusto) e use o painel de análise de política para identificar possíveis problemas.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr"/>
       <c r="F338" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10787,21 +10779,17 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>2e318870-f258-484d-aef6-ed2972db1f44</t>
+          <t>ab3610c2-56cf-4888-8bb3-fe3816ee0d11</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="C339" t="inlineStr">
         <is>
-          <t>Examine o guia de configuração de Confiança Zero para o Firewall do Azure e o Gateway de Aplicativo</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Se seus requisitos de segurança exigirem a implementação de uma abordagem Zero-Trust para aplicativos Web (inspeção e criptografia), é recomendável seguir este guia. Neste documento, será explicado como integrar o Firewall do Azure e o Gateway de Aplicativo, em cenários tradicionais de Hub &amp; Spoke e WAN Virtual.</t>
-        </is>
-      </c>
+          <t>Defina alertas para eventos-chave para que os operadores possam responder rapidamente a eles.</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr"/>
       <c r="F339" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10809,14 +10797,14 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>34821124-0275-4c49-8f1c-20eb84027df3</t>
+          <t>67eb37ee-d9b8-4aff-8aa3-71011176aa0a</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="C340" t="inlineStr">
         <is>
-          <t>Selecione o SKU do Firewall do Azure a ser implantado.</t>
+          <t>Aproveite os mecanismos de detecção fornecidos pela plataforma no Azure para detectar abusos. Integre o Firewall do Azure ao Microsoft Defender para Nuvem e ao Microsoft Sentinel, se possível. Integre-se ao Defender para Nuvem para que você possa visualizar o status da infraestrutura de rede e da segurança de rede em um só lugar, incluindo a segurança de rede do Azure em todas as redes virtuais e hubs virtuais em diferentes regiões do Azure. Integre-se ao Microsoft Sentinel para fornecer recursos de detecção e prevenção de ameaças.</t>
         </is>
       </c>
       <c r="D340" t="inlineStr"/>
@@ -10827,17 +10815,21 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>ffdfd2b7-e799-4c09-9c76-1471fe5f8db9</t>
+          <t>5a8645c5-e586-4562-9f0a-7893542586fd</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="C341" t="inlineStr">
         <is>
-          <t>Determine se algumas instâncias não precisam de alocação permanente 24 horas por dia, 7 dias por semana.</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr"/>
+          <t>Habilite os logs de diagnóstico para o Firewall do Azure. Use logs de firewall ou pastas de trabalho para monitorar o Firewall do Azure. Você também pode usar logs de atividades para auditar operações em recursos do Firewall do Azure.  Use o formato de logs de firewall estruturado. Use apenas o formato de logs de diagnóstico anterior se você tiver uma ferramenta existente que o exija. Não habilite os dois formatos de log ao mesmo tempo.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Habilite os logs de diagnóstico para otimizar suas ferramentas e estratégias de monitoramento para o Firewall do Azure.  Use logs de firewall estruturados para estruturar os dados de log para que seja fácil de pesquisar, filtrar e analisar. As ferramentas de monitoramento mais recentes são baseadas nesse tipo de log, portanto, geralmente é um pré-requisito.</t>
+        </is>
+      </c>
       <c r="F341" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10845,17 +10837,21 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>cca81cf9-4d7f-4e04-99e9-8ecfb533d814</t>
+          <t>1069db41-1f8c-43b3-a25f-9981cc78e397</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="C342" t="inlineStr">
         <is>
-          <t>Determine onde você pode otimizar o uso do firewall em cargas de trabalho.</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>Use a pasta de trabalho interna do Firewall do Azure.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Use a pasta de trabalho do Firewall do Azure para extrair insights valiosos de eventos do Firewall do Azure, analisar seu aplicativo e regras de rede e examinar estatísticas sobre atividades de firewall em URLs, portas e endereços.</t>
+        </is>
+      </c>
       <c r="F342" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10863,17 +10859,21 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>50c204ab-2e28-456c-a731-3ecf2e38d6d7</t>
+          <t>3e10f8ea-c20e-4374-9e58-52969a407dc5</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="C343" t="inlineStr">
         <is>
-          <t>Monitore e otimize o uso de instâncias de firewall para determinar a relação custo-benefício.</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr"/>
+          <t>Monitore os logs e as métricas do Firewall do Azure e crie alertas para a capacidade do Firewall do Azure. Crie alertas para monitorar a taxa de transferência, o estado de integridade do firewall, a utilização da porta SNAT e as métricas de investigação de latência do AZFW.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Configure alertas para eventos importantes para notificar os operadores antes que surjam possíveis problemas, ajude a evitar interrupções e inicie ajustes rápidos de capacidade.</t>
+        </is>
+      </c>
       <c r="F343" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10881,17 +10881,21 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>365207d2-1008-4a6e-ad87-f4191a31a004</t>
+          <t>7f972e0f-0259-4783-b9e6-82c278711b0f</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="C344" t="inlineStr">
         <is>
-          <t>Revise e otimize o número de endereços IP públicos necessários e as políticas usadas.</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>Revise regularmente o painel de análise de políticas para identificar possíveis problemas.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Use a análise de política para analisar o impacto de suas políticas de Firewall do Azure. Identifique possíveis problemas em suas políticas, como atender aos limites de políticas, regras inadequadas e uso inadequado de grupos de IP. Obtenha recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
+        </is>
+      </c>
       <c r="F344" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10899,17 +10903,21 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>39b1fd82-3efb-459b-b789-a9dc631f9f90</t>
+          <t>90c06dd6-c01a-4f49-9054-7073f5c774ae</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="C345" t="inlineStr">
         <is>
-          <t>Revise os requisitos de registro, estime o custo e controle ao longo do tempo.</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr"/>
+          <t>Entenda as consultas KQL para que você possa usar os logs do Firewall do Azure para analisar e solucionar problemas rapidamente. O Firewall do Azure fornece consultas de exemplo.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Use consultas KQL para identificar rapidamente eventos dentro do firewall e verifique qual regra é acionada ou qual regra permite ou bloqueia uma solicitação.</t>
+        </is>
+      </c>
       <c r="F345" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10917,21 +10925,17 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>46753a55-3740-4a6d-808b-fbe485bc66e5</t>
+          <t>a3aa7729-46bd-4de6-82e6-28ac9d631b7a</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="C346" t="inlineStr">
         <is>
-          <t>Implante o SKU do Firewall do Azure adequado.</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>O Firewall do Azure pode ser implantado em três SKUs diferentes: Básico, Standard e Premium. O Firewall do Azure Premium é recomendado para proteger aplicativos altamente confidenciais (como processamento de pagamentos). O Firewall do Azure Standard é recomendado para clientes que procuram firewall de Camada 3 a Camada 7 e precisa de dimensionamento automático para lidar com períodos de pico de tráfego de até 30 Gbps. O Firewall do Azure Basic é recomendado para clientes SMB com necessidades de taxa de transferência de 250 Mbps. Se necessário, é possível fazer downgrade ou upgrade entre Standard e Premium, conforme documentado aqui.   Para obter mais informações, consulte Escolher o SKU do Firewall do Azure certo para atender às suas necessidades.</t>
-        </is>
-      </c>
+          <t>Otimize a configuração do Firewall do Azure de acordo com as recomendações do Well-Architected Framework para otimizar o código e a infraestrutura e garantir a operação máxima. Para manter uma rede eficiente e segura, revise e otimize regularmente as regras de firewall. Essa prática ajuda a garantir que suas configurações de firewall permaneçam eficazes e atualizadas com as ameaças de segurança mais recentes.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
       <c r="F346" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10939,21 +10943,17 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>ba45f704-2456-4d6a-999d-57db4dbf3ff5</t>
+          <t>9e42071b-fe43-455d-afa9-5ed2c33c7d20</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="C347" t="inlineStr">
         <is>
-          <t>Interrompa as implantações do Firewall do Azure que não precisam ser executadas 24 horas por dia, 7 dias por semana.</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Você pode ter ambientes de desenvolvimento ou teste que são usados apenas durante o horário comercial. Para obter mais informações, consulte Desalocar e alocar o Firewall do Azure.</t>
-        </is>
-      </c>
+          <t>Não use o Firewall do Azure para controle de tráfego de rede intravirtual. Use o Firewall do Azure para controlar os seguintes tipos de tráfego:</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="F347" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10961,21 +10961,17 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>2ef42b67-50cc-4d54-bd3d-324ad2044fc7</t>
+          <t>1655f213-e590-45ee-8819-9a5e40f83430</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="C348" t="inlineStr">
         <is>
-          <t>Compartilhe a mesma instância do Firewall do Azure em várias cargas de trabalho e Redes Virtuais do Azure.</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Você pode usar uma instância central do Firewall do Azure na rede virtual do hub ou no hub seguro da WAN Virtual e compartilhar o mesmo firewall em várias redes virtuais spoke conectadas ao mesmo hub da mesma região. Verifique se não há tráfego inesperado entre regiões como parte da topologia hub-spoke.</t>
-        </is>
-      </c>
+          <t>Aqueça o Firewall do Azure corretamente antes dos testes de desempenho. Crie tráfego inicial que não faça parte de seus testes de carga 20 minutos antes de seus testes. Use as configurações de diagnóstico para capturar eventos de expansão e redução. Você pode usar o serviço de Teste de Carga do Azure para gerar o tráfego inicial para que você possa escalar verticalmente o Firewall do Azure para o número máximo de instâncias.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="F348" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -10983,21 +10979,17 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>ae5816a1-1766-425a-a117-2873865a9f10</t>
+          <t>c3ae17a3-eff4-4f6e-98b9-df3a59bacfd9</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="C349" t="inlineStr">
         <is>
-          <t>Examine regularmente o tráfego processado pelo Firewall do Azure e procure otimizações de carga de trabalho de origem</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>O log Top Flows (conhecido no setor como Fat Flows) mostra as principais conexões que estão contribuindo para a maior taxa de transferência por meio do firewall. É recomendável examinar regularmente o tráfego processado pelo Firewall do Azure e pesquisar possíveis otimizações para reduzir a quantidade de tráfego que atravessa o firewall.</t>
-        </is>
-      </c>
+          <t>Configure uma sub-rede do Firewall do Azure com um espaço de endereço /26. Você precisa de uma sub-rede dedicada para o Firewall do Azure. O Firewall do Azure provisiona mais capacidade à medida que é dimensionado.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11005,21 +10997,17 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>791f974e-8c73-46ee-9b9e-26dd3a6c6845</t>
+          <t>df91da5c-22c8-4c7c-bfe5-9a1ede0028d9</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="C350" t="inlineStr">
         <is>
-          <t>Examine as instâncias subutilizadas do Firewall do Azure. Identifique e exclua implantações de Firewall do Azure não utilizadas.</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Para identificar implantações de Firewall do Azure não utilizadas, comece analisando as métricas de monitoramento e UDRs associadas a sub-redes que apontam para o IP privado do firewall. Combine essas informações com outras validações, como se sua instância do Firewall do Azure tiver regras (clássicas) para NAT, Rede e Aplicativo, ou mesmo se a configuração de Proxy DNS estiver definida como Desabilitada e com documentação interna sobre seu ambiente e implantações. Você pode detectar implantações econômicas ao longo do tempo.  Para obter mais informações sobre como monitorar logs e métricas, consulte Monitorar logs e métricas do Firewall do Azure e utilização da porta SNAT.</t>
-        </is>
-      </c>
+          <t>Não habilite o registro avançado se você não precisar dele. O Firewall do Azure fornece alguns recursos avançados de registro em log que podem incorrer em custos significativos para se manterem ativos. Em vez disso, você pode usar esses recursos apenas para fins de solução de problemas e por períodos limitados de tempo. Desative os recursos quando não precisar deles. Por exemplo, os principais fluxos e os logs de rastreamento de fluxo são caros e podem causar uso excessivo de CPU e armazenamento na infraestrutura do Firewall do Azure.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr"/>
       <c r="F350" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11027,19 +11015,19 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>6590ab7b-01d8-487c-ad40-c325eada375c</t>
+          <t>ddf79c25-05f6-4085-94c4-9534ec1a05fa</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Firewall do Azure e suas políticas para reduzir os custos operacionais, aumentar a eficiência e reduzir a sobrecarga de gerenciamento.</t>
+          <t>Use o painel de análise de política para identificar maneiras de otimizar as políticas do Firewall do Azure.</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Revise cuidadosamente as políticas, associações e herança do Firewall Manager. As políticas são cobradas com base em associações de firewall. Uma política com zero ou uma associação de firewall é gratuita. Uma política com várias associações de firewall é cobrada a uma taxa fixa. Para obter mais informações, consulte Preços – Gerenciador de Firewall do Azure.</t>
+          <t>Use a análise de políticas para identificar possíveis problemas em suas políticas, como atender aos limites de políticas, regras inadequadas e uso inadequado de grupos de IP. Obtenha recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -11049,19 +11037,19 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>c82f1a0b-3dd1-4da7-9006-5b870e0ea843</t>
+          <t>9a20f369-25cd-45ba-bda7-e56f1e379e15</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="C352" t="inlineStr">
         <is>
-          <t>Exclua endereços IP públicos não utilizados.</t>
+          <t>Coloque as regras usadas com frequência no início de um grupo para otimizar a latência das políticas do Firewall do Azure que têm grandes conjuntos de regras.  Para obter mais informações, consulte Usar políticas de Firewall do Azure para processar regras.</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Valide se todos os endereços IP públicos associados estão em uso. Se eles não estiverem em uso, desassocie-os e exclua-os. Avalie a utilização da porta SNAT antes de remover qualquer endereço IP. Você usará apenas o número de IPs públicos de que seu firewall precisa. Para obter mais informações, consulte Monitorar logs e métricas do Firewall do Azure e utilização da porta SNAT.</t>
+          <t>Coloque as regras usadas com frequência no topo de um conjunto de regras para otimizar a latência de processamento. O Firewall do Azure processa regras com base no tipo de regra, herança, prioridade do grupo de coleta de regras e prioridade de coleção de regras. O Firewall do Azure processa primeiro os grupos de coleta de regras de alta prioridade. Dentro de um grupo de coleção de regras, o Firewall do Azure processa as coleções de regras que têm a prioridade mais alta primeiro.</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11071,19 +11059,19 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>58401f6a-8858-4d03-bf00-7f6d8747297a</t>
+          <t>ce0fa221-61f9-41ab-a9ed-233f5546d732</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="C353" t="inlineStr">
         <is>
-          <t>Revise os requisitos de registro.</t>
+          <t>Use grupos de IP para resumir intervalos de endereços IP e evitar exceder o limite de regras de rede de origem ou destino exclusivas. O Firewall do Azure trata o grupo de IP como um único endereço quando você cria regras de rede.</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>O Firewall do Azure tem a capacidade de registrar metadados de forma abrangente de todo o tráfego que vê, para Workspaces do Log Analytics, Armazenamento ou soluções de terceiros por meio de Hubs de Eventos. No entanto, todas as soluções de registro incorrem em custos de processamento e armazenamento de dados. Em volumes muito grandes, esses custos podem ser significativos, uma abordagem econômica e uma alternativa ao Log Analytics devem ser consideradas e o custo estimado. Considere se é necessário registrar metadados de tráfego para todas as categorias de log e modificá-los em Configurações de Diagnóstico, se necessário.</t>
+          <t>Essa abordagem aumenta efetivamente o número de endereços IP que você pode cobrir sem exceder o limite. Para cada regra, o Azure multiplica as portas por endereços IP. Portanto, se uma regra tiver quatro intervalos de endereços IP e cinco portas, você consumirá 20 regras de rede.</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11093,17 +11081,21 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>a9f71813-ccf8-427a-9ce3-676b4123eff4</t>
+          <t>1d2f023e-7dcf-4f55-b07f-1a93c9c0ab4e</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="C354" t="inlineStr">
         <is>
-          <t>Manter o inventário e o backup da configuração e das políticas do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr"/>
+          <t>Use as categorias da Web do Firewall do Azure para permitir ou negar o acesso de saída em massa, em vez de criar e manter explicitamente uma longa lista de sites públicos da Internet.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Esse recurso categoriza dinamicamente o conteúdo da Web e permite a criação de regras compactas de aplicativos, o que reduz a sobrecarga operacional.</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11111,17 +11103,21 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>c8e11b57-bc16-4a60-9c0d-aeae7239fe91</t>
+          <t>2007a892-6911-4310-b6eb-5eb3660dc8c9</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="C355" t="inlineStr">
         <is>
-          <t>Aproveite os logs de diagnóstico para monitoramento e solução de problemas de firewall.</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr"/>
+          <t>Avalie o impacto no desempenho do IDPS no modo de alerta e negação. Para obter mais informações, consulte Desempenho do Firewall do Azure.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Habilite o IDPS no modo de alerta e negação para detectar e impedir atividades maliciosas na rede. Esse recurso pode introduzir uma penalidade de desempenho. Entenda o efeito em sua carga de trabalho para que você possa planejar adequadamente.</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11129,17 +11125,21 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>be3e8ab7-db2a-40f7-a76a-fba15b34b88d</t>
+          <t>984c7d68-82f6-48e9-a894-a8e7717d49e2</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="C356" t="inlineStr">
         <is>
-          <t>Aproveite a pasta de trabalho de Monitoramento do Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr"/>
+          <t>Configure implantações do Firewall do Azure com um mínimo de cinco endereços IP públicos para implantações suscetíveis ao esgotamento da porta SNAT.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>O Firewall do Azure dá suporte a 2.496 portas para cada endereço IP público que cada instância de Conjuntos de Dimensionamento de Máquinas Virtuais do Azure de back-end usa. Essa configuração aumenta as portas SNAT disponíveis em cinco vezes.  Por padrão, o Firewall do Azure implanta duas instâncias de Conjuntos de Dimensionamento de Máquinas Virtuais que dão suporte a 4.992 portas para cada IP de destino de fluxo, porta de destino e protocolo TCP ou UDP. O firewall pode ser dimensionado até um máximo de 20 instâncias.</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11147,14 +11147,14 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>af454d15-f640-47db-9864-7c31cbdcdffc</t>
+          <t>899877c6-618a-4814-953a-7c7ce430e407</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="C357" t="inlineStr">
         <is>
-          <t>Revise regularmente seus insights e análises de políticas.</t>
+          <t>Estime o padrão e o volume de tráfego. O número de solicitações do cliente para a borda do Azure Front Door pode influenciar sua escolha de camada. Se você precisar dar suporte a um alto volume de solicitações, considere a camada Premium do Azure Front Door porque o desempenho afeta a disponibilidade. No entanto, há uma compensação de custo. Essas camadas são descritas em Eficiência de desempenho.</t>
         </is>
       </c>
       <c r="D357" t="inlineStr"/>
@@ -11165,14 +11165,14 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>010e0c46-9d19-46fb-9a85-4bb79828db8a</t>
+          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="C358" t="inlineStr">
         <is>
-          <t>Integre o Firewall do Azure ao Microsoft Defender para Nuvem e ao Microsoft Sentinel.</t>
+          <t>Escolha sua estratégia de implantação. As abordagens fundamentais de implantação são ativo-ativo e ativo-passivo. A implantação ativa-ativa significa que vários ambientes ou selos que executam a carga de trabalho atendem ao tráfego. A implantação ativa-passiva significa que apenas a região primária lida com todo o tráfego, mas faz failover para a região secundária quando necessário. Em uma implantação de várias regiões, os selos são executados em diferentes regiões para maior disponibilidade com um balanceador de carga global, como o Azure Front Door, que distribui o tráfego. Portanto, é importante configurar o balanceador de carga para a abordagem de implantação apropriada.</t>
         </is>
       </c>
       <c r="D358" t="inlineStr"/>
@@ -11183,21 +11183,17 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>e455cf35-374c-4e02-9432-e0dc531b829b</t>
+          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="C359" t="inlineStr">
         <is>
-          <t>Não use o Firewall do Azure para controle de tráfego intra-VNet.</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>O Firewall do Azure deve ser usado para controlar o tráfego entre VNets, entre VNets e redes locais, o tráfego de saída para a Internet e o tráfego não HTTP/s de entrada. Para o controle de tráfego intra-VNet, é recomendável usar Grupos de Segurança de Rede.</t>
-        </is>
-      </c>
+          <t>Use o mesmo nome de host no Azure Front Door e nos servidores de origem. Para garantir que os cookies ou URLs de redirecionamento funcionem corretamente, preserve o nome do host HTTP original ao usar um proxy reverso, como um balanceador de carga, na frente de um aplicativo Web.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11205,21 +11201,17 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>337df674-237d-4b82-ac92-ae45f34a6e3d</t>
+          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="C360" t="inlineStr">
         <is>
-          <t>Mantenha backups regulares de artefatos do Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>Se a abordagem de IaC (infraestrutura como código) for usada para manter o Firewall do Azure e todas as dependências, o backup e o controle de versão das Políticas de Firewall do Azure já deverão estar em vigor. Caso contrário, um mecanismo complementar baseado no Aplicativo Lógico externo poderá ser implantado para automatizar e fornecer uma solução eficaz.</t>
-        </is>
-      </c>
+          <t>Implemente o padrão de monitoramento de ponto de extremidade de integridade. Seu aplicativo deve expor pontos de extremidade de integridade, que agregam o estado dos serviços críticos e dependências que seu aplicativo precisa para atender às solicitações. As investigações de integridade do Azure Front Door usam o ponto de extremidade para detectar a integridade dos servidores de origem. Para obter mais informações, consulte Padrão de monitoramento de ponto de extremidade de integridade.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
       <c r="F360" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11227,21 +11219,17 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>174e4ca6-77d4-4b83-8f05-0c54c43792ec</t>
+          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="C361" t="inlineStr">
         <is>
-          <t>Habilite os Logs de Diagnóstico para o Firewall do Azure.</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>Os Logs de Diagnóstico são um componente chave para muitas ferramentas e estratégias de monitoramento do Firewall do Azure e devem ser habilitados. Você pode monitorar o Firewall do Azure usando logs de firewall ou pastas de trabalho. Você também pode usar logs de atividades para auditar operações em recursos do Firewall do Azure.</t>
-        </is>
-      </c>
+          <t>Aproveite a funcionalidade interna de rede de distribuição de conteúdo no Azure Front Door. O recurso de rede de distribuição de conteúdo do Azure Front Door tem centenas de pontos de presença e pode ajudar a resistir a ataques de DDoS (negação de serviço distribuído). Esses recursos ajudam a melhorar a confiabilidade.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="F361" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11249,21 +11237,17 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>7e27b44b-e8c0-4f25-9fce-78a85810d715</t>
+          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="C362" t="inlineStr">
         <is>
-          <t>Use o formato Structured Firewall Logs.</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>Os logs de firewall estruturados são um tipo de dados de log organizados em um novo formato específico. Eles usam um esquema predefinido para estruturar os dados de log de uma forma que facilite a pesquisa, a filtragem e a análise. As ferramentas de monitoramento mais recentes são baseadas nesse tipo de log, portanto, geralmente é um pré-requisito. Use o formato anterior de Logs de Diagnóstico somente se houver uma ferramenta existente com um pré-requisito para isso. Não habilite os dois formatos de log ao mesmo tempo.</t>
-        </is>
-      </c>
+          <t>Considere uma opção de gerenciamento de tráfego redundante. O Azure Front Door é um serviço distribuído globalmente que é executado como um singleton em um ambiente. O Azure Front Door é um possível ponto único de falha no sistema. Se o serviço falhar, os clientes não poderão acessar seu aplicativo durante o tempo de inatividade.</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr"/>
       <c r="F362" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11271,19 +11255,19 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>078ab6f4-2ef5-4f91-856c-be9e3c2748a1</t>
+          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="C363" t="inlineStr">
         <is>
-          <t>Use a pasta de trabalho interna de monitoramento do Firewall do Azure.</t>
+          <t>Escolha um método de roteamento que dê suporte à sua estratégia de implantação.  O método ponderado, que distribui o tráfego com base no coeficiente de peso configurado, oferece suporte a modelos ativos-ativos.  Um valor baseado em prioridade que configura a região primária para receber todo o tráfego e enviar tráfego para a região secundária como backup oferece suporte a modelos ativo-passivo.  Combine os métodos anteriores com latência para que a origem com a menor latência receba tráfego.</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>A experiência do portal do Firewall do Azure agora inclui uma nova pasta de trabalho na interface do usuário da seção Monitoramento, uma instalação separada não é mais necessária. Com a pasta de trabalho do Firewall do Azure, você pode extrair insights valiosos de eventos do Firewall do Azure, aprofundar suas regras de aplicativo e rede e examinar estatísticas sobre atividades de firewall em URLs, portas e endereços.</t>
+          <t>Você pode selecionar o melhor recurso de origem usando uma série de etapas de decisão e seu design. A origem selecionada atende ao tráfego dentro do intervalo de latência permitido na proporção especificada de pesos.</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11293,19 +11277,19 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>a246ca16-d2da-4ebc-ad28-0bcbb0813be0</t>
+          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="C364" t="inlineStr">
         <is>
-          <t>Monitore as principais métricas e crie alertas para indicadores da utilização da capacidade do Firewall do Azure.</t>
+          <t>Dar suporte à redundância por ter várias origens em um ou mais pools de back-end. Sempre tenha instâncias redundantes do seu aplicativo e certifique-se de que cada instância exponha um ponto de extremidade ou origem. Você pode colocar essas origens em um ou mais pools de back-end.</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Os alertas devem ser criados para monitorar pelo menos a taxa de transferência, o estado de integridade do firewall, a utilização da porta SNAT e as métricas de investigação de latência do AZFW. Para obter informações sobre como monitorar logs e métricas, consulte Monitorar logs e métricas do Firewall do Azure.</t>
+          <t>Várias origens dão suporte à redundância distribuindo o tráfego em várias instâncias do aplicativo. Se uma instância não estiver disponível, outras origens de back-end ainda poderão receber tráfego.</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -11315,19 +11299,19 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>0c405dff-403a-4ead-94d9-5539ba1eaea6</t>
+          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="C365" t="inlineStr">
         <is>
-          <t>Configure a integração do Firewall do Azure com o Microsoft Defender para Nuvem e o Microsoft Sentinel.</t>
+          <t>Configure investigações de integridade na origem. Configure o Azure Front Door para realizar verificações de integridade para determinar se a instância de back-end está disponível e pronta para continuar recebendo solicitações.</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Se essas ferramentas estiverem disponíveis no ambiente, é recomendável aproveitar a integração com as soluções Microsoft Defender para Nuvem e Microsoft Sentinel. Com a integração do Microsoft Defender para Nuvem, você pode visualizar o status total da infraestrutura de rede e da segurança de rede em um só lugar, incluindo a Segurança de Rede do Azure em todas as VNets e Hubs Virtuais espalhados por diferentes regiões no Azure. A integração com o Microsoft Sentinel fornece recursos de detecção e prevenção de ameaças.</t>
+          <t>As investigações de integridade habilitadas fazem parte da implementação do padrão de monitoramento de integridade. As investigações de integridade garantem que o Azure Front Door roteie apenas o tráfego para instâncias íntegras o suficiente para lidar com solicitações.  Para obter mais informações, consulte Práticas recomendadas em investigações de integridade.</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -11337,19 +11321,19 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>6643f4d1-ee99-4466-9175-164787d00fc3</t>
+          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="C366" t="inlineStr">
         <is>
-          <t>Revise regularmente o painel de análise de políticas para identificar possíveis problemas.</t>
+          <t>Defina um tempo limite para encaminhar solicitações para o back-end.  Ajuste a configuração de tempo limite de acordo com as necessidades de seus endpoints. Caso contrário, o Azure Front Door poderá fechar a conexão antes que a origem envie a resposta.  Você também pode reduzir o tempo limite padrão do Azure Front Door se todas as suas origens tiverem um tempo limite mais curto.  Para obter mais informações, consulte Solução de problemas de solicitações que não respondem.</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>A Análise de Política é um novo recurso que fornece insights sobre o impacto de suas políticas de Firewall do Azure. Ele ajuda você a identificar possíveis problemas (atingir limites de política, regras de baixa utilização, regras redundantes, regras muito genéricas, recomendação de uso de grupos de IP) em suas políticas e fornece recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
+          <t>Os tempos limite ajudam a evitar problemas de desempenho e disponibilidade, encerrando solicitações que demoram mais do que o esperado para serem concluídas.</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -11359,19 +11343,19 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>43d91873-4442-40ae-b2a3-263bc7fdcaab</t>
+          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="C367" t="inlineStr">
         <is>
-          <t>Familiarize-se com as consultas KQL (Kusto Query Language) para permitir uma análise rápida e a solução de problemas usando os logs do Firewall do Azure.</t>
+          <t>Use o mesmo nome de host no Azure Front Door e sua origem. O Azure Front Door pode reescrever o cabeçalho do host de solicitações de entrada, o que é útil quando você tem vários nomes de domínio personalizados que roteiam para uma origem. No entanto, reescrever o cabeçalho do host pode causar problemas com cookies de solicitação e redirecionamento de URL.</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Consultas de exemplo são fornecidas para o Firewall do Azure. Isso permitirá que você identifique rapidamente o que está acontecendo dentro do seu firewall e verifique qual regra foi acionada ou qual regra está permitindo / bloqueando uma solicitação.</t>
+          <t>Defina o mesmo nome de host para evitar mau funcionamento com afinidade, autenticação e autorização de sessão. Para obter mais informações, consulte Preservar o nome do host HTTP original entre um proxy reverso e seu aplicativo Web de back-end.</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -11381,17 +11365,21 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>8bc24ea6-da9e-48b8-a05c-4fce251d2046</t>
+          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="C368" t="inlineStr">
         <is>
-          <t>Revise e otimize regularmente as regras de firewall.</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>Decida se seu aplicativo requer afinidade de sessão. Se você tiver requisitos de alta confiabilidade, recomendamos que você desabilite a afinidade de sessão.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Com a afinidade de sessão, as conexões do usuário permanecem na mesma origem durante a sessão do usuário. Se essa origem ficar indisponível, a experiência do usuário poderá ser interrompida.</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11399,17 +11387,21 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>9469b3e2-6be2-470b-a10b-9fb0150c5733</t>
+          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="C369" t="inlineStr">
         <is>
-          <t>Revise os requisitos de política e as oportunidades para resumir intervalos de IP e lista de URLs.</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr"/>
+          <t>Aproveite as regras de limitação de taxa incluídas em um WAF (firewall de aplicativo Web).</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Limite as solicitações para impedir que os clientes enviem muito tráfego para seu aplicativo. A limitação de taxa pode ajudá-lo a evitar problemas como uma tempestade de repetição.</t>
+        </is>
+      </c>
       <c r="F369" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11417,14 +11409,14 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>9efe3606-1aa2-4e06-bf6a-2e5214cf080f</t>
+          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="C370" t="inlineStr">
         <is>
-          <t>Avalie os requisitos da porta SNAT.</t>
+          <t>Examine a linha de base de segurança do Azure Front Door.</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -11435,14 +11427,14 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>93db9b9d-c43d-47e2-a1cf-e81841274059</t>
+          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>Planeje testes de carga para testar o desempenho de dimensionamento automático em seu ambiente.</t>
+          <t>Proteja os servidores de back-end. O front-end atua como o único ponto de entrada para o aplicativo.</t>
         </is>
       </c>
       <c r="D371" t="inlineStr"/>
@@ -11453,14 +11445,14 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>fbe59997-e12b-497b-bdbd-d2a5e3f728e7</t>
+          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="C372" t="inlineStr">
         <is>
-          <t>Não habilite ferramentas de diagnóstico e registro em log se não forem necessários.</t>
+          <t>Permitir apenas acesso autorizado ao plano de controle. Use o RBAC (controle de acesso baseado em função) do Azure Front Door para restringir o acesso apenas às identidades que precisam dele.</t>
         </is>
       </c>
       <c r="D372" t="inlineStr"/>
@@ -11471,21 +11463,17 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>c68f8c08-fe1e-4515-a877-67daaa008ab0</t>
+          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="C373" t="inlineStr">
         <is>
-          <t>Use o painel Análise de Política para identificar possíveis otimizações para Políticas de Firewall.</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>A Análise de Política é um novo recurso que fornece insights sobre o impacto de suas políticas de Firewall do Azure. Ele ajuda você a identificar possíveis problemas (atingir limites de política, regras de baixa utilização, regras redundantes, regras muito genéricas, recomendação de uso de grupos de IP) em suas políticas e fornece recomendações para melhorar sua postura de segurança e desempenho de processamento de regras.</t>
-        </is>
-      </c>
+          <t>Bloqueie ameaças comuns na borda. O WAF é integrado ao Azure Front Door. Habilite as regras do WAF nos front-ends para proteger os aplicativos contra explorações e vulnerabilidades comuns na borda da rede, mais perto da origem do ataque.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr"/>
       <c r="F373" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11493,21 +11481,17 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>cbbaf175-2b8e-4a1f-af5a-a9cbfb798ffb</t>
+          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="C374" t="inlineStr">
         <is>
-          <t>Considere as categorias da Web para permitir ou negar o acesso de saída em massa.</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>Em vez de criar e manter explicitamente uma longa lista de sites públicos da Internet, considere o uso de Categorias da Web do Firewall do Azure. Esse recurso categorizará dinamicamente o conteúdo da Web e permitirá a criação de Regras de Aplicativo compactas.</t>
-        </is>
-      </c>
+          <t>Proteja o Azure Front Door contra tráfego inesperado. O Azure Front Door usa o plano básico de proteção contra DDoS do Azure para proteger os pontos de extremidade do aplicativo contra ataques de DDoS. Se você precisar expor outros endereços IP públicos do seu aplicativo, considere adicionar o plano padrão de proteção contra DDoS para esses endereços para recursos avançados de proteção e detecção.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr"/>
       <c r="F374" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11515,21 +11499,17 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>b8bc28b7-69d4-49d3-8a1e-8dd7ba71ebbe</t>
+          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="C375" t="inlineStr">
         <is>
-          <t>Avalie o impacto no desempenho do IDPS no modo de alerta e negação.</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>Se o Firewall do Azure for necessário para operar no modo IDPS Alertar e negar, considere cuidadosamente o impacto no desempenho, conforme documentado no desempenho do firewall.</t>
-        </is>
-      </c>
+          <t>Proteja os dados em trânsito. Habilite o TLS (Transport Layer Security) de ponta a ponta, o redirecionamento de HTTP para HTTPS e certificados TLS gerenciados quando aplicável. Para obter mais informações, consulte Práticas recomendadas de TLS para o Azure Front Door.</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr"/>
       <c r="F375" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11537,21 +11517,17 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>b91be607-0c6b-4c0d-bdd2-367879f7632d</t>
+          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="C376" t="inlineStr">
         <is>
-          <t>Avalie o possível problema de esgotamento da porta SNAT.</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Atualmente, o Firewall do Azure dá suporte a 2496 portas por endereço IP público por instância do Conjunto de Dimensionamento de Máquinas Virtuais de back-end. Por padrão, há duas instâncias do Conjunto de Dimensionamento de Máquinas Virtuais. Portanto, existem 4992 portas por IP de destino de fluxo, porta de destino e protocolo (TCP ou UDP). O firewall pode ser dimensionado até um máximo de 20 instâncias. Você pode contornar os limites configurando implantações do Firewall do Azure com um mínimo de cinco endereços IP públicos para implantações suscetíveis ao esgotamento de SNAT.</t>
-        </is>
-      </c>
+          <t>Monitore a atividade anômala. Revise regularmente os logs para verificar se há ataques e falsos positivos. Envie logs do WAF do Azure Front Door para o SIEM (gerenciamento centralizado de eventos e informações de segurança) da sua organização, como o Microsoft Sentinel, para detectar padrões de ameaças e incorporar medidas preventivas no design da carga de trabalho.</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr"/>
       <c r="F376" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11559,19 +11535,19 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>a5847147-e7ef-48d1-ba16-d896fdce1b9f</t>
+          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="C377" t="inlineStr">
         <is>
-          <t>Aqueça corretamente o Firewall do Azure antes de qualquer teste de desempenho.</t>
+          <t>Habilite conjuntos de regras do WAF que detectam e bloqueiam tráfego potencialmente mal-intencionado. Esse recurso está disponível na camada Premium. Recomendamos estes conjuntos de regras: - Padrão - Proteção contra bots - Restrição de IP - Filtragem geográfica - Limitação de taxa</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Crie tráfego inicial que não faça parte de seus testes de carga 20 minutos antes do teste. Use as configurações de diagnóstico para capturar eventos de expansão e redução. Você pode usar o serviço de Teste de Carga do Azure para gerar o tráfego inicial. Permite que a instância do Firewall do Azure escale verticalmente suas instâncias ao máximo.</t>
+          <t>Os conjuntos de regras padrão são atualizados com frequência com base nos 10 principais tipos de ataque do OWASP e nas informações do Microsoft Threat Intelligence.  Os conjuntos de regras especializados detectam determinados casos de uso. Por exemplo, as regras de bot classificam os bots como bons, ruins ou desconhecidos com base nos endereços IP do cliente. Eles também bloqueiam bots ruins e endereços IP conhecidos e restringem o tráfego com base na localização geográfica dos chamadores.  Usando uma combinação de conjuntos de regras, você pode detectar e bloquear ataques com várias intenções.</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -11581,19 +11557,19 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>908a8bfa-9e9f-4199-8b5a-f2a031ab22e0</t>
+          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="C378" t="inlineStr">
         <is>
-          <t>Configure uma sub-rede do Firewall do Azure (AzureFirewallSubnet) com um espaço de endereço /26.</t>
+          <t>Crie exclusões para conjuntos de regras gerenciadas.  Teste uma política de WAF no modo de detecção por algumas semanas e ajuste os falsos positivos antes de implantá-la.</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>O Firewall do Azure é uma implantação dedicada em sua rede virtual. Em sua rede virtual, uma sub-rede dedicada é necessária para a instância do Firewall do Azure. O Firewall do Azure provisiona mais capacidade à medida que é dimensionado. Um espaço de endereço /26 para suas sub-redes garante que o firewall tenha endereços IP suficientes disponíveis para acomodar o dimensionamento. O Firewall do Azure não precisa de uma sub-rede maior que /26. O nome da sub-rede do Firewall do Azure deve ser AzureFirewallSubnet.</t>
+          <t>Reduza os falsos positivos e permita solicitações legítimas para seu aplicativo.</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -11603,19 +11579,19 @@
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>d0e66443-59f1-48cb-995f-eaa6688c4f3b</t>
+          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="C379" t="inlineStr">
         <is>
-          <t>Não habilite o registro avançado se não for necessário</t>
+          <t>Habilite TLS de ponta a ponta, redirecionamento de HTTP para HTTPS e certificados TLS gerenciados quando aplicável.  Examine as práticas recomendadas de TLS para o Azure Front Door.  Use o TLS versão 1.2 como a versão mínima permitida com cifras relevantes para seu aplicativo.  Os certificados gerenciados do Azure Front Door devem ser sua opção padrão para facilitar as operações. No entanto, se você quiser gerenciar o ciclo de vida dos certificados, use seus próprios certificados nos pontos de extremidade de domínio personalizados do Azure Front Door e armazene-os no Key Vault.</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>O Firewall do Azure fornece alguns recursos avançados de log que podem ser caros para manter sempre ativos. Em vez disso, eles devem ser usados apenas para fins de solução de problemas e limitados em duração e, em seguida, desativados quando não forem mais necessários. Por exemplo, os principais fluxos e os logs de rastreamento de fluxo são caros podem causar uso excessivo de CPU e armazenamento na infraestrutura do Firewall do Azure.</t>
+          <t>O TLS garante que as trocas de dados entre o navegador, o Azure Front Door e as origens de back-end sejam criptografadas para evitar adulterações.  O Key Vault oferece suporte a certificados gerenciados e renovação e rotação de certificados simples.</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -11625,14 +11601,14 @@
       </c>
       <c r="L379" t="inlineStr">
         <is>
-          <t>2c51e141-6e45-42cd-8c22-c55b219ffe83</t>
+          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="C380" t="inlineStr">
         <is>
-          <t>Estime o padrão e o volume de tráfego. O número de solicitações do cliente para a borda do Azure Front Door pode influenciar sua escolha de camada. Se você precisar dar suporte a um alto volume de solicitações, considere a camada Premium do Azure Front Door porque o desempenho afeta a disponibilidade. No entanto, há uma compensação de custo. Essas camadas são descritas em Eficiência de desempenho.</t>
+          <t>Examine as camadas e os preços do Azure Front Door. Use a calculadora de preços para estimar os custos realistas para cada nível. Compare os recursos e a adequação de cada camada para o seu cenário. Por exemplo, apenas a camada Premium oferece suporte à conexão com sua origem por meio de Link Privado.</t>
         </is>
       </c>
       <c r="D380" t="inlineStr"/>
@@ -11643,14 +11619,14 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>59ed40bd-06a0-4125-ab99-afc88a248aa5</t>
+          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="C381" t="inlineStr">
         <is>
-          <t>Escolha sua estratégia de implantação. As abordagens fundamentais de implantação são ativo-ativo e ativo-passivo. A implantação ativa-ativa significa que vários ambientes ou selos que executam a carga de trabalho atendem ao tráfego. A implantação ativa-passiva significa que apenas a região primária lida com todo o tráfego, mas faz failover para a região secundária quando necessário. Em uma implantação de várias regiões, os selos são executados em diferentes regiões para maior disponibilidade com um balanceador de carga global, como o Azure Front Door, que distribui o tráfego. Portanto, é importante configurar o balanceador de carga para a abordagem de implantação apropriada.</t>
+          <t>Considere os custos de largura de banda. Os custos de largura de banda do Azure Front Door dependem da camada escolhida e do tipo de transferência de dados. O Azure Front Door fornece relatórios internos para métricas faturáveis. Para avaliar seus custos relacionados à largura de banda e onde você pode concentrar seus esforços de otimização, consulte Relatórios do Azure Front Door.</t>
         </is>
       </c>
       <c r="D381" t="inlineStr"/>
@@ -11661,14 +11637,14 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>51f023f3-53b4-4878-8548-2b08a6b095ab</t>
+          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="C382" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de host no Azure Front Door e nos servidores de origem. Para garantir que os cookies ou URLs de redirecionamento funcionem corretamente, preserve o nome do host HTTP original ao usar um proxy reverso, como um balanceador de carga, na frente de um aplicativo Web.</t>
+          <t>Otimize as solicitações recebidas. O Azure Front Door cobra as solicitações de entrada. Você pode definir restrições em sua configuração de projeto.</t>
         </is>
       </c>
       <c r="D382" t="inlineStr"/>
@@ -11679,14 +11655,14 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>486f318a-8747-45e5-a5f4-97642d4fada6</t>
+          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="C383" t="inlineStr">
         <is>
-          <t>Implemente o padrão de monitoramento de ponto de extremidade de integridade. Seu aplicativo deve expor pontos de extremidade de integridade, que agregam o estado dos serviços críticos e dependências que seu aplicativo precisa para atender às solicitações. As investigações de integridade do Azure Front Door usam o ponto de extremidade para detectar a integridade dos servidores de origem. Para obter mais informações, consulte Padrão de monitoramento de ponto de extremidade de integridade.</t>
+          <t>Use os recursos de forma eficiente. O Azure Front Door usa um método de roteamento que ajuda na otimização de recursos. A menos que a carga de trabalho seja extremamente sensível à latência, distribua o tráfego uniformemente em todos os ambientes para usar efetivamente os recursos implantados.</t>
         </is>
       </c>
       <c r="D383" t="inlineStr"/>
@@ -11697,14 +11673,14 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>9bc96e35-d25f-4521-86f8-8cadefb23576</t>
+          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="C384" t="inlineStr">
         <is>
-          <t>Aproveite a funcionalidade interna de rede de distribuição de conteúdo no Azure Front Door. O recurso de rede de distribuição de conteúdo do Azure Front Door tem centenas de pontos de presença e pode ajudar a resistir a ataques de DDoS (negação de serviço distribuído). Esses recursos ajudam a melhorar a confiabilidade.</t>
+          <t>Considere usar uma instância compartilhada fornecida pela organização. Os custos incorridos com serviços centralizados são compartilhados entre as cargas de trabalho. No entanto, considere a compensação com a confiabilidade. Para aplicativos de missão crítica que têm requisitos de alta disponibilidade, recomendamos uma instância autônoma.</t>
         </is>
       </c>
       <c r="D384" t="inlineStr"/>
@@ -11715,14 +11691,14 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>96c8dc89-cafe-411e-9080-35c13fffb8b3</t>
+          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="C385" t="inlineStr">
         <is>
-          <t>Considere uma opção de gerenciamento de tráfego redundante. O Azure Front Door é um serviço distribuído globalmente que é executado como um singleton em um ambiente. O Azure Front Door é um possível ponto único de falha no sistema. Se o serviço falhar, os clientes não poderão acessar seu aplicativo durante o tempo de inatividade.</t>
+          <t>Preste atenção à quantidade de dados registrados. Os custos relacionados à largura de banda e ao armazenamento podem ser acumulados se determinadas solicitações não forem necessárias ou se os dados de log forem retidos por um longo período de tempo.</t>
         </is>
       </c>
       <c r="D385" t="inlineStr"/>
@@ -11733,19 +11709,19 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>750bc3ba-30aa-44fc-88aa-bc93cdf29cdf</t>
+          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="C386" t="inlineStr">
         <is>
-          <t>Escolha um método de roteamento que dê suporte à sua estratégia de implantação.  O método ponderado, que distribui o tráfego com base no coeficiente de peso configurado, oferece suporte a modelos ativos-ativos.  Um valor baseado em prioridade que configura a região primária para receber todo o tráfego e enviar tráfego para a região secundária como backup oferece suporte a modelos ativo-passivo.  Combine os métodos anteriores com latência para que a origem com a menor latência receba tráfego.</t>
+          <t>Use o cache para pontos de extremidade que dão suporte a ele.</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Você pode selecionar o melhor recurso de origem usando uma série de etapas de decisão e seu design. A origem selecionada atende ao tráfego dentro do intervalo de latência permitido na proporção especificada de pesos.</t>
+          <t>O cache otimiza os custos de transferência de dados porque reduz o número de chamadas da instância do Azure Front Door para a origem.</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -11755,19 +11731,19 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>1a6fba56-5098-4506-9be0-940fe556996c</t>
+          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="C387" t="inlineStr">
         <is>
-          <t>Dar suporte à redundância por ter várias origens em um ou mais pools de back-end. Sempre tenha instâncias redundantes do seu aplicativo e certifique-se de que cada instância exponha um ponto de extremidade ou origem. Você pode colocar essas origens em um ou mais pools de back-end.</t>
+          <t>Considere habilitar a compactação de arquivos. Para essa configuração, o aplicativo deve dar suporte à compactação e o cache deve estar habilitado.</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Várias origens dão suporte à redundância distribuindo o tráfego em várias instâncias do aplicativo. Se uma instância não estiver disponível, outras origens de back-end ainda poderão receber tráfego.</t>
+          <t>A compactação reduz o consumo de largura de banda e melhora o desempenho.</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -11777,19 +11753,19 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>00f51ce2-46a9-4051-ab0e-762743d0837d</t>
+          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="C388" t="inlineStr">
         <is>
-          <t>Configure investigações de integridade na origem. Configure o Azure Front Door para realizar verificações de integridade para determinar se a instância de back-end está disponível e pronta para continuar recebendo solicitações.</t>
+          <t>Desabilite as verificações de integridade em pools de back-end únicos. Se você tiver apenas uma origem configurada no grupo de origens do Azure Front Door, essas chamadas serão desnecessárias.</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>As investigações de integridade habilitadas fazem parte da implementação do padrão de monitoramento de integridade. As investigações de integridade garantem que o Azure Front Door roteie apenas o tráfego para instâncias íntegras o suficiente para lidar com solicitações.  Para obter mais informações, consulte Práticas recomendadas em investigações de integridade.</t>
+          <t>Você pode economizar nos custos de largura de banda desabilitando solicitações que não são necessárias para tomar decisões de roteamento.</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -11799,21 +11775,17 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>17fbec2c-ddb4-4490-946c-a151ae0fadd4</t>
+          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="C389" t="inlineStr">
         <is>
-          <t>Defina um tempo limite para encaminhar solicitações para o back-end.  Ajuste a configuração de tempo limite de acordo com as necessidades de seus endpoints. Caso contrário, o Azure Front Door poderá fechar a conexão antes que a origem envie a resposta.  Você também pode reduzir o tempo limite padrão do Azure Front Door se todas as suas origens tiverem um tempo limite mais curto.  Para obter mais informações, consulte Solução de problemas de solicitações que não respondem.</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>Os tempos limite ajudam a evitar problemas de desempenho e disponibilidade, encerrando solicitações que demoram mais do que o esperado para serem concluídas.</t>
-        </is>
-      </c>
+          <t>Use tecnologias de infraestrutura como código (IaC). Use tecnologias de IaC, como modelos Bicep e Azure Resource Manager, para provisionar a instância do Azure Front Door. Essas abordagens declarativas fornecem consistência e manutenção direta. Por exemplo, usando tecnologias de IaC, você pode adotar facilmente novas versões do conjunto de regras.</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr"/>
       <c r="F389" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11821,21 +11793,17 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>1a308f11-1d93-4d57-bd84-cbd8f6198dd2</t>
+          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="C390" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de host no Azure Front Door e sua origem. O Azure Front Door pode reescrever o cabeçalho do host de solicitações de entrada, o que é útil quando você tem vários nomes de domínio personalizados que roteiam para uma origem. No entanto, reescrever o cabeçalho do host pode causar problemas com cookies de solicitação e redirecionamento de URL.</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Defina o mesmo nome de host para evitar mau funcionamento com afinidade, autenticação e autorização de sessão. Para obter mais informações, consulte Preservar o nome do host HTTP original entre um proxy reverso e seu aplicativo Web de back-end.</t>
-        </is>
-      </c>
+          <t>Simplifique as configurações. Use o Azure Front Door para gerenciar facilmente as configurações. Por exemplo, suponha que sua arquitetura dê suporte a microsserviços. O Azure Front Door dá suporte a recursos de redirecionamento, para que você possa usar o redirecionamento baseado em caminho para direcionar serviços individuais.</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11843,21 +11811,17 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>7af90aa7-b21f-432f-858b-2d872c752d7f</t>
+          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>Decida se seu aplicativo requer afinidade de sessão. Se você tiver requisitos de alta confiabilidade, recomendamos que você desabilite a afinidade de sessão.</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Com a afinidade de sessão, as conexões do usuário permanecem na mesma origem durante a sessão do usuário. Se essa origem ficar indisponível, a experiência do usuário poderá ser interrompida.</t>
-        </is>
-      </c>
+          <t>Lide com a exposição progressiva usando métodos de roteamento do Azure Front Door. Para uma abordagem de balanceamento de carga ponderada, você pode usar uma implantação canário para enviar uma porcentagem específica de tráfego para um back-end. Essa abordagem ajuda você a testar novos recursos e versões em um ambiente controlado antes de implementá-los.</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr"/>
       <c r="F391" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11865,21 +11829,17 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>f66a8d49-8d0a-4952-9db2-ac2e526f08ad</t>
+          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="C392" t="inlineStr">
         <is>
-          <t>Aproveite as regras de limitação de taxa incluídas em um WAF (firewall de aplicativo Web).</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Limite as solicitações para impedir que os clientes enviem muito tráfego para seu aplicativo. A limitação de taxa pode ajudá-lo a evitar problemas como uma tempestade de repetição.</t>
-        </is>
-      </c>
+          <t>Colete e analise dados operacionais do Azure Front Door como parte do monitoramento da carga de trabalho. Capture logs e métricas relevantes do Azure Front Door com os Logs do Azure Monitor. Esses dados ajudam você a solucionar problemas, entender o comportamento do usuário e otimizar as operações.</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr"/>
       <c r="F392" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11887,14 +11847,14 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>63faaf18-da4b-4274-ac3c-d955f2a2e01b</t>
+          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="C393" t="inlineStr">
         <is>
-          <t>Examine a linha de base de segurança do Azure Front Door.</t>
+          <t>Descarregue o gerenciamento de certificados para o Azure. Alivie a carga operacional associada à rotação e renovações de certificação.</t>
         </is>
       </c>
       <c r="D393" t="inlineStr"/>
@@ -11905,17 +11865,21 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>ad186a96-5de2-4bf7-acd4-5b534cdb3e97</t>
+          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="C394" t="inlineStr">
         <is>
-          <t>Proteja os servidores de back-end. O front-end atua como o único ponto de entrada para o aplicativo.</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr"/>
+          <t>Use o redirecionamento HTTP para HTTPS para dar suporte à compatibilidade com versões futuras.</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Quando o redirecionamento está habilitado, o Azure Front Door redireciona automaticamente os clientes que estão usando o protocolo mais antigo para usar HTTPS para uma experiência segura.</t>
+        </is>
+      </c>
       <c r="F394" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11923,17 +11887,21 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>b31346d7-4fde-42c2-82fe-2e4d54aa8f1b</t>
+          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="C395" t="inlineStr">
         <is>
-          <t>Permitir apenas acesso autorizado ao plano de controle. Use o RBAC (controle de acesso baseado em função) do Azure Front Door para restringir o acesso apenas às identidades que precisam dele.</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr"/>
+          <t>Capture logs e métricas.  Inclua logs de atividades de recursos, logs de acesso, logs de investigação de integridade e logs do WAF. Configure alertas.</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>O monitoramento do fluxo de entrada é uma parte crucial do monitoramento de um aplicativo. Você deseja rastrear solicitações e fazer melhorias de desempenho e segurança. Você precisa de dados para depurar a configuração do Azure Front Door.  Com alertas em vigor, você pode receber notificações instantâneas de quaisquer problemas operacionais críticos.</t>
+        </is>
+      </c>
       <c r="F395" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11941,17 +11909,21 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>903b1844-994a-49e8-8e08-6ef445aec4f7</t>
+          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="C396" t="inlineStr">
         <is>
-          <t>Bloqueie ameaças comuns na borda. O WAF é integrado ao Azure Front Door. Habilite as regras do WAF nos front-ends para proteger os aplicativos contra explorações e vulnerabilidades comuns na borda da rede, mais perto da origem do ataque.</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>Revise os relatórios de análise integrados.</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Uma visão holística do seu perfil do Azure Front Door ajuda a impulsionar melhorias com base em relatórios de tráfego e segurança por meio de métricas do WAF.</t>
+        </is>
+      </c>
       <c r="F396" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11959,17 +11931,21 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>329c0516-9a14-45ea-ad04-fe75453c8d88</t>
+          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="C397" t="inlineStr">
         <is>
-          <t>Proteja o Azure Front Door contra tráfego inesperado. O Azure Front Door usa o plano básico de proteção contra DDoS do Azure para proteger os pontos de extremidade do aplicativo contra ataques de DDoS. Se você precisar expor outros endereços IP públicos do seu aplicativo, considere adicionar o plano padrão de proteção contra DDoS para esses endereços para recursos avançados de proteção e detecção.</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr"/>
+          <t>Use certificados TLS gerenciados quando possível.</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>O Azure Front Door pode emitir e gerenciar certificados para você. Esse recurso elimina a necessidade de renovações de certificado e minimiza o risco de interrupção devido a um certificado TLS inválido ou expirado.</t>
+        </is>
+      </c>
       <c r="F397" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11977,17 +11953,21 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>d323ca3c-f7df-4f7e-b7c9-698d2bdad3e2</t>
+          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="C398" t="inlineStr">
         <is>
-          <t>Proteja os dados em trânsito. Habilite o TLS (Transport Layer Security) de ponta a ponta, o redirecionamento de HTTP para HTTPS e certificados TLS gerenciados quando aplicável. Para obter mais informações, consulte Práticas recomendadas de TLS para o Azure Front Door.</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr"/>
+          <t>Use certificados TLS curinga.</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Você não precisa modificar a configuração para adicionar ou especificar cada subdomínio separadamente.</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -11995,14 +11975,14 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>fcb4a654-3e3b-408c-9538-a1dfefdef774</t>
+          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="C399" t="inlineStr">
         <is>
-          <t>Monitore a atividade anômala. Revise regularmente os logs para verificar se há ataques e falsos positivos. Envie logs do WAF do Azure Front Door para o SIEM (gerenciamento centralizado de eventos e informações de segurança) da sua organização, como o Microsoft Sentinel, para detectar padrões de ameaças e incorporar medidas preventivas no design da carga de trabalho.</t>
+          <t>Planeje a capacidade analisando seus padrões de tráfego esperados. Realize testes completos para entender o desempenho do seu aplicativo sob diferentes cargas. Considere fatores como transações simultâneas, taxas de solicitação e transferência de dados.</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -12013,21 +11993,17 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>451f9871-3ca1-40b9-a1f6-c5eb0a37213b</t>
+          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="C400" t="inlineStr">
         <is>
-          <t>Habilite conjuntos de regras do WAF que detectam e bloqueiam tráfego potencialmente mal-intencionado. Esse recurso está disponível na camada Premium. Recomendamos estes conjuntos de regras: - Padrão - Proteção contra bots - Restrição de IP - Filtragem geográfica - Limitação de taxa</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>Os conjuntos de regras padrão são atualizados com frequência com base nos 10 principais tipos de ataque do OWASP e nas informações do Microsoft Threat Intelligence.  Os conjuntos de regras especializados detectam determinados casos de uso. Por exemplo, as regras de bot classificam os bots como bons, ruins ou desconhecidos com base nos endereços IP do cliente. Eles também bloqueiam bots ruins e endereços IP conhecidos e restringem o tráfego com base na localização geográfica dos chamadores.  Usando uma combinação de conjuntos de regras, você pode detectar e bloquear ataques com várias intenções.</t>
-        </is>
-      </c>
+          <t>Analise os dados de desempenho revisando regularmente os relatórios do Azure Front Door. Esses relatórios fornecem insights sobre várias métricas que servem como indicadores de desempenho no nível da tecnologia.</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr"/>
       <c r="F400" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12035,21 +12011,17 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>711c450c-ac42-4570-b2fd-22319b4a7913</t>
+          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="C401" t="inlineStr">
         <is>
-          <t>Crie exclusões para conjuntos de regras gerenciadas.  Teste uma política de WAF no modo de detecção por algumas semanas e ajuste os falsos positivos antes de implantá-la.</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>Reduza os falsos positivos e permita solicitações legítimas para seu aplicativo.</t>
-        </is>
-      </c>
+          <t>Otimize as transferências de dados.</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="F401" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12057,21 +12029,17 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>a6fe49f4-0b1f-4677-af1f-b766f073ac6c</t>
+          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="C402" t="inlineStr">
         <is>
-          <t>Habilite TLS de ponta a ponta, redirecionamento de HTTP para HTTPS e certificados TLS gerenciados quando aplicável.  Examine as práticas recomendadas de TLS para o Azure Front Door.  Use o TLS versão 1.2 como a versão mínima permitida com cifras relevantes para seu aplicativo.  Os certificados gerenciados do Azure Front Door devem ser sua opção padrão para facilitar as operações. No entanto, se você quiser gerenciar o ciclo de vida dos certificados, use seus próprios certificados nos pontos de extremidade de domínio personalizados do Azure Front Door e armazene-os no Key Vault.</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>O TLS garante que as trocas de dados entre o navegador, o Azure Front Door e as origens de back-end sejam criptografadas para evitar adulterações.  O Key Vault oferece suporte a certificados gerenciados e renovação e rotação de certificados simples.</t>
-        </is>
-      </c>
+          <t>Otimize o uso de sondas de integridade. Obtenha informações de integridade de investigações de integridade somente quando o estado das origens for alterado. Encontre um equilíbrio entre monitorar a precisão e minimizar o tráfego desnecessário.</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr"/>
       <c r="F402" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12079,14 +12047,14 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>450b511f-9e82-45ce-986b-769ea00dbeaa</t>
+          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="C403" t="inlineStr">
         <is>
-          <t>Examine as camadas e os preços do Azure Front Door. Use a calculadora de preços para estimar os custos realistas para cada nível. Compare os recursos e a adequação de cada camada para o seu cenário. Por exemplo, apenas a camada Premium oferece suporte à conexão com sua origem por meio de Link Privado.</t>
+          <t>Revise o método de roteamento de origem. O Azure Front Door fornece vários métodos de roteamento, incluindo roteamento baseado em latência, baseado em prioridade, ponderado e baseado em afinidade de sessão, para a origem. Esses métodos afetam significativamente o desempenho do aplicativo. Para saber mais sobre a melhor opção de roteamento de tráfego para seu cenário, consulte Métodos de roteamento de tráfego para a origem.</t>
         </is>
       </c>
       <c r="D403" t="inlineStr"/>
@@ -12097,14 +12065,14 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>baeb625f-93ac-4181-be7b-07f474584985</t>
+          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="C404" t="inlineStr">
         <is>
-          <t>Considere os custos de largura de banda. Os custos de largura de banda do Azure Front Door dependem da camada escolhida e do tipo de transferência de dados. O Azure Front Door fornece relatórios internos para métricas faturáveis. Para avaliar seus custos relacionados à largura de banda e onde você pode concentrar seus esforços de otimização, consulte Relatórios do Azure Front Door.</t>
+          <t>Revise a localização dos servidores de origem. A localização dos servidores de origem afeta a capacidade de resposta do aplicativo. Os servidores de origem devem estar mais próximos dos usuários. O Azure Front Door garante que os usuários de um local específico acessem o ponto de entrada do Azure Front Door mais próximo. Os benefícios de desempenho incluem experiência do usuário mais rápida, melhor uso do roteamento baseado em latência pelo Azure Front Door e tempo de transferência de dados minimizado usando o cache, que armazena o conteúdo mais próximo dos usuários.</t>
         </is>
       </c>
       <c r="D404" t="inlineStr"/>
@@ -12115,17 +12083,21 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>ed02627c-4a6d-4d6e-982f-a1fbee4a7259</t>
+          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="C405" t="inlineStr">
         <is>
-          <t>Otimize as solicitações recebidas. O Azure Front Door cobra as solicitações de entrada. Você pode definir restrições em sua configuração de projeto.</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr"/>
+          <t>Habilite o cache.  Você pode otimizar cadeias de caracteres de consulta para armazenamento em cache. Para conteúdo puramente estático, ignore as cadeias de caracteres de consulta para maximizar o uso do cache.  Se o aplicativo usar cadeias de caracteres de consulta, considere incluí-las na chave de cache. Incluir as cadeias de caracteres de consulta na chave de cache permite que o Azure Front Door forneça respostas armazenadas em cache ou outras respostas, com base em sua configuração.</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>O Azure Front Door oferece uma solução de rede de distribuição de conteúdo robusta que armazena em cache o conteúdo na borda da rede. O cache reduz a carga nos servidores de back-end e reduz a movimentação de dados pela rede, o que ajuda a descarregar o uso da largura de banda.</t>
+        </is>
+      </c>
       <c r="F405" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12133,17 +12105,21 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>e2e0bb7e-521d-4729-9579-5c9539a68867</t>
+          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="C406" t="inlineStr">
         <is>
-          <t>Use os recursos de forma eficiente. O Azure Front Door usa um método de roteamento que ajuda na otimização de recursos. A menos que a carga de trabalho seja extremamente sensível à latência, distribua o tráfego uniformemente em todos os ambientes para usar efetivamente os recursos implantados.</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr"/>
+          <t>Use a compactação de arquivos ao acessar conteúdo para download.</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>A compactação no Azure Front Door ajuda a fornecer conteúdo no formato ideal, tem uma carga menor e fornece conteúdo aos usuários mais rapidamente.</t>
+        </is>
+      </c>
       <c r="F406" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12151,17 +12127,21 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>337e7030-494e-4be5-8920-9144cb02c399</t>
+          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="C407" t="inlineStr">
         <is>
-          <t>Considere usar uma instância compartilhada fornecida pela organização. Os custos incorridos com serviços centralizados são compartilhados entre as cargas de trabalho. No entanto, considere a compensação com a confiabilidade. Para aplicativos de missão crítica que têm requisitos de alta disponibilidade, recomendamos uma instância autônoma.</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
+          <t>Ao configurar investigações de integridade no Azure Front Door, considere usar solicitações 'HEAD' em vez de solicitações 'GET'.  A investigação de integridade lê apenas o código de status, não o conteúdo.</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>As solicitações 'HEAD' permitem consultar uma alteração de estado sem buscar todo o seu conteúdo.</t>
+        </is>
+      </c>
       <c r="F407" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12169,17 +12149,21 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>add1a775-b13c-477b-acc7-38dbcccd51fe</t>
+          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="C408" t="inlineStr">
         <is>
-          <t>Preste atenção à quantidade de dados registrados. Os custos relacionados à largura de banda e ao armazenamento podem ser acumulados se determinadas solicitações não forem necessárias ou se os dados de log forem retidos por um longo período de tempo.</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr"/>
+          <t>Avalie se você deve habilitar a afinidade de sessão quando as solicitações do mesmo usuário devem ser direcionadas para o mesmo servidor back-end.  Do ponto de vista da confiabilidade, não recomendamos essa abordagem. Se você usar essa opção, o aplicativo deverá se recuperar normalmente sem interromper as sessões do usuário.  Há também uma compensação no balanceamento de carga porque restringe a flexibilidade de distribuir o tráfego em vários back-ends uniformemente.</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Otimize o desempenho e mantenha a continuidade das sessões do usuário, especialmente quando os aplicativos dependem da manutenção de informações de estado localmente.</t>
+        </is>
+      </c>
       <c r="F408" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12187,21 +12171,17 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>48f2f718-1ae7-476f-a0a1-d6b83e47bbaa</t>
+          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="C409" t="inlineStr">
         <is>
-          <t>Use o cache para pontos de extremidade que dão suporte a ele.</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>O cache otimiza os custos de transferência de dados porque reduz o número de chamadas da instância do Azure Front Door para a origem.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: para cargas de trabalho críticas, use zonas de disponibilidade para os clusters do AKS.</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr"/>
       <c r="F409" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12209,21 +12189,17 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>5a9023b8-c181-41d5-aeb5-9c09a85b0792</t>
+          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="C410" t="inlineStr">
         <is>
-          <t>Considere habilitar a compactação de arquivos. Para essa configuração, o aplicativo deve dar suporte à compactação e o cache deve estar habilitado.</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>A compactação reduz o consumo de largura de banda e melhora o desempenho.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: planeje o espaço de endereço IP para garantir que seu cluster possa ser dimensionado de forma confiável, incluindo o tratamento do tráfego de failover em topologias de vários clusters.</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12231,21 +12207,17 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>84da68ee-7bb0-4a7d-ad70-d53c186ffd3e</t>
+          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="C411" t="inlineStr">
         <is>
-          <t>Desabilite as verificações de integridade em pools de back-end únicos. Se você tiver apenas uma origem configurada no grupo de origens do Azure Front Door, essas chamadas serão desnecessárias.</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>Você pode economizar nos custos de largura de banda desabilitando solicitações que não são necessárias para tomar decisões de roteamento.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: examine as práticas recomendadas para monitorar o Kubernetes com o Azure Monitor para determinar a melhor estratégia de monitoramento para suas cargas de trabalho.</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
       <c r="F411" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12253,14 +12225,14 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>5d3ad5cb-d897-4ae7-8d1c-ae8398c79ed6</t>
+          <t>00c83f06-95ab-41c2-aef0-c770e177066f</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="C412" t="inlineStr">
         <is>
-          <t>Use tecnologias de infraestrutura como código (IaC). Use tecnologias de IaC, como modelos Bicep e Azure Resource Manager, para provisionar a instância do Azure Front Door. Essas abordagens declarativas fornecem consistência e manutenção direta. Por exemplo, usando tecnologias de IaC, você pode adotar facilmente novas versões do conjunto de regras.</t>
+          <t>Arquitetura de carga de trabalho: certifique-se de que as cargas de trabalho sejam criadas para dar suporte ao dimensionamento horizontal e relatar a preparação e a integridade do aplicativo.</t>
         </is>
       </c>
       <c r="D412" t="inlineStr"/>
@@ -12271,14 +12243,14 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>5e8bfd0e-20d9-441f-814d-c2b49e7033ea</t>
+          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="C413" t="inlineStr">
         <is>
-          <t>Simplifique as configurações. Use o Azure Front Door para gerenciar facilmente as configurações. Por exemplo, suponha que sua arquitetura dê suporte a microsserviços. O Azure Front Door dá suporte a recursos de redirecionamento, para que você possa usar o redirecionamento baseado em caminho para direcionar serviços individuais.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: verifique se a carga de trabalho está em execução em pools de nós do usuário e escolha o SKU do tamanho certo. No mínimo, inclua dois nós para pools de nós de usuário e três nós para o pool de nós do sistema.</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
@@ -12289,14 +12261,14 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>e9bd20e3-6e61-4907-9b84-4bd50b867875</t>
+          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="C414" t="inlineStr">
         <is>
-          <t>Lide com a exposição progressiva usando métodos de roteamento do Azure Front Door. Para uma abordagem de balanceamento de carga ponderada, você pode usar uma implantação canário para enviar uma porcentagem específica de tráfego para um back-end. Essa abordagem ajuda você a testar novos recursos e versões em um ambiente controlado antes de implementá-los.</t>
+          <t>Arquitetura de cluster: use o SLA de Tempo de Atividade do AKS para atender às metas de disponibilidade para cargas de trabalho de produção.</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
@@ -12307,17 +12279,21 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>bb3943fb-6d97-458d-be6a-d9b71e8898d7</t>
+          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="C415" t="inlineStr">
         <is>
-          <t>Colete e analise dados operacionais do Azure Front Door como parte do monitoramento da carga de trabalho. Capture logs e métricas relevantes do Azure Front Door com os Logs do Azure Monitor. Esses dados ajudam você a solucionar problemas, entender o comportamento do usuário e otimizar as operações.</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr"/>
+          <t>Arquiteturas de cluster e carga de trabalho: controle o agendamento de pod usando seletores de nó e afinidade.</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Permite que o agendador do Kubernetes isole logicamente as cargas de trabalho por hardware no nó. Ao contrário das tolerâncias, os pods sem um seletor de nó correspondente podem ser agendados em nós rotulados, o que permite que recursos não utilizados nos nós sejam consumidos, mas dá prioridade aos pods que definem o seletor de nó correspondente. Use a afinidade de nó para obter mais flexibilidade, o que permite definir o que acontece se o pod não puder ser correspondido a um nó.</t>
+        </is>
+      </c>
       <c r="F415" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12325,17 +12301,21 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>5e1264a9-c6cc-4d4e-8e73-7ca4b3f05c17</t>
+          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="C416" t="inlineStr">
         <is>
-          <t>Descarregue o gerenciamento de certificados para o Azure. Alivie a carga operacional associada à rotação e renovações de certificação.</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+          <t>Arquitetura de cluster: Garanta a seleção adequada do plug-in de rede com base nos requisitos de rede e no dimensionamento do cluster.</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>A CNI do Azure é necessária para cenários específicos, por exemplo, pools de nós baseados no Windows, requisitos de rede específicos e Políticas de Rede do Kubernetes. Consulte Kubenet versus CNI do Azure para obter mais informações.</t>
+        </is>
+      </c>
       <c r="F416" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12343,19 +12323,19 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>8bdff2ab-0800-45ef-acab-ff7d320856aa</t>
+          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="C417" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS para dar suporte à compatibilidade com versões futuras.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: use o SLA de Tempo de Atividade do AKS para clusters de nível de produção.</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Quando o redirecionamento está habilitado, o Azure Front Door redireciona automaticamente os clientes que estão usando o protocolo mais antigo para usar HTTPS para uma experiência segura.</t>
+          <t>O SLA de Tempo de Atividade do AKS garante: - disponibilidade de '99,95%' do ponto de extremidade do servidor de API do Kubernetes para Clusters do AKS que usam Zonas de Disponibilidade do Azure ou - disponibilidade de '99,9%' para Clusters do AKS que não usam Zonas de Disponibilidade do Azure.</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -12365,19 +12345,19 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>829f4fea-1653-4093-aaf7-93b6a30aae1f</t>
+          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="C418" t="inlineStr">
         <is>
-          <t>Capture logs e métricas.  Inclua logs de atividades de recursos, logs de acesso, logs de investigação de integridade e logs do WAF. Configure alertas.</t>
+          <t>Arquitetura de cluster: use zonas de disponibilidade para maximizar a resiliência em uma região do Azure distribuindo nós de agente do AKS em data centers fisicamente separados.</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>O monitoramento do fluxo de entrada é uma parte crucial do monitoramento de um aplicativo. Você deseja rastrear solicitações e fazer melhorias de desempenho e segurança. Você precisa de dados para depurar a configuração do Azure Front Door.  Com alertas em vigor, você pode receber notificações instantâneas de quaisquer problemas operacionais críticos.</t>
+          <t>Ao distribuir pools de nós em várias zonas, os nós em um pool de nós continuarão em execução mesmo que outra zona tenha ficado inativa. Se houver requisitos de colocalidade, uma implantação regular do AKS baseada em VMSS em uma única zona ou grupos de posicionamento por proximidade poderão ser usados para minimizar a latência entre nós.</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -12387,19 +12367,19 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>8ad83783-d01c-4772-a76b-39f7c9d61cc7</t>
+          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="C419" t="inlineStr">
         <is>
-          <t>Revise os relatórios de análise integrados.</t>
+          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Uma visão holística do seu perfil do Azure Front Door ajuda a impulsionar melhorias com base em relatórios de tráfego e segurança por meio de métricas do WAF.</t>
+          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -12409,19 +12389,19 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>e5e56ee9-79e4-4fa8-9fdb-600748d7df10</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="C420" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados quando possível.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: defina solicitações e limites de recursos de pod em manifestos de implantação de aplicativo e imponha com Azure Policy.</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>O Azure Front Door pode emitir e gerenciar certificados para você. Esse recurso elimina a necessidade de renovações de certificado e minimiza o risco de interrupção devido a um certificado TLS inválido ou expirado.</t>
+          <t>Os limites de recursos de CPU e memória do contêiner são necessários para evitar o esgotamento de recursos no cluster do Kubernetes.</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -12431,19 +12411,19 @@
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>c2fcfdfb-fedb-4b47-93ac-1988250f76cd</t>
+          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="C421" t="inlineStr">
         <is>
-          <t>Use certificados TLS curinga.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: mantenha o pool de nós do sistema isolado das cargas de trabalho do aplicativo.</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Você não precisa modificar a configuração para adicionar ou especificar cada subdomínio separadamente.</t>
+          <t>Os pools de nós do sistema exigem um SKU de VM de pelo menos 2 vCPUs e 4 GB de memória, mas 4 vCPUs ou mais são recomendados. Sistema de referência e pools de nós do usuário para requisitos detalhados.</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -12453,17 +12433,21 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>0d7deaf4-ec0e-4e32-8b6b-64f3190d10f6</t>
+          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="C422" t="inlineStr">
         <is>
-          <t>Planeje a capacidade analisando seus padrões de tráfego esperados. Realize testes completos para entender o desempenho do seu aplicativo sob diferentes cargas. Considere fatores como transações simultâneas, taxas de solicitação e transferência de dados.</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr"/>
+          <t>Arquiteturas de cluster e carga de trabalho: Separe aplicativos para pools de nós dedicados com base em requisitos específicos.</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Os aplicativos podem compartilhar a mesma configuração e precisar de VMs habilitadas para GPU, VMs otimizadas para CPU ou memória ou a capacidade de escalar para zero. Evite um grande número de pools de nós para reduzir a sobrecarga de gerenciamento extra.</t>
+        </is>
+      </c>
       <c r="F422" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12471,17 +12455,21 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>d18003c9-2d90-4e52-b503-5fcdb4ffcd96</t>
+          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="C423" t="inlineStr">
         <is>
-          <t>Analise os dados de desempenho revisando regularmente os relatórios do Azure Front Door. Esses relatórios fornecem insights sobre várias métricas que servem como indicadores de desempenho no nível da tecnologia.</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr"/>
+          <t>Arquitetura de cluster: use um gateway NAT para clusters que executam cargas de trabalho que fazem muitas conexões de saída simultâneas.</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Para evitar problemas de confiabilidade com as limitações do Azure Load Balancer com alto tráfego de saída simultâneo, use um Gateway NAT para dar suporte ao tráfego de saída confiável em escala.</t>
+        </is>
+      </c>
       <c r="F423" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12489,14 +12477,14 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>87c450a0-6a4a-453c-ae38-b8f21952ab79</t>
+          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="C424" t="inlineStr">
         <is>
-          <t>Otimize as transferências de dados.</t>
+          <t>Arquitetura de cluster: use identidades gerenciadas para evitar o gerenciamento e a rotação de princípios de serviço.</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
@@ -12507,14 +12495,14 @@
       </c>
       <c r="L424" t="inlineStr">
         <is>
-          <t>a9d9ffe4-3fa7-48c8-bc1d-d0685e495dbe</t>
+          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="C425" t="inlineStr">
         <is>
-          <t>Otimize o uso de sondas de integridade. Obtenha informações de integridade de investigações de integridade somente quando o estado das origens for alterado. Encontre um equilíbrio entre monitorar a precisão e minimizar o tráfego desnecessário.</t>
+          <t>Arquitetura de cluster: use o RBAC (controle de acesso baseado em função) do Kubernetes com a ID do Microsoft Entra para acesso com privilégios mínimos e minimize a concessão de privilégios de administrador para proteger a configuração e o acesso a segredos.</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
@@ -12525,14 +12513,14 @@
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>161bc803-0586-4d21-b2ea-018d78209565</t>
+          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="C426" t="inlineStr">
         <is>
-          <t>Revise o método de roteamento de origem. O Azure Front Door fornece vários métodos de roteamento, incluindo roteamento baseado em latência, baseado em prioridade, ponderado e baseado em afinidade de sessão, para a origem. Esses métodos afetam significativamente o desempenho do aplicativo. Para saber mais sobre a melhor opção de roteamento de tráfego para seu cenário, consulte Métodos de roteamento de tráfego para a origem.</t>
+          <t>Arquitetura de cluster: use o Microsoft Defender para contêineres com o Azure Sentinel para detectar e responder rapidamente a ameaças em seu cluster e cargas de trabalho em execução neles.</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
@@ -12543,14 +12531,14 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>8596ddcf-3f3c-4b1c-baa1-a7eb844b2fb6</t>
+          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="C427" t="inlineStr">
         <is>
-          <t>Revise a localização dos servidores de origem. A localização dos servidores de origem afeta a capacidade de resposta do aplicativo. Os servidores de origem devem estar mais próximos dos usuários. O Azure Front Door garante que os usuários de um local específico acessem o ponto de entrada do Azure Front Door mais próximo. Os benefícios de desempenho incluem experiência do usuário mais rápida, melhor uso do roteamento baseado em latência pelo Azure Front Door e tempo de transferência de dados minimizado usando o cache, que armazena o conteúdo mais próximo dos usuários.</t>
+          <t>Arquitetura de cluster: implante um cluster AKS privado para garantir que o tráfego de gerenciamento de cluster para o servidor de API permaneça em sua rede privada. Ou use a lista de permissões do servidor de API para clusters não privados.</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
@@ -12561,21 +12549,17 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>205d3288-088c-4f24-af39-f9cb610c54a1</t>
+          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="C428" t="inlineStr">
         <is>
-          <t>Habilite o cache.  Você pode otimizar cadeias de caracteres de consulta para armazenamento em cache. Para conteúdo puramente estático, ignore as cadeias de caracteres de consulta para maximizar o uso do cache.  Se o aplicativo usar cadeias de caracteres de consulta, considere incluí-las na chave de cache. Incluir as cadeias de caracteres de consulta na chave de cache permite que o Azure Front Door forneça respostas armazenadas em cache ou outras respostas, com base em sua configuração.</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>O Azure Front Door oferece uma solução de rede de distribuição de conteúdo robusta que armazena em cache o conteúdo na borda da rede. O cache reduz a carga nos servidores de back-end e reduz a movimentação de dados pela rede, o que ajuda a descarregar o uso da largura de banda.</t>
-        </is>
-      </c>
+          <t>Arquitetura de carga de trabalho: use um firewall de aplicativo Web para proteger o tráfego HTTP(S).</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr"/>
       <c r="F428" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12583,21 +12567,17 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>2f6a39a1-884a-4661-accd-f534bf795a96</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="C429" t="inlineStr">
         <is>
-          <t>Use a compactação de arquivos ao acessar conteúdo para download.</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>A compactação no Azure Front Door ajuda a fornecer conteúdo no formato ideal, tem uma carga menor e fornece conteúdo aos usuários mais rapidamente.</t>
-        </is>
-      </c>
+          <t>Arquitetura de carga de trabalho: verifique se o pipeline de CI/CID é protegido com verificação com reconhecimento de contêiner.</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr"/>
       <c r="F429" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12605,19 +12585,19 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>09c90ce3-ade6-413a-9c1b-45d33d6d9069</t>
+          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="C430" t="inlineStr">
         <is>
-          <t>Ao configurar investigações de integridade no Azure Front Door, considere usar solicitações 'HEAD' em vez de solicitações 'GET'.  A investigação de integridade lê apenas o código de status, não o conteúdo.</t>
+          <t>Arquitetura de cluster: use a integração do Microsoft Entra.</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>As solicitações 'HEAD' permitem consultar uma alteração de estado sem buscar todo o seu conteúdo.</t>
+          <t>O uso do Microsoft Entra ID centraliza o componente de gerenciamento de identidade. Qualquer alteração no status da conta de usuário ou do grupo é atualizada automaticamente no acesso ao cluster do AKS. Os desenvolvedores e proprietários de aplicativos do cluster do Kubernetes precisam de acesso a recursos diferentes.</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -12627,19 +12607,19 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>15daeecf-bcbf-4c46-b196-030839fd4864</t>
+          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="C431" t="inlineStr">
         <is>
-          <t>Avalie se você deve habilitar a afinidade de sessão quando as solicitações do mesmo usuário devem ser direcionadas para o mesmo servidor back-end.  Do ponto de vista da confiabilidade, não recomendamos essa abordagem. Se você usar essa opção, o aplicativo deverá se recuperar normalmente sem interromper as sessões do usuário.  Há também uma compensação no balanceamento de carga porque restringe a flexibilidade de distribuir o tráfego em vários back-ends uniformemente.</t>
+          <t>Arquitetura de cluster: autentique com a ID do Microsoft Entra no Registro de Contêiner do Azure.</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Otimize o desempenho e mantenha a continuidade das sessões do usuário, especialmente quando os aplicativos dependem da manutenção de informações de estado localmente.</t>
+          <t>O AKS e a ID do Microsoft Entra habilitam a autenticação com o Registro de Contêiner do Azure sem o uso de segredos 'imagePullSecrets'. Examine Autenticar com o Registro de Contêiner do Azure do Serviço de Kubernetes do Azure para obter mais informações.</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -12649,17 +12629,21 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>2a92f55e-a422-49f4-9a26-8ba819a17323</t>
+          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="C432" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: para cargas de trabalho críticas, use zonas de disponibilidade para os clusters do AKS.</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr"/>
+          <t>Arquitetura de cluster: proteja o tráfego de rede para o servidor de API com o cluster AKS privado.</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Por padrão, o tráfego de rede entre os pools de nós e o servidor de API viaja pela rede de backbone da Microsoft; usando um cluster privado, você pode garantir que o tráfego de rede para o servidor de API permaneça somente na rede privada.</t>
+        </is>
+      </c>
       <c r="F432" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12667,17 +12651,21 @@
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>ad7540f5-4cb1-4fc5-b168-e1cd97a0aef6</t>
+          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="C433" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: planeje o espaço de endereço IP para garantir que seu cluster possa ser dimensionado de forma confiável, incluindo o tratamento do tráfego de failover em topologias de vários clusters.</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr"/>
+          <t>Arquitetura de cluster: para clusters do AKS não privados, use intervalos de IP autorizados pelo servidor de API.</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Ao usar clusters públicos, você ainda pode limitar o tráfego que pode chegar ao servidor de API de clusters usando o recurso de intervalo de IP autorizado. Inclua fontes como os IPs públicos de seus agentes de build de implantação, gerenciamento de operações e ponto de saída de pools de nós (como Firewall do Azure).</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12685,17 +12673,21 @@
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>904fdfa5-af9a-4195-b683-e3bb7627b394</t>
+          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="C434" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite os insights de contêiner para monitorar seu cluster e configurar alertas para eventos que afetam a confiabilidade.</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr"/>
+          <t>Arquitetura de cluster: proteja o servidor de API com o RBAC do Microsoft Entra.</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Proteger o acesso ao Kubernetes API Server é uma das coisas mais importantes que você pode fazer para proteger seu cluster. Integre o RBAC (controle de acesso baseado em função) do Kubernetes com a ID do Microsoft Entra para controlar o acesso ao servidor de API. Desabilite contas locais para impor todo o acesso ao cluster usando identidades baseadas em ID do Microsoft Entra.</t>
+        </is>
+      </c>
       <c r="F434" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12703,17 +12695,21 @@
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>2c1ab1ce-ee84-4737-b426-d236a98d3ae5</t>
+          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="C435" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: certifique-se de que as cargas de trabalho sejam criadas para dar suporte ao dimensionamento horizontal e relatar a preparação e a integridade do aplicativo.</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr"/>
+          <t>Arquitetura de cluster: use políticas de rede do Azure ou Calico.</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Proteja e controle o tráfego de rede entre pods em um cluster.</t>
+        </is>
+      </c>
       <c r="F435" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12721,17 +12717,21 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>fa12c27b-df70-41fd-a93a-680e3cacf7ac</t>
+          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="C436" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: verifique se a carga de trabalho está em execução em pools de nós do usuário e escolha o SKU do tamanho certo. No mínimo, inclua dois nós para pools de nós de usuário e três nós para o pool de nós do sistema.</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr"/>
+          <t>Arquitetura de cluster: proteja clusters e pods com o Azure Policy.</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
+        </is>
+      </c>
       <c r="F436" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12739,17 +12739,21 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>f2297ffc-fec7-43c6-9187-9739264c9d66</t>
+          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="C437" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use o SLA de Tempo de Atividade do AKS para atender às metas de disponibilidade para cargas de trabalho de produção.</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr"/>
+          <t>Arquitetura de cluster: acesso seguro de contêiner aos recursos.</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Limite o acesso às ações que os contêineres podem executar. Forneça o menor número de permissões e evite o uso de escalonamento raiz ou privilegiado.</t>
+        </is>
+      </c>
       <c r="F437" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12757,19 +12761,19 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>0b542d27-1846-4d1b-9c5e-bd7c0d079cb3</t>
+          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="C438" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: controle o agendamento de pod usando seletores de nó e afinidade.</t>
+          <t>Arquitetura de carga de trabalho: use um firewall de aplicativo Web para proteger o tráfego HTTP(S).</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Permite que o agendador do Kubernetes isole logicamente as cargas de trabalho por hardware no nó. Ao contrário das tolerâncias, os pods sem um seletor de nó correspondente podem ser agendados em nós rotulados, o que permite que recursos não utilizados nos nós sejam consumidos, mas dá prioridade aos pods que definem o seletor de nó correspondente. Use a afinidade de nó para obter mais flexibilidade, o que permite definir o que acontece se o pod não puder ser correspondido a um nó.</t>
+          <t>Para verificar o tráfego de entrada em busca de possíveis ataques, use um firewall de aplicativo Web, como o WAF (Firewall de Aplicativo Web) do Azure no Gateway de Aplicativo do Azure ou no Azure Front Door.</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -12779,19 +12783,19 @@
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>b11892cd-f678-4399-bac8-b98095e250c6</t>
+          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="C439" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: Garanta a seleção adequada do plug-in de rede com base nos requisitos de rede e no dimensionamento do cluster.</t>
+          <t>Arquitetura do cluster: controle o tráfego de saída do cluster.</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>A CNI do Azure é necessária para cenários específicos, por exemplo, pools de nós baseados no Windows, requisitos de rede específicos e Políticas de Rede do Kubernetes. Consulte Kubenet versus CNI do Azure para obter mais informações.</t>
+          <t>Verifique se o tráfego de saída do cluster está passando por um ponto de segurança de rede, como o Firewall do Azure ou um proxy HTTP.</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -12801,19 +12805,19 @@
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>9e3e8182-95e7-4953-9a2b-9cc2f77bf717</t>
+          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="C440" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: use o SLA de Tempo de Atividade do AKS para clusters de nível de produção.</t>
+          <t>Arquitetura de cluster: use a ID de carga de trabalho do Microsoft Entra de software livre e o driver CSI do repositório de segredos com o Azure Key Vault.</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>O SLA de Tempo de Atividade do AKS garante: - disponibilidade de '99,95%' do ponto de extremidade do servidor de API do Kubernetes para Clusters do AKS que usam Zonas de Disponibilidade do Azure ou - disponibilidade de '99,9%' para Clusters do AKS que não usam Zonas de Disponibilidade do Azure.</t>
+          <t>Proteja e gire segredos, certificados e cadeias de conexão no Azure Key Vault com criptografia forte. Fornece um log de auditoria de acesso e mantém os segredos principais fora do pipeline de implantação.</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -12823,19 +12827,19 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>4bfaa73e-a949-404a-a93b-a2b0a7feeff5</t>
+          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="C441" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: configure o monitoramento do cluster com insights de contêiner.</t>
+          <t>Arquitetura de cluster: use Microsoft Defender para Contêineres.</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Os insights de contêiner ajudam a monitorar a integridade e o desempenho de controladores, nós e contêineres disponíveis no Kubernetes por meio da API de Métricas. A integração com o Prometheus permite a coleta de métricas de aplicativos e cargas de trabalho.</t>
+          <t>Monitore e mantenha a segurança de seus clusters, contêineres e seus aplicativos.</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -12845,21 +12849,17 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="C442" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use zonas de disponibilidade para maximizar a resiliência em uma região do Azure distribuindo nós de agente do AKS em data centers fisicamente separados.</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>Ao distribuir pools de nós em várias zonas, os nós em um pool de nós continuarão em execução mesmo que outra zona tenha ficado inativa. Se houver requisitos de colocalidade, uma implantação regular do AKS baseada em VMSS em uma única zona ou grupos de posicionamento por proximidade poderão ser usados para minimizar a latência entre nós.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: use SKU de VM apropriado por pool de nós e instâncias reservadas em que a capacidade de longo prazo é esperada.</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
       <c r="F442" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12867,21 +12867,17 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>74ff8612-55b7-4029-81bc-da363b133f16</t>
+          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="C443" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
-        </is>
-      </c>
+          <t>Arquiteturas de cluster e carga de trabalho: use a camada e o tamanho apropriados do disco gerenciado.</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
       <c r="F443" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12889,21 +12885,17 @@
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="C444" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: defina solicitações e limites de recursos de pod em manifestos de implantação de aplicativo e imponha com Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>Os limites de recursos de CPU e memória do contêiner são necessários para evitar o esgotamento de recursos no cluster do Kubernetes.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: revise as métricas de desempenho, começando com CPU, memória, armazenamento e rede, para identificar oportunidades de otimização de custos por cluster, nós e namespace.</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
       <c r="F444" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12911,21 +12903,17 @@
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>f1a92d3f-eab5-4dc2-b0e8-75865842f205</t>
+          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="C445" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: mantenha o pool de nós do sistema isolado das cargas de trabalho do aplicativo.</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>Os pools de nós do sistema exigem um SKU de VM de pelo menos 2 vCPUs e 4 GB de memória, mas 4 vCPUs ou mais são recomendados. Sistema de referência e pools de nós do usuário para requisitos detalhados.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster e carga de trabalho: use dimensionadores automáticos para reduzir horizontalmente quando as cargas de trabalho estiverem menos ativas.</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
       <c r="F445" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12933,19 +12921,19 @@
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>55429203-5f2a-4ed1-9107-22d2c47b8ef1</t>
+          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="C446" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: Separe aplicativos para pools de nós dedicados com base em requisitos específicos.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: alinhe a seleção de SKU e o tamanho do disco gerenciado com os requisitos de carga de trabalho.</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Os aplicativos podem compartilhar a mesma configuração e precisar de VMs habilitadas para GPU, VMs otimizadas para CPU ou memória ou a capacidade de escalar para zero. Evite um grande número de pools de nós para reduzir a sobrecarga de gerenciamento extra.</t>
+          <t>Combinar sua seleção com suas demandas de carga de trabalho garante que você não pague por recursos desnecessários.</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -12955,19 +12943,19 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>3603ec74-ada6-4050-baa3-fb25386fb7df</t>
+          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="C447" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use um gateway NAT para clusters que executam cargas de trabalho que fazem muitas conexões de saída simultâneas.</t>
+          <t>Arquitetura de cluster: selecione o tipo de instância de máquina virtual correto.</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Para evitar problemas de confiabilidade com as limitações do Azure Load Balancer com alto tráfego de saída simultâneo, use um Gateway NAT para dar suporte ao tráfego de saída confiável em escala.</t>
+          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância menos potente pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -12977,17 +12965,21 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>d441f009-ca99-4caf-9544-c71de5949d10</t>
+          <t>1088060f-7467-48db-950d-5890503e2974</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="C448" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use identidades gerenciadas para evitar o gerenciamento e a rotação de princípios de serviço.</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>Arquitetura de cluster: selecione máquinas virtuais com base na arquitetura Arm.</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>O AKS dá suporte à criação de nós de agente do Ubuntu ARM64, bem como uma combinação de nós de arquitetura Intel e ARM em um cluster que pode trazer melhor desempenho a um custo menor.</t>
+        </is>
+      </c>
       <c r="F448" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -12995,17 +12987,21 @@
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>ff274266-a326-4c2c-9b85-7ce50c679b36</t>
+          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="C449" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use o RBAC (controle de acesso baseado em função) do Kubernetes com a ID do Microsoft Entra para acesso com privilégios mínimos e minimize a concessão de privilégios de administrador para proteger a configuração e o acesso a segredos.</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr"/>
+          <t>Arquitetura de cluster: selecione Máquinas Virtuais Spot do Azure.</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>As VMs spot permitem que você aproveite a capacidade não utilizada do Azure com descontos significativos (até 90% em comparação com os preços pagos conforme o uso). Se o Azure precisar de capacidade de volta, a infraestrutura do Azure removerá os nós spot.</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13013,17 +13009,21 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>d44b3684-99d7-4946-ab75-fb58d9d8626e</t>
+          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="C450" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use o Microsoft Defender para contêineres com o Azure Sentinel para detectar e responder rapidamente a ameaças em seu cluster e cargas de trabalho em execução neles.</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr"/>
+          <t>Arquitetura de cluster: selecione a região apropriada.</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Devido a muitos fatores, o custo dos recursos varia de acordo com a região no Azure. Avalie os requisitos de custo, latência e conformidade para garantir que você esteja executando sua carga de trabalho de maneira econômica e que ela não afete seus usuários finais nem crie cobranças extras de rede.</t>
+        </is>
+      </c>
       <c r="F450" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13031,17 +13031,21 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>12e0cc02-b585-4d6f-97be-1b073e57522c</t>
+          <t>433efe5b-3776-459c-8560-058f87773838</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="C451" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: implante um cluster AKS privado para garantir que o tráfego de gerenciamento de cluster para o servidor de API permaneça em sua rede privada. Ou use a lista de permissões do servidor de API para clusters não privados.</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr"/>
+          <t>Arquitetura de carga de trabalho: mantenha imagens pequenas e otimizadas.</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Simplificar suas imagens ajuda a reduzir custos, pois novos nós precisam baixar essas imagens. Crie imagens de uma forma que permita que o contêiner seja iniciado o mais rápido possível para ajudar a evitar falhas de solicitação do usuário ou tempos limite enquanto o aplicativo está sendo inicializado, potencialmente levando ao superprovisionamento.</t>
+        </is>
+      </c>
       <c r="F451" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13049,17 +13053,21 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>8e9c196f-b93a-46c5-9507-1e5cad83dd21</t>
+          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="C452" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use um firewall de aplicativo Web para proteger o tráfego HTTP(S).</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr"/>
+          <t>Arquitetura de cluster: habilite o Dimensionador Automático de Cluster para reduzir automaticamente o número de nós do agente em resposta ao excesso de capacidade de recursos.</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente quando a demanda é baixa e escale verticalmente quando a demanda retornar.</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13067,17 +13075,21 @@
       </c>
       <c r="L452" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="C453" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: verifique se o pipeline de CI/CID é protegido com verificação com reconhecimento de contêiner.</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr"/>
+          <t>Arquitetura de cluster: habilite o provisionamento automático de nó para automatizar a seleção de SKU de VM.</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>O Node Autoprovision simplifica o processo de seleção de SKU e decide, com base nos requisitos de recursos de pod pendentes, a configuração ideal da VM para executar cargas de trabalho da maneira mais eficiente e econômica.</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13085,19 +13097,19 @@
       </c>
       <c r="L453" t="inlineStr">
         <is>
-          <t>feba8909-0760-4a87-833a-b36fabbe722e</t>
+          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="C454" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use a integração do Microsoft Entra.</t>
+          <t>Arquitetura de carga de trabalho: use o Horizontal Pod Autoscaler.</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>O uso do Microsoft Entra ID centraliza o componente de gerenciamento de identidade. Qualquer alteração no status da conta de usuário ou do grupo é atualizada automaticamente no acesso ao cluster do AKS. Os desenvolvedores e proprietários de aplicativos do cluster do Kubernetes precisam de acesso a recursos diferentes.</t>
+          <t>Ajuste o número de pods em uma implantação dependendo da utilização da CPU ou de outras métricas selecionadas, que dão suporte a operações de redução horizontal do cluster.</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -13107,19 +13119,19 @@
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>463da713-377d-46e1-a9cf-a384a0657537</t>
+          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="C455" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: autentique com a ID do Microsoft Entra no Registro de Contêiner do Azure.</t>
+          <t>Arquitetura de carga de trabalho: use o Vertical Pod Autoscaler (versão prévia).</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>O AKS e a ID do Microsoft Entra habilitam a autenticação com o Registro de Contêiner do Azure sem o uso de segredos 'imagePullSecrets'. Examine Autenticar com o Registro de Contêiner do Azure do Serviço de Kubernetes do Azure para obter mais informações.</t>
+          <t>Dimensione corretamente seus pods e defina dinamicamente solicitações e limites com base no uso histórico.</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -13129,19 +13141,19 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>f9f7946f-b9b6-40d1-9f30-0bfb38be5c74</t>
+          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="C456" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: proteja o tráfego de rede para o servidor de API com o cluster AKS privado.</t>
+          <t>Arquitetura de carga de trabalho: use o Kubernetes Event Driven Autoscaling (KEDA).</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Por padrão, o tráfego de rede entre os pools de nós e o servidor de API viaja pela rede de backbone da Microsoft; usando um cluster privado, você pode garantir que o tráfego de rede para o servidor de API permaneça somente na rede privada.</t>
+          <t>Dimensione com base no número de eventos que estão sendo processados. Escolha entre um rico catálogo de 50+ scalers KEDA.</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -13151,19 +13163,19 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>10d61300-19e4-403c-bf22-a554c56b4afc</t>
+          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="C457" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: para clusters do AKS não privados, use intervalos de IP autorizados pelo servidor de API.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: adote uma disciplina financeira de nuvem e uma prática cultural para impulsionar a propriedade do uso da nuvem.</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Ao usar clusters públicos, você ainda pode limitar o tráfego que pode chegar ao servidor de API de clusters usando o recurso de intervalo de IP autorizado. Inclua fontes como os IPs públicos de seus agentes de build de implantação, gerenciamento de operações e ponto de saída de pools de nós (como Firewall do Azure).</t>
+          <t>A base para habilitar a otimização de custos é a disseminação de um cluster de economia de custos. Uma abordagem de operações financeiras (FinOps) é frequentemente usada para ajudar as organizações a reduzir os custos da nuvem. É uma prática que envolve a colaboração entre as equipes de finanças, operações e engenharia para impulsionar o alinhamento das metas de economia de custos e trazer transparência aos custos da nuvem.</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -13173,19 +13185,19 @@
       </c>
       <c r="L457" t="inlineStr">
         <is>
-          <t>b845e9a6-c5f3-4cf7-a956-6f1ffde88569</t>
+          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="C458" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: proteja o servidor de API com o RBAC do Microsoft Entra.</t>
+          <t>Arquitetura de cluster: inscreva-se nas Reservas do Azure ou no Plano de Economia do Azure.</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Proteger o acesso ao Kubernetes API Server é uma das coisas mais importantes que você pode fazer para proteger seu cluster. Integre o RBAC (controle de acesso baseado em função) do Kubernetes com a ID do Microsoft Entra para controlar o acesso ao servidor de API. Desabilite contas locais para impor todo o acesso ao cluster usando identidades baseadas em ID do Microsoft Entra.</t>
+          <t>Se você planejou corretamente a capacidade, sua carga de trabalho é previsível e existe por um longo período de tempo, inscreva-se em uma Reserva do Azure ou em um plano de economia para reduzir ainda mais seus custos de recursos.</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -13195,19 +13207,19 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>0b3a4624-de6e-4cfe-af5b-19ad4708087d</t>
+          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="C459" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use políticas de rede do Azure ou Calico.</t>
+          <t>Arquitetura de cluster: configure o complemento Análise de Custos do AKS.</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Proteja e controle o tráfego de rede entre pods em um cluster.</t>
+          <t>A extensão de cluster de análise de custos permite que você obtenha insights granulares sobre os custos associados a vários recursos do Kubernetes em seus clusters ou namespaces.</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -13217,21 +13229,17 @@
       </c>
       <c r="L459" t="inlineStr">
         <is>
-          <t>caabd1f2-e6a9-4c55-9115-349d1d6716bb</t>
+          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="C460" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: proteja clusters e pods com o Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: use uma implantação baseada em modelo usando Bicep, Terraform ou outros. Verifique se todas as implantações são repetíveis, rastreáveis e armazenadas em um repositório de código-fonte.</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
       <c r="F460" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13239,21 +13247,17 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>d65686d0-3988-49b5-8a98-59818ba81c50</t>
+          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="C461" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: acesso seguro de contêiner aos recursos.</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>Limite o acesso às ações que os contêineres podem executar. Forneça o menor número de permissões e evite o uso de escalonamento raiz ou privilegiado.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: crie um processo automatizado para garantir que seus clusters sejam inicializados com as configurações e implantações necessárias em todo o cluster. Isso geralmente é feito usando o GitOps.</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
       <c r="F461" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13261,21 +13265,17 @@
       </c>
       <c r="L461" t="inlineStr">
         <is>
-          <t>f1e41c15-87e4-4135-ab6c-fb6803194f12</t>
+          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="C462" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use um firewall de aplicativo Web para proteger o tráfego HTTP(S).</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>Para verificar o tráfego de entrada em busca de possíveis ataques, use um firewall de aplicativo Web, como o WAF (Firewall de Aplicativo Web) do Azure no Gateway de Aplicativo do Azure ou no Azure Front Door.</t>
-        </is>
-      </c>
+          <t>Arquitetura de carga de trabalho: use processos de implantação repetíveis e automatizados para sua carga de trabalho dentro do ciclo de vida de desenvolvimento de software.</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
       <c r="F462" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13283,21 +13283,17 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>4658f193-0b5d-41c9-b2c9-0a5f500799ea</t>
+          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="C463" t="inlineStr">
         <is>
-          <t>Arquitetura do cluster: controle o tráfego de saída do cluster.</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>Verifique se o tráfego de saída do cluster está passando por um ponto de segurança de rede, como o Firewall do Azure ou um proxy HTTP.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: habilite as configurações de diagnóstico para garantir que as interações do painel de controle ou do servidor de API principal sejam registradas.</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
       <c r="F463" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13305,21 +13301,17 @@
       </c>
       <c r="L463" t="inlineStr">
         <is>
-          <t>fa580200-65eb-4cc8-9c23-a5e68f1d86a7</t>
+          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="C464" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use a ID de carga de trabalho do Microsoft Entra de software livre e o driver CSI do repositório de segredos com o Azure Key Vault.</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>Proteja e gire segredos, certificados e cadeias de conexão no Azure Key Vault com criptografia forte. Fornece um log de auditoria de acesso e mantém os segredos principais fora do pipeline de implantação.</t>
-        </is>
-      </c>
+          <t>Arquiteturas de cluster e carga de trabalho: examine as práticas recomendadas para monitorar o Kubernetes com o Azure Monitor para determinar a melhor estratégia de monitoramento para suas cargas de trabalho.</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
       <c r="F464" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13327,21 +13319,17 @@
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>0f5b5089-02fc-4f46-839c-7ff86610366a</t>
+          <t>98844a97-9372-4cd2-ad68-aae36a43de4c</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="C465" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use Microsoft Defender para Contêineres.</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>Monitore e mantenha a segurança de seus clusters, contêineres e seus aplicativos.</t>
-        </is>
-      </c>
+          <t>Arquitetura de carga de trabalho: a carga de trabalho deve ser projetada para emitir telemetria que pode ser coletada, que também deve incluir status de atividade e preparação.</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
       <c r="F465" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13349,14 +13337,14 @@
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>d2895e72-e9c1-4af7-9e5a-53edc92423e7</t>
+          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="C466" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use SKU de VM apropriado por pool de nós e instâncias reservadas em que a capacidade de longo prazo é esperada.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: use práticas de engenharia de caos direcionadas ao Kubernetes para identificar problemas de confiabilidade de aplicativos ou plataformas.</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
@@ -13367,14 +13355,14 @@
       </c>
       <c r="L466" t="inlineStr">
         <is>
-          <t>c5148caa-6478-4ba8-993b-1a8640716d66</t>
+          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="C467" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: use a camada e o tamanho apropriados do disco gerenciado.</t>
+          <t>Arquitetura de carga de trabalho: otimize sua carga de trabalho para operar e implantar com eficiência em um contêiner.</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
@@ -13385,14 +13373,14 @@
       </c>
       <c r="L467" t="inlineStr">
         <is>
-          <t>90ac2d0c-790e-4b2b-be35-60a55a19397a</t>
+          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="C468" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: revise as métricas de desempenho, começando com CPU, memória, armazenamento e rede, para identificar oportunidades de otimização de custos por cluster, nós e namespace.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: imponha a governança de cluster e carga de trabalho usando Azure Policy.</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
@@ -13403,17 +13391,21 @@
       </c>
       <c r="L468" t="inlineStr">
         <is>
-          <t>df9bb42d-c34f-488f-a50c-0624ca247647</t>
+          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="C469" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster e carga de trabalho: use dimensionadores automáticos para reduzir horizontalmente quando as cargas de trabalho estiverem menos ativas.</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr"/>
+          <t>Arquiteturas de cluster e carga de trabalho: examine a documentação de práticas recomendadas do AKS.</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Para criar e executar aplicativos com êxito no AKS, há considerações importantes a serem entendidas e implementadas. Essas áreas incluem recursos de agendamento e multilocação, segurança de cluster e pod ou continuidade dos negócios e recuperação de desastres.</t>
+        </is>
+      </c>
       <c r="F469" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13421,19 +13413,19 @@
       </c>
       <c r="L469" t="inlineStr">
         <is>
-          <t>43ffe0b7-7bc4-42b0-a370-af4a943b19c0</t>
+          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="C470" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: alinhe a seleção de SKU e o tamanho do disco gerenciado com os requisitos de carga de trabalho.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: examine o Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Combinar sua seleção com suas demandas de carga de trabalho garante que você não pague por recursos desnecessários.</t>
+          <t>O Azure Chaos Studio pode ajudar a simular falhas e disparar situações de recuperação de desastre.</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -13443,19 +13435,19 @@
       </c>
       <c r="L470" t="inlineStr">
         <is>
-          <t>c4ce3529-2891-41f1-aa3f-e87a791b01a3</t>
+          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="C471" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione o tipo de instância de máquina virtual correto.</t>
+          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Selecionar o tipo de instância de máquina virtual correto é fundamental, pois afeta diretamente o custo de execução de aplicativos no AKS. A escolha de uma instância de alta performance sem a utilização adequada pode levar a gastos desnecessários, enquanto a escolha de uma instância menos potente pode levar a problemas de performance e aumento do tempo de inatividade. Para determinar o tipo de instância de máquina virtual correto, considere as características da carga de trabalho, os requisitos de recursos e as necessidades de disponibilidade.</t>
+          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -13465,19 +13457,19 @@
       </c>
       <c r="L471" t="inlineStr">
         <is>
-          <t>1088060f-7467-48db-950d-5890503e2974</t>
+          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="C472" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione máquinas virtuais com base na arquitetura Arm.</t>
+          <t>Arquitetura de cluster: operacionalize os padrões de configuração de clusters e pods com o Azure Policy.</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>O AKS dá suporte à criação de nós de agente do Ubuntu ARM64, bem como uma combinação de nós de arquitetura Intel e ARM em um cluster que pode trazer melhor desempenho a um custo menor.</t>
+          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -13487,19 +13479,19 @@
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>ce50c713-ad3e-4781-9193-63485491aa48</t>
+          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="C473" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione Máquinas Virtuais Spot do Azure.</t>
+          <t>Arquitetura de carga de trabalho: use os recursos da plataforma em seu processo de engenharia de lançamento.</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>As VMs spot permitem que você aproveite a capacidade não utilizada do Azure com descontos significativos (até 90% em comparação com os preços pagos conforme o uso). Se o Azure precisar de capacidade de volta, a infraestrutura do Azure removerá os nós spot.</t>
+          <t>O Kubernetes e os controladores de entrada oferecem suporte a muitos padrões avançados de implantação para inclusão em seu processo de engenharia de lançamento. Considere padrões como implantações azul-verde ou versões canário.</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -13509,19 +13501,19 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>7a281f48-217a-4668-aa30-c9d2c84d0d72</t>
+          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="C474" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: selecione a região apropriada.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: para cargas de trabalho críticas, use implantações azul/verde no nível do selo.</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Devido a muitos fatores, o custo dos recursos varia de acordo com a região no Azure. Avalie os requisitos de custo, latência e conformidade para garantir que você esteja executando sua carga de trabalho de maneira econômica e que ela não afete seus usuários finais nem crie cobranças extras de rede.</t>
+          <t>Automatize suas áreas de projeto de missão crítica, incluindo implantação e teste.</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -13531,21 +13523,17 @@
       </c>
       <c r="L474" t="inlineStr">
         <is>
-          <t>433efe5b-3776-459c-8560-058f87773838</t>
+          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="C475" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: mantenha imagens pequenas e otimizadas.</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>Simplificar suas imagens ajuda a reduzir custos, pois novos nós precisam baixar essas imagens. Crie imagens de uma forma que permita que o contêiner seja iniciado o mais rápido possível para ajudar a evitar falhas de solicitação do usuário ou tempos limite enquanto o aplicativo está sendo inicializado, potencialmente levando ao superprovisionamento.</t>
-        </is>
-      </c>
+          <t>Arquiteturas de cluster e carga de trabalho: execute e itere em um exercício detalhado de plano de capacidade que inclui SKU, configurações de dimensionamento automático, endereçamento IP e considerações de failover.</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13553,21 +13541,17 @@
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>65d3f70e-457a-4d62-8140-de2b0c4f7f99</t>
+          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="C476" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite o Dimensionador Automático de Cluster para reduzir automaticamente o número de nós do agente em resposta ao excesso de capacidade de recursos.</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>Reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente quando a demanda é baixa e escale verticalmente quando a demanda retornar.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: habilite o dimensionador automático de cluster para ajustar automaticamente o número de nós de agente em demandas de carga de trabalho de resposta.</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13575,21 +13559,17 @@
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>b4d583e3-7268-41d9-9e93-0394bed77298</t>
+          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="C477" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite o provisionamento automático de nó para automatizar a seleção de SKU de VM.</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>O Node Autoprovision simplifica o processo de seleção de SKU e decide, com base nos requisitos de recursos de pod pendentes, a configuração ideal da VM para executar cargas de trabalho da maneira mais eficiente e econômica.</t>
-        </is>
-      </c>
+          <t>Arquitetura de cluster: use o dimensionador automático de pod horizontal para ajustar o número de pods em uma implantação, dependendo da utilização da CPU ou de outras métricas selecionadas.</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13597,21 +13577,17 @@
       </c>
       <c r="L477" t="inlineStr">
         <is>
-          <t>48ae7de4-26f7-457c-b1a4-a18467b7401d</t>
+          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="C478" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use o Horizontal Pod Autoscaler.</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>Ajuste o número de pods em uma implantação dependendo da utilização da CPU ou de outras métricas selecionadas, que dão suporte a operações de redução horizontal do cluster.</t>
-        </is>
-      </c>
+          <t>Arquiteturas de cluster e carga de trabalho: execute atividades contínuas de teste de carga que exercitam o dimensionador automático de pod e cluster.</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13619,21 +13595,17 @@
       </c>
       <c r="L478" t="inlineStr">
         <is>
-          <t>d3194174-d037-4a35-9cd5-244d377cfabb</t>
+          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="C479" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use o Vertical Pod Autoscaler (versão prévia).</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>Dimensione corretamente seus pods e defina dinamicamente solicitações e limites com base no uso histórico.</t>
-        </is>
-      </c>
+          <t>Arquiteturas de cluster e carga de trabalho: Separe as cargas de trabalho em diferentes pools de nós, permitindo chamadas independentes.</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
       <c r="F479" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13641,19 +13613,19 @@
       </c>
       <c r="L479" t="inlineStr">
         <is>
-          <t>091dc052-7bf8-4dd1-aca1-d514ddcb2aa8</t>
+          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="C480" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use o Kubernetes Event Driven Autoscaling (KEDA).</t>
+          <t>Arquiteturas de cluster e carga de trabalho: desenvolva um plano de capacidade detalhado e revise e revise continuamente.</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Dimensione com base no número de eventos que estão sendo processados. Escolha entre um rico catálogo de 50+ scalers KEDA.</t>
+          <t>Depois de formalizar seu plano de capacidade, ele deve ser atualizado com frequência, observando continuamente a utilização de recursos do cluster.</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -13663,19 +13635,19 @@
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>fe3d7c5f-f5a9-4b5e-a4f9-81bf76930967</t>
+          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="C481" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: adote uma disciplina financeira de nuvem e uma prática cultural para impulsionar a propriedade do uso da nuvem.</t>
+          <t>Arquitetura de cluster: habilite o dimensionador automático de cluster para ajustar automaticamente o número de nós do agente em resposta a restrições de recursos.</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>A base para habilitar a otimização de custos é a disseminação de um cluster de economia de custos. Uma abordagem de operações financeiras (FinOps) é frequentemente usada para ajudar as organizações a reduzir os custos da nuvem. É uma prática que envolve a colaboração entre as equipes de finanças, operações e engenharia para impulsionar o alinhamento das metas de economia de custos e trazer transparência aos custos da nuvem.</t>
+          <t>A capacidade de escalar ou reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente e econômico.</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -13685,19 +13657,19 @@
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>3a7d1aa1-37a0-40aa-acbf-ff1852c15c93</t>
+          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="C482" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: inscreva-se nas Reservas do Azure ou no Plano de Economia do Azure.</t>
+          <t>Arquiteturas de cluster e carga de trabalho: separe as cargas de trabalho em pools de nós diferentes e considere dimensionar pools de nós do usuário.</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Se você planejou corretamente a capacidade, sua carga de trabalho é previsível e existe por um longo período de tempo, inscreva-se em uma Reserva do Azure ou em um plano de economia para reduzir ainda mais seus custos de recursos.</t>
+          <t>Ao contrário dos pools de nós do sistema que sempre exigem nós em execução, os pools de nós do usuário permitem que você aumente ou diminua verticalmente.</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -13707,19 +13679,19 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>ed669535-43d7-4988-9ec5-3b70762e54eb</t>
+          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="C483" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: configure o monitoramento do cluster com insights de contêiner.</t>
+          <t>Arquitetura de carga de trabalho: use os recursos avançados do agendador do AKS.</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Os insights de contêiner ajudam a fornecer insights acionáveis sobre os recursos ociosos e não alocados dos clusters. Os insights de contêiner também dão suporte à coleta de métricas do Prometheus e se integram ao Azure Managed Grafana para obter uma visão holística do aplicativo e da infraestrutura.</t>
+          <t>Ajuda a controlar o balanceamento de recursos para cargas de trabalho que os exigem.</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -13729,19 +13701,19 @@
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>5742c5ca-120a-4b6e-a5cf-51f13b04966c</t>
+          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="C484" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: configure o complemento Análise de Custos do AKS.</t>
+          <t>Arquitetura de carga de trabalho: use métricas significativas de dimensionamento de carga de trabalho.</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>A extensão de cluster de análise de custos permite que você obtenha insights granulares sobre os custos associados a vários recursos do Kubernetes em seus clusters ou namespaces.</t>
+          <t>Nem todas as decisões de escala podem ser derivadas de métricas de CPU ou memória. Muitas vezes, as considerações de escala virão de pontos de dados mais complexos ou mesmo externos. Use o KEDA para criar um conjunto de regras de dimensionamento automático significativo com base em sinais específicos para sua carga de trabalho.</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -13751,14 +13723,14 @@
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>6588bddb-d7b6-41a6-8b87-628a758df2fe</t>
+          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="C485" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use uma implantação baseada em modelo usando Bicep, Terraform ou outros. Verifique se todas as implantações são repetíveis, rastreáveis e armazenadas em um repositório de código-fonte.</t>
+          <t>Resiliência: implante modelos em ambientes que dão suporte a zonas de disponibilidade, como o AKS. Ao garantir que as implantações sejam distribuídas entre zonas de disponibilidade, você garante que uma implantação esteja disponível mesmo no caso de uma falha do datacenter. Para maior confiabilidade e disponibilidade, considere uma topologia de implantação de várias regiões.</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
@@ -13769,14 +13741,14 @@
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>38e28f4f-7465-4e3a-bf05-4d6072d4bae6</t>
+          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="C486" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: crie um processo automatizado para garantir que seus clusters sejam inicializados com as configurações e implantações necessárias em todo o cluster. Isso geralmente é feito usando o GitOps.</t>
+          <t>Resiliência: verifique se você tem computação suficiente para treinamento e inferência. Por meio do planejamento de recursos, verifique se o SKU de computação e as configurações de escala atendem aos requisitos de sua carga de trabalho.</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -13787,14 +13759,14 @@
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>1255b75f-0f3b-4fd7-96c5-17e4e30bbe11</t>
+          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="C487" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use processos de implantação repetíveis e automatizados para sua carga de trabalho dentro do ciclo de vida de desenvolvimento de software.</t>
+          <t>Resiliência: separe os espaços de trabalho do Machine Learning usados para trabalho exploratório daqueles usados para produção.</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
@@ -13805,14 +13777,14 @@
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>07b2d10f-e373-484e-9ece-f182a1b714b2</t>
+          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="C488" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite as configurações de diagnóstico para garantir que as interações do painel de controle ou do servidor de API principal sejam registradas.</t>
+          <t>Resiliência: ao usar pontos de extremidade online gerenciados para inferência, use uma estratégia de lançamento, como implantações azul-verde, para minimizar o tempo de inatividade e reduzir o risco associado à implantação de novas versões.</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
@@ -13823,14 +13795,14 @@
       </c>
       <c r="L488" t="inlineStr">
         <is>
-          <t>6ec1af22-6132-43a6-9286-20333ee6e244</t>
+          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="C489" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: habilite insights de contêiner para coletar métricas, logs e diagnósticos para monitorar a disponibilidade e o desempenho do cluster e das cargas de trabalho em execução nele.</t>
+          <t>Requisitos de negócios: selecione o uso de clusters de computação, instâncias de computação e hosts de inferência externalizados com base nas necessidades de confiabilidade, considerando os SLAs (contratos de nível de serviço) como um fator.</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
@@ -13841,14 +13813,14 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>4811307d-53ce-4cf9-b022-2c2ab1be5596</t>
+          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="C490" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: a carga de trabalho deve ser projetada para emitir telemetria que pode ser coletada, que também deve incluir status de atividade e preparação.</t>
+          <t>Recuperação: verifique se você tem recursos de autocorreção, como recursos de ponto de verificação compatíveis com o Machine Learning, ao treinar modelos grandes.</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
@@ -13859,14 +13831,14 @@
       </c>
       <c r="L490" t="inlineStr">
         <is>
-          <t>20301c55-a815-4a3a-83ec-fe6d1789e697</t>
+          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="C491" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: use práticas de engenharia de caos direcionadas ao Kubernetes para identificar problemas de confiabilidade de aplicativos ou plataformas.</t>
+          <t>Recuperação: certifique-se de ter uma estratégia de recuperação definida. O Machine Learning não tem failover automático. Portanto, você deve criar uma estratégia que englobe o workspace e todas as suas dependências, como Key Vault, Armazenamento do Azure e Registro de Contêiner do Azure.</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -13877,17 +13849,21 @@
       </c>
       <c r="L491" t="inlineStr">
         <is>
-          <t>13d37985-5266-4064-97f0-7c7aa7491941</t>
+          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="C492" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: otimize sua carga de trabalho para operar e implantar com eficiência em um contêiner.</t>
-        </is>
-      </c>
-      <c r="D492" t="inlineStr"/>
+          <t>Implantação de modelo multirregional: para maior confiabilidade e disponibilidade, considere um ambiente de implantação multirregional quando possível.</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Uma implantação de várias regiões garante que suas cargas de trabalho do Machine Learning continuem a ser executadas mesmo que uma região sofra uma interrupção. A implantação multirregional melhora a distribuição de carga entre regiões, potencialmente melhorando o desempenho para usuários localizados em diferentes áreas geográficas. Para obter mais informações, consulte Failover para continuidade dos negócios e recuperação de desastres.</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13895,17 +13871,21 @@
       </c>
       <c r="L492" t="inlineStr">
         <is>
-          <t>d96fea7e-598f-4f59-95c6-d75fc8db1c7a</t>
+          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="C493" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: imponha a governança de cluster e carga de trabalho usando Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D493" t="inlineStr"/>
+          <t>Resiliência de treinamento de modelo: use recursos de ponto de verificação compatíveis com o Machine Learning, incluindo o Contêiner do Azure para PyTorch, a classe TensorFlow Estimator ou o objeto Run e a classe FileDataset que dão suporte ao ponto de verificação do modelo.</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>O ponto de verificação do modelo salva periodicamente o estado do modelo de aprendizado de máquina durante o treinamento, para que ele possa ser restaurado em caso de interrupção, falha ou encerramento. Para obter mais informações, consulte Aumente a velocidade do ponto de verificação e reduza o custo com o Nebula.</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13913,19 +13893,19 @@
       </c>
       <c r="L493" t="inlineStr">
         <is>
-          <t>8e8fbde0-f037-4eec-bac2-634ab73d7b0a</t>
+          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="C494" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: examine a documentação de práticas recomendadas do AKS.</t>
+          <t>Usar a camada de máquina virtual dedicada para clusters de computação: use a camada de máquina virtual dedicada para clusters de computação para inferência em lote para garantir que o trabalho em lote não seja preemptado.</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Para criar e executar aplicativos com êxito no AKS, há considerações importantes a serem entendidas e implementadas. Essas áreas incluem recursos de agendamento e multilocação, segurança de cluster e pod ou continuidade dos negócios e recuperação de desastres.</t>
+          <t>As máquinas virtuais de baixa prioridade têm um preço reduzido, mas são preemptivas. Os clusters que usam a camada de máquina virtual dedicada não são preemptados.</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -13935,21 +13915,17 @@
       </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>95ee25c6-37fc-47c0-a3e1-eea5c1324edb</t>
+          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="C495" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: examine o Azure Chaos Studio.</t>
-        </is>
-      </c>
-      <c r="D495" t="inlineStr">
-        <is>
-          <t>O Azure Chaos Studio pode ajudar a simular falhas e disparar situações de recuperação de desastre.</t>
-        </is>
-      </c>
+          <t>Disponibilidade: reduza a superfície de ataque do workspace do Machine Learning restringindo o acesso ao workspace aos recursos dentro da rede virtual.</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
       <c r="F495" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13957,21 +13933,17 @@
       </c>
       <c r="L495" t="inlineStr">
         <is>
-          <t>2695b4b9-e125-4644-a27c-977eefdbce73</t>
+          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="C496" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: configure o monitoramento do cluster com insights de contêiner.</t>
-        </is>
-      </c>
-      <c r="D496" t="inlineStr">
-        <is>
-          <t>Os insights de contêiner ajudam a monitorar o desempenho de contêineres coletando métricas de memória e processador de controladores, nós e contêineres disponíveis no Kubernetes por meio da API de Métricas e dos logs de contêiner.</t>
-        </is>
-      </c>
+          <t>Confidencialidade: proteja-se contra a exfiltração de dados do workspace do Machine Learning implementando o isolamento de rede. Verifique se o acesso a todos os recursos externos é explicitamente aprovado e o acesso a todos os outros recursos externos não é permitido.</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
       <c r="F496" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -13979,21 +13951,17 @@
       </c>
       <c r="L496" t="inlineStr">
         <is>
-          <t>6661db46-26b0-4cc9-9002-f52bce55ca03</t>
+          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="C497" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: monitore o desempenho do aplicativo com o Azure Monitor.</t>
-        </is>
-      </c>
-      <c r="D497" t="inlineStr">
-        <is>
-          <t>Configure o Application Insights para monitoramento baseado em código de aplicativos em execução em um cluster do AKS.</t>
-        </is>
-      </c>
+          <t>Integridade: implemente controles de acesso que autenticam e autorizam o workspace do Machine Learning para recursos externos com base no princípio de privilégios mínimos.</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
       <c r="F497" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14001,21 +13969,17 @@
       </c>
       <c r="L497" t="inlineStr">
         <is>
-          <t>405f6de4-e769-4066-8e8c-f7887a66d42a</t>
+          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="C498" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: configure a extração de métricas do Prometheus com insights de contêiner.</t>
-        </is>
-      </c>
-      <c r="D498" t="inlineStr">
-        <is>
-          <t>Os insights de contêiner, que fazem parte do Azure Monitor, fornecem uma experiência de integração perfeita para coletar métricas do Prometheus. Consulte Configurar a extração de métricas do Prometheus para obter mais informações.</t>
-        </is>
-      </c>
+          <t>Integridade: implemente a segregação de casos de uso para workspaces do Machine Learning configurando workspaces com base em casos de uso ou projetos específicos. Essa abordagem segue o princípio do privilégio mínimo, garantindo que os workspaces sejam acessíveis apenas a indivíduos que exigem acesso a dados e ativos de experimentação para o caso de uso ou projeto.</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14023,21 +13987,17 @@
       </c>
       <c r="L498" t="inlineStr">
         <is>
-          <t>3c42907d-254e-4b0f-b579-7362e0f37eaa</t>
+          <t>30341513-1f91-480e-bc19-8031f1851087</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="C499" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: adote uma estratégia de várias regiões implantando clusters do AKS implantados em diferentes regiões do Azure para maximizar a disponibilidade e fornecer continuidade dos negócios.</t>
-        </is>
-      </c>
-      <c r="D499" t="inlineStr">
-        <is>
-          <t>As cargas de trabalho voltadas para a Internet devem aproveitar o Azure Front Door ou o Gerenciador de Tráfego do Azure para rotear o tráfego globalmente entre clusters do AKS.</t>
-        </is>
-      </c>
+          <t>Integridade: Regular o acesso a modelos fundamentais. Verifique se apenas os registros aprovados têm acesso aos modelos no registro de modelo.</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
       <c r="F499" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14045,21 +14005,17 @@
       </c>
       <c r="L499" t="inlineStr">
         <is>
-          <t>844d923f-cfe0-4a3a-97ff-67c072c4220c</t>
+          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="C500" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: operacionalize os padrões de configuração de clusters e pods com o Azure Policy.</t>
-        </is>
-      </c>
-      <c r="D500" t="inlineStr">
-        <is>
-          <t>O Azure Policy pode ajudar a aplicar imposições e proteções em escala em seus clusters de maneira centralizada e consistente. Ele também pode controlar quais funções os pods são concedidos e se algo está sendo executado contra a política da empresa.</t>
-        </is>
-      </c>
+          <t>Integridade: Regule o acesso a registros de contêineres aprovados. Verifique se a computação do Machine Learning só pode acessar registros aprovados.</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
       <c r="F500" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14067,21 +14023,17 @@
       </c>
       <c r="L500" t="inlineStr">
         <is>
-          <t>02f47a84-6d0c-4243-a5ab-743c85dcce67</t>
+          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="C501" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use os recursos da plataforma em seu processo de engenharia de lançamento.</t>
-        </is>
-      </c>
-      <c r="D501" t="inlineStr">
-        <is>
-          <t>O Kubernetes e os controladores de entrada oferecem suporte a muitos padrões avançados de implantação para inclusão em seu processo de engenharia de lançamento. Considere padrões como implantações azul-verde ou versões canário.</t>
-        </is>
-      </c>
+          <t>Integridade: regule os pacotes do Python que podem ser executados na computação do Machine Learning. Regular os pacotes Python garante que apenas pacotes confiáveis sejam executados.</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
       <c r="F501" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14089,21 +14041,17 @@
       </c>
       <c r="L501" t="inlineStr">
         <is>
-          <t>ecbf4266-e97a-4b02-8d02-ca2fd42cea5b</t>
+          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="C502" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: para cargas de trabalho críticas, use implantações azul/verde no nível do selo.</t>
-        </is>
-      </c>
-      <c r="D502" t="inlineStr">
-        <is>
-          <t>Automatize suas áreas de projeto de missão crítica, incluindo implantação e teste.</t>
-        </is>
-      </c>
+          <t>Integridade: exija que o código usado para treinamento em ambientes de computação do Machine Learning seja assinado. Exigir a assinatura de código garante que o código em execução seja de uma fonte confiável e não tenha sido adulterado.</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
       <c r="F502" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14111,14 +14059,14 @@
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>4646ab36-8c28-4740-afac-c9819f0f6ac9</t>
+          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="C503" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: execute e itere em um exercício detalhado de plano de capacidade que inclui SKU, configurações de dimensionamento automático, endereçamento IP e considerações de failover.</t>
+          <t>Confidencialidade: siga o princípio de privilégios mínimos para RBAC (controle de acesso baseado em função) ao workspace do Machine Learning e recursos relacionados, como a conta de armazenamento do workspace, para garantir que os indivíduos tenham apenas as permissões necessárias para sua função, minimizando assim possíveis riscos de segurança.</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
@@ -14129,14 +14077,14 @@
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>de0e6d8d-65a5-46b0-891b-2ad2aa09de11</t>
+          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="C504" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite o dimensionador automático de cluster para ajustar automaticamente o número de nós de agente em demandas de carga de trabalho de resposta.</t>
+          <t>Integridade: estabeleça confiança e acesso verificado implementando criptografia para dados em repouso e dados em trânsito.</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
@@ -14147,17 +14095,21 @@
       </c>
       <c r="L504" t="inlineStr">
         <is>
-          <t>b78aea0e-3fd2-4dcc-b617-34a26892aa76</t>
+          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="C505" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: use o dimensionador automático de pod horizontal para ajustar o número de pods em uma implantação, dependendo da utilização da CPU ou de outras métricas selecionadas.</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr"/>
+          <t>Linha de base de segurança: para aprimorar a segurança e a conformidade do Serviço de Machine Learning, aplique a linha de base de segurança do Azure para Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>A linha de base de segurança fornece orientação personalizada sobre aspectos cruciais de segurança, como segurança de rede, gerenciamento de identidade, proteção de dados e acesso privilegiado. Para obter a segurança ideal, use o Microsoft Defender para Nuvem para monitorar esses aspectos.</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14165,17 +14117,21 @@
       </c>
       <c r="L505" t="inlineStr">
         <is>
-          <t>9b168db7-a88b-4e2c-b555-bc525c7e48da</t>
+          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="C506" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: execute atividades contínuas de teste de carga que exercitam o dimensionador automático de pod e cluster.</t>
-        </is>
-      </c>
-      <c r="D506" t="inlineStr"/>
+          <t>Isolamento de rede virtual gerenciada: configure o isolamento de rede virtual gerenciada para Machine Learning. Quando você habilita o isolamento de rede virtual gerenciada, uma rede virtual gerenciada é criada para o workspace. Os recursos de computação gerenciados que você cria para o workspace usam automaticamente essa rede virtual gerenciada. Se você não puder implementar o isolamento de rede virtual gerenciada, deverá seguir as recomendações de topologia de rede para separar a computação em uma sub-rede dedicada longe do restante dos recursos da solução, incluindo os pontos de extremidade privados para recursos de workspace.</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>O isolamento de rede virtual gerenciado aumenta a segurança isolando seu workspace de outras redes, reduzindo o risco de acesso não autorizado. Em um cenário em que ocorre uma violação em outra rede dentro de sua organização, a rede isolada do workspace do Machine Learning permanece inalterada, protegendo suas cargas de trabalho de machine learning.</t>
+        </is>
+      </c>
       <c r="F506" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14183,17 +14139,21 @@
       </c>
       <c r="L506" t="inlineStr">
         <is>
-          <t>deadeedd-dab6-4774-84df-f5223ed6ede1</t>
+          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="C507" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: Separe as cargas de trabalho em diferentes pools de nós, permitindo chamadas independentes.</t>
-        </is>
-      </c>
-      <c r="D507" t="inlineStr"/>
+          <t>Isolamento de rede do Machine Learning: configure um ponto de extremidade privado para seu workspace do Machine Learning e conecte-se ao workspace por meio desse ponto de extremidade privado.</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>O isolamento de rede do Machine Learning aumenta a segurança, garantindo que o acesso ao workspace seja seguro e controlado. Com um ponto de extremidade privado configurado para seu workspace, você pode limitar o acesso ao workspace para ocorrer apenas nos endereços IP privados.</t>
+        </is>
+      </c>
       <c r="F507" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14201,19 +14161,19 @@
       </c>
       <c r="L507" t="inlineStr">
         <is>
-          <t>7b1e9a65-2d5d-4eeb-a349-136895131b06</t>
+          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="C508" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: desenvolva um plano de capacidade detalhado e revise e revise continuamente.</t>
+          <t>Permitir apenas acesso de saída aprovado: configure o modo de saída no acesso de saída gerenciado do workspace do Machine Learning como "Permitir apenas saída aprovada" para minimizar o risco de exfiltração de dados. Configure pontos de extremidade privados, marcas de serviço ou FQDNs (nomes de domínio totalmente qualificados) para recursos que você precisa acessar.</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Depois de formalizar seu plano de capacidade, ele deve ser atualizado com frequência, observando continuamente a utilização de recursos do cluster.</t>
+          <t>Essa configuração minimiza o risco de exfiltração de dados, melhorando a segurança dos dados. Com essa configuração habilitada, um agente mal-intencionado que obtém acesso ao seu sistema não pode enviar seus dados para um destino externo não aprovado.</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -14223,19 +14183,19 @@
       </c>
       <c r="L508" t="inlineStr">
         <is>
-          <t>7b4e5e8b-6e55-4db7-a330-19990bd1e0d2</t>
+          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="C509" t="inlineStr">
         <is>
-          <t>Arquitetura de cluster: habilite o dimensionador automático de cluster para ajustar automaticamente o número de nós do agente em resposta a restrições de recursos.</t>
+          <t>Isolamento de rede virtual para serviços dependentes: configure serviços dependentes, como Armazenamento, Key Vault e Registro de Contêiner com pontos de extremidade privados e desabilite o acesso público.</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>A capacidade de escalar ou reduzir verticalmente automaticamente o número de nós no cluster do AKS permite que você execute um cluster eficiente e econômico.</t>
+          <t>O isolamento de rede reforça a segurança restringindo o acesso às soluções de PaaS (plataforma como serviço) do Azure apenas a endereços IP privados.</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -14245,19 +14205,19 @@
       </c>
       <c r="L509" t="inlineStr">
         <is>
-          <t>631272b4-9ca7-4e6f-ae9b-3c55946b3924</t>
+          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="C510" t="inlineStr">
         <is>
-          <t>Arquiteturas de cluster e carga de trabalho: separe as cargas de trabalho em pools de nós diferentes e considere dimensionar pools de nós do usuário.</t>
+          <t>Identidade gerenciada: use identidades gerenciadas para autenticação entre o Machine Learning e outros serviços.</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Ao contrário dos pools de nós do sistema que sempre exigem nós em execução, os pools de nós do usuário permitem que você aumente ou diminua verticalmente.</t>
+          <t>As identidades gerenciadas melhoram a segurança, eliminando a necessidade de armazenar credenciais e gerenciar e alternar manualmente as entidades de serviço.</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -14267,19 +14227,19 @@
       </c>
       <c r="L510" t="inlineStr">
         <is>
-          <t>85ffe644-7c4b-4f2d-b2fa-ed8e7c8d2e84</t>
+          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="C511" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use os recursos avançados do agendador do AKS.</t>
+          <t>Desabilitar autenticação local: desabilite a autenticação local para clusters e instâncias de computação do Machine Learning.</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Ajuda a controlar o balanceamento de recursos para cargas de trabalho que os exigem.</t>
+          <t>Desabilitar a autenticação local aumenta a segurança da computação do Machine Learning e fornece controle e gerenciamento centralizados de identidades e credenciais de recursos.</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -14289,19 +14249,19 @@
       </c>
       <c r="L511" t="inlineStr">
         <is>
-          <t>bb7f1396-6a84-4e6d-b6d8-5fc48b4c2b5f</t>
+          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="C512" t="inlineStr">
         <is>
-          <t>Arquitetura de carga de trabalho: use métricas significativas de dimensionamento de carga de trabalho.</t>
+          <t>Desabilitar a porta SSH pública: verifique se a porta pública do Secure Shell (SSH) está fechada no cluster de computação do Machine Learning definindo 'remoteLoginPortPublicAccess' como 'Desabilitado'. Aplique uma configuração semelhante se você usar uma computação diferente.</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Nem todas as decisões de escala podem ser derivadas de métricas de CPU ou memória. Muitas vezes, as considerações de escala virão de pontos de dados mais complexos ou mesmo externos. Use o KEDA para criar um conjunto de regras de dimensionamento automático significativo com base em sinais específicos para sua carga de trabalho.</t>
+          <t>Desabilitar o acesso SSH ajuda a impedir que indivíduos não autorizados obtenham acesso e potencialmente causem danos ao seu sistema e protege você contra ataques de força bruta.</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -14311,17 +14271,21 @@
       </c>
       <c r="L512" t="inlineStr">
         <is>
-          <t>bc908693-9e21-478c-9fde-e92ba949c89e</t>
+          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="C513" t="inlineStr">
         <is>
-          <t>Resiliência: implante modelos em ambientes que dão suporte a zonas de disponibilidade, como o AKS. Ao garantir que as implantações sejam distribuídas entre zonas de disponibilidade, você garante que uma implantação esteja disponível mesmo no caso de uma falha do datacenter. Para maior confiabilidade e disponibilidade, considere uma topologia de implantação de várias regiões.</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr"/>
+          <t>Não provisionar endereços IP públicos para computação do Machine Learning: defina enableNodePublicIp como 'false' ao provisionar clusters de computação ou instâncias de computação do Machine Learning. Aplique uma configuração semelhante se você usar uma computação diferente.</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Evite provisionar endereços IP públicos para aumentar a segurança, limitando o potencial de acesso não autorizado à sua instância de computação ou clusters.</t>
+        </is>
+      </c>
       <c r="F513" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14329,17 +14293,21 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>f4804af8-4f42-450d-916c-5593c145ccf9</t>
+          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="C514" t="inlineStr">
         <is>
-          <t>Resiliência: verifique se você tem computação suficiente para treinamento e inferência. Por meio do planejamento de recursos, verifique se o SKU de computação e as configurações de escala atendem aos requisitos de sua carga de trabalho.</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr"/>
+          <t>Obter a imagem mais recente do sistema operacional: recrie instâncias de computação para obter a imagem mais recente do sistema operacional.</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>O uso das imagens mais recentes garante que você mantenha um ambiente consistente, estável e seguro, incluindo a garantia de que você tenha os patches de segurança mais recentes.</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14347,17 +14315,21 @@
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>995d097a-0de2-4431-947f-561b49a60f21</t>
+          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="C515" t="inlineStr">
         <is>
-          <t>Resiliência: separe os espaços de trabalho do Machine Learning usados para trabalho exploratório daqueles usados para produção.</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
+          <t>Controles rígidos de acesso ao workspace do Machine Learning: use grupos de ID do Microsoft Entra para gerenciar o acesso ao workspace e aderir ao princípio de privilégios mínimos para RBAC.</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Controles rígidos de acesso ao espaço de trabalho aumentam a segurança, garantindo que os indivíduos tenham apenas as permissões necessárias para sua função. Um cientista de dados, por exemplo, pode ter acesso para executar experimentos, mas não para modificar as configurações de segurança, minimizando possíveis riscos de segurança.</t>
+        </is>
+      </c>
       <c r="F515" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14365,17 +14337,21 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>d494b7f5-ad32-471f-9fc7-18945ca454ab</t>
+          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="C516" t="inlineStr">
         <is>
-          <t>Resiliência: ao usar pontos de extremidade online gerenciados para inferência, use uma estratégia de lançamento, como implantações azul-verde, para minimizar o tempo de inatividade e reduzir o risco associado à implantação de novas versões.</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
+          <t>Restringir implantações de catálogo de modelos: restrinja as implantações de modelos a registros específicos.</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Restringir as implantações do catálogo de modelos a registros específicos garante que você implante apenas modelos em registros aprovados. Essa abordagem ajuda a regular o acesso aos modelos fundamentais de software livre.</t>
+        </is>
+      </c>
       <c r="F516" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14383,17 +14359,21 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>6f1dd2cc-e0af-4203-ab0b-b7c65b7b18ae</t>
+          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="C517" t="inlineStr">
         <is>
-          <t>Requisitos de negócios: selecione o uso de clusters de computação, instâncias de computação e hosts de inferência externalizados com base nas necessidades de confiabilidade, considerando os SLAs (contratos de nível de serviço) como um fator.</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
+          <t>Criptografar dados em repouso: considere usar chaves gerenciadas pelo cliente com o Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>A criptografia de dados em repouso aumenta a segurança dos dados, garantindo que os dados confidenciais sejam criptografados usando chaves gerenciadas diretamente por você. Se você tiver um requisito regulatório para gerenciar suas próprias chaves de criptografia, use esse recurso para cumprir esse requisito.</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14401,17 +14381,21 @@
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>558fcdcf-33e7-4385-82fd-424bc8ae64bc</t>
+          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="C518" t="inlineStr">
         <is>
-          <t>Recuperação: verifique se você tem recursos de autocorreção, como recursos de ponto de verificação compatíveis com o Machine Learning, ao treinar modelos grandes.</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr"/>
+          <t>Minimize o risco de exfiltração de dados: implemente a prevenção de exfiltração de dados. Por exemplo, crie uma política de ponto de extremidade de serviço para filtrar o tráfego de rede virtual de saída e permitir a exfiltração de dados somente para contas específicas do Armazenamento do Azure.</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Minimize o risco de exfiltração de dados limitando os requisitos de entrada e saída.</t>
+        </is>
+      </c>
       <c r="F518" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14419,14 +14403,14 @@
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>de5be058-1d22-4f38-96aa-3fbca5071a8f</t>
+          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="C519" t="inlineStr">
         <is>
-          <t>Recuperação: certifique-se de ter uma estratégia de recuperação definida. O Machine Learning não tem failover automático. Portanto, você deve criar uma estratégia que englobe o workspace e todas as suas dependências, como Key Vault, Armazenamento do Azure e Registro de Contêiner do Azure.</t>
+          <t>Otimização de uso: escolha os recursos apropriados para garantir que eles estejam alinhados com seus requisitos de carga de trabalho. Por exemplo, escolha entre CPUs ou GPUs, vários SKUs ou VMs de prioridade baixa versus regular.</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
@@ -14437,21 +14421,17 @@
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>20104165-9764-4920-98dd-63fddc5f58d3</t>
+          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="C520" t="inlineStr">
         <is>
-          <t>Implantação de modelo multirregional: para maior confiabilidade e disponibilidade, considere um ambiente de implantação multirregional quando possível.</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>Uma implantação de várias regiões garante que suas cargas de trabalho do Machine Learning continuem a ser executadas mesmo que uma região sofra uma interrupção. A implantação multirregional melhora a distribuição de carga entre regiões, potencialmente melhorando o desempenho para usuários localizados em diferentes áreas geográficas. Para obter mais informações, consulte Failover para continuidade dos negócios e recuperação de desastres.</t>
-        </is>
-      </c>
+          <t>Otimização de uso: verifique se os recursos de computação que não estão sendo usados sejam reduzidos ou desligados quando ociosos para reduzir o desperdício.</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
       <c r="F520" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14459,21 +14439,17 @@
       </c>
       <c r="L520" t="inlineStr">
         <is>
-          <t>046ff188-7d68-492f-850c-c65ee0c9a962</t>
+          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="C521" t="inlineStr">
         <is>
-          <t>Resiliência de treinamento de modelo: use recursos de ponto de verificação compatíveis com o Machine Learning, incluindo o Contêiner do Azure para PyTorch, a classe TensorFlow Estimator ou o objeto Run e a classe FileDataset que dão suporte ao ponto de verificação do modelo.</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>O ponto de verificação do modelo salva periodicamente o estado do modelo de aprendizado de máquina durante o treinamento, para que ele possa ser restaurado em caso de interrupção, falha ou encerramento. Para obter mais informações, consulte Aumente a velocidade do ponto de verificação e reduza o custo com o Nebula.</t>
-        </is>
-      </c>
+          <t>Otimização de uso: aplique políticas e configure cotas para cumprir os limites superior e inferior do design.</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
       <c r="F521" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14481,21 +14457,17 @@
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>8eaf992c-ccd9-495f-b625-d4f544d38d38</t>
+          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="C522" t="inlineStr">
         <is>
-          <t>Usar a camada de máquina virtual dedicada para clusters de computação: use a camada de máquina virtual dedicada para clusters de computação para inferência em lote para garantir que o trabalho em lote não seja preemptado.</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>As máquinas virtuais de baixa prioridade têm um preço reduzido, mas são preemptivas. Os clusters que usam a camada de máquina virtual dedicada não são preemptados.</t>
-        </is>
-      </c>
+          <t>Otimização de uso: teste a paralelização de cargas de trabalho de treinamento para determinar se os requisitos de treinamento podem ser atendidos em SKUs de custo mais baixo.</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="F522" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14503,14 +14475,14 @@
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>19720202-b456-44c4-8ff1-28eaa20e1a7d</t>
+          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="C523" t="inlineStr">
         <is>
-          <t>Disponibilidade: reduza a superfície de ataque do workspace do Machine Learning restringindo o acesso ao workspace aos recursos dentro da rede virtual.</t>
+          <t>Otimização de taxa: compre Instâncias de Máquina Virtual Reservadas do Azure se você tiver uma boa estimativa de uso nos próximos um a três anos.</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
@@ -14521,14 +14493,14 @@
       </c>
       <c r="L523" t="inlineStr">
         <is>
-          <t>303116b4-65cb-43e5-8ceb-7bebaf16b568</t>
+          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="C524" t="inlineStr">
         <is>
-          <t>Confidencialidade: proteja-se contra a exfiltração de dados do workspace do Machine Learning implementando o isolamento de rede. Verifique se o acesso a todos os recursos externos é explicitamente aprovado e o acesso a todos os outros recursos externos não é permitido.</t>
+          <t>Monitorar e otimizar: monitore o uso de recursos, como o uso de CPU e GPU, ao treinar modelos. Se os recursos não estiverem sendo totalmente usados, modifique seu código para usar melhor os recursos ou reduza verticalmente para tamanhos de VM menores ou mais baratos.</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
@@ -14539,17 +14511,21 @@
       </c>
       <c r="L524" t="inlineStr">
         <is>
-          <t>eb9cc8b2-c9a3-4fe7-9578-8918ab53eae6</t>
+          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="C525" t="inlineStr">
         <is>
-          <t>Integridade: implemente controles de acesso que autenticam e autorizam o workspace do Machine Learning para recursos externos com base no princípio de privilégios mínimos.</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr"/>
+          <t>Otimize os recursos de computação: otimize seus recursos de computação com base nos requisitos de sua carga de trabalho. Escolha o SKU que melhor se adapta à sua carga de trabalho:&lt;ul&gt;&lt;li&gt;Uso geral – Proporção balanceada de CPU para memória, boa para todos os fins.&lt;/li&gt;&lt;li&gt;Otimizado para computação – Alta proporção de CPU para memória, boa para cálculos pesados em matemática.&lt;/li&gt;&lt;li&gt;Memória otimizada – Alta memória para CPU, boa para cálculos na memória ou aplicativos de banco de dados.&lt;/li&gt;&lt;li&gt;Série M – Máquinas muito grandes que possuem grandes quantidades de memória e CPU. &lt;/li&gt;&lt;li&gt; GPU – Melhor para modelos com um alto número de variáveis que podem se beneficiar de maior paralelismo e instruções de núcleo especializadas. As aplicações típicas são aprendizado profundo, processamento de imagem ou vídeo, simulações científicas, mineração de dados e aproveitamento de estruturas de desenvolvimento de GPU. Teste com várias famílias e documente os resultados como sua linha de base. À medida que seu modelo e dados evoluem, o recurso de computação mais adequado pode mudar. Monitore os tempos de execução e reavalie conforme necessário.</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Selecionar a computação certa é fundamental, pois afeta diretamente o custo de execução de sua carga de trabalho. Escolher uma GPU ou um SKU de alto desempenho sem o uso adequado pode levar a gastos desnecessários, enquanto a escolha de computação subdimensionada pode levar a tempos de treinamento proibitivamente longos e problemas de desempenho.</t>
+        </is>
+      </c>
       <c r="F525" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14557,17 +14533,21 @@
       </c>
       <c r="L525" t="inlineStr">
         <is>
-          <t>1cb53633-f0c7-45f4-a98b-76b0314a94ba</t>
+          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="C526" t="inlineStr">
         <is>
-          <t>Integridade: implemente a segregação de casos de uso para workspaces do Machine Learning configurando workspaces com base em casos de uso ou projetos específicos. Essa abordagem segue o princípio do privilégio mínimo, garantindo que os workspaces sejam acessíveis apenas a indivíduos que exigem acesso a dados e ativos de experimentação para o caso de uso ou projeto.</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr"/>
+          <t>Otimizar o dimensionamento de computação: configure seus clusters de computação para dimensionamento automático para garantir que você use apenas o que precisa. Para clusters de treinamento, defina o número mínimo de nós como 0 e configure a quantidade de tempo que o nó fica ocioso para um tempo apropriado. Para uma experimentação menos iterativa, reduza o tempo para economizar custos. Para uma experimentação mais iterativa, use um tempo maior para evitar o pagamento de escalonamento vertical ou reduzido após cada alteração.</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Configure o dimensionamento automático para clusters de computação para reduzir verticalmente quando seu uso for baixo.  Defina o número mínimo de nós como 0 para que os clusters de treinamento sejam reduzidos verticalmente para 0 quando não estiverem em uso.</t>
+        </is>
+      </c>
       <c r="F526" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14575,17 +14555,21 @@
       </c>
       <c r="L526" t="inlineStr">
         <is>
-          <t>30341513-1f91-480e-bc19-8031f1851087</t>
+          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="C527" t="inlineStr">
         <is>
-          <t>Integridade: Regular o acesso a modelos fundamentais. Verifique se apenas os registros aprovados têm acesso aos modelos no registro de modelo.</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr"/>
+          <t>Definir políticas de encerramento de treinamento: defina políticas de encerramento antecipado para limitar a duração das execuções de treinamento ou encerrá-las antecipadamente.</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>A definição de políticas de encerramento pode ajudá-lo a economizar custos interrompendo as execuções inexecutadas antecipadamente.</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14593,17 +14577,21 @@
       </c>
       <c r="L527" t="inlineStr">
         <is>
-          <t>1274dc7a-a81c-409d-8cd6-e3bda0ee8687</t>
+          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="C528" t="inlineStr">
         <is>
-          <t>Integridade: Regule o acesso a registros de contêineres aprovados. Verifique se a computação do Machine Learning só pode acessar registros aprovados.</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr"/>
+          <t>Usar máquinas virtuais de baixa prioridade para cargas de trabalho em lotes: considere usar máquinas virtuais de baixa prioridade para cargas de trabalho em lotes que não são sensíveis ao tempo e nas quais as interrupções são recuperáveis.</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>As máquinas virtuais de baixa prioridade permitem que uma grande quantidade de poder de computação seja usada por um custo baixo. Eles aproveitam a capacidade excedente no Azure.</t>
+        </is>
+      </c>
       <c r="F528" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14611,17 +14599,21 @@
       </c>
       <c r="L528" t="inlineStr">
         <is>
-          <t>ca17ad83-954c-4eba-a30f-9e7c3c2079f6</t>
+          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="C529" t="inlineStr">
         <is>
-          <t>Integridade: regule os pacotes do Python que podem ser executados na computação do Machine Learning. Regular os pacotes Python garante que apenas pacotes confiáveis sejam executados.</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr"/>
+          <t>Habilitar o desligamento ocioso para instâncias de computação: habilite o desligamento ocioso para instâncias de computação ou programe um horário de início e término se o tempo de uso for conhecido.</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Por padrão, as instâncias de computação estão disponíveis para você, acumulando custos. Configurar instâncias de computação para desligar quando ociosas ou configurar um agendamento para elas economiza custos quando não estão em uso.</t>
+        </is>
+      </c>
       <c r="F529" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14629,17 +14621,21 @@
       </c>
       <c r="L529" t="inlineStr">
         <is>
-          <t>1ffe0cf7-a26a-4018-bef8-4d7fdf3291e2</t>
+          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="C530" t="inlineStr">
         <is>
-          <t>Integridade: exija que o código usado para treinamento em ambientes de computação do Machine Learning seja assinado. Exigir a assinatura de código garante que o código em execução seja de uma fonte confiável e não tenha sido adulterado.</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr"/>
+          <t>Paralelizar cargas de trabalho de treinamento: considere paralelizar cargas de trabalho de treinamento. Teste a execução deles com a ajuda dos componentes paralelos no Machine Learning.</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Cargas de trabalho paralelas podem ser executadas em várias instâncias menores, potencialmente gerando economia de custos.</t>
+        </is>
+      </c>
       <c r="F530" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14647,17 +14643,21 @@
       </c>
       <c r="L530" t="inlineStr">
         <is>
-          <t>8d9aea78-3ebe-4ec6-968d-3daa07abc239</t>
+          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="C531" t="inlineStr">
         <is>
-          <t>Confidencialidade: siga o princípio de privilégios mínimos para RBAC (controle de acesso baseado em função) ao workspace do Machine Learning e recursos relacionados, como a conta de armazenamento do workspace, para garantir que os indivíduos tenham apenas as permissões necessárias para sua função, minimizando assim possíveis riscos de segurança.</t>
-        </is>
-      </c>
-      <c r="D531" t="inlineStr"/>
+          <t>Instâncias de VM Reservadas do Azure: compre Instâncias de VM Reservadas do Azure se você tiver uma boa estimativa de uso nos próximos um a três anos. Aproveite as opções de capacidade reservada para serviços quando tiver boas estimativas de uso.</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Compre Instâncias de VM Reservadas do Azure para pagar antecipadamente pelo uso da máquina virtual e fornecer descontos com preços pagos conforme o uso. O desconto é aplicado automaticamente para o uso da máquina virtual que corresponde à reserva.</t>
+        </is>
+      </c>
       <c r="F531" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14665,14 +14665,14 @@
       </c>
       <c r="L531" t="inlineStr">
         <is>
-          <t>a6664b76-0292-4bd4-841e-859b65a569c0</t>
+          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="C532" t="inlineStr">
         <is>
-          <t>Integridade: estabeleça confiança e acesso verificado implementando criptografia para dados em repouso e dados em trânsito.</t>
+          <t>Padrões de desenvolvimento: aproveite os catálogos e registros de modelos do Machine Learning para armazenar, controlar a versão e compartilhar ativos de machine learning.</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
@@ -14683,21 +14683,17 @@
       </c>
       <c r="L532" t="inlineStr">
         <is>
-          <t>2a509fe2-ce1d-410c-a5cb-780eb8dfaf15</t>
+          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="C533" t="inlineStr">
         <is>
-          <t>Linha de base de segurança: para aprimorar a segurança e a conformidade do Serviço de Machine Learning, aplique a linha de base de segurança do Azure para Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>A linha de base de segurança fornece orientação personalizada sobre aspectos cruciais de segurança, como segurança de rede, gerenciamento de identidade, proteção de dados e acesso privilegiado. Para obter a segurança ideal, use o Microsoft Defender para Nuvem para monitorar esses aspectos.</t>
-        </is>
-      </c>
+          <t>Automatize para eficiência: siga boas práticas de operações de machine learning (MLOps). Quando possível, crie pipelines automatizados de ponta a ponta para processos de preparação, treinamento e pontuação de dados. No desenvolvimento, use scripts em vez de notebooks para modelos de treinamento, pois os scripts são mais fáceis de integrar em pipelines automatizados.</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14705,21 +14701,17 @@
       </c>
       <c r="L533" t="inlineStr">
         <is>
-          <t>0e30e670-0c69-4c8a-82f5-b88494e56879</t>
+          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="C534" t="inlineStr">
         <is>
-          <t>Isolamento de rede virtual gerenciada: configure o isolamento de rede virtual gerenciada para Machine Learning. Quando você habilita o isolamento de rede virtual gerenciada, uma rede virtual gerenciada é criada para o workspace. Os recursos de computação gerenciados que você cria para o workspace usam automaticamente essa rede virtual gerenciada. Se você não puder implementar o isolamento de rede virtual gerenciada, deverá seguir as recomendações de topologia de rede para separar a computação em uma sub-rede dedicada longe do restante dos recursos da solução, incluindo os pontos de extremidade privados para recursos de workspace.</t>
-        </is>
-      </c>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>O isolamento de rede virtual gerenciado aumenta a segurança isolando seu workspace de outras redes, reduzindo o risco de acesso não autorizado. Em um cenário em que ocorre uma violação em outra rede dentro de sua organização, a rede isolada do workspace do Machine Learning permanece inalterada, protegendo suas cargas de trabalho de machine learning.</t>
-        </is>
-      </c>
+          <t>Implante com confiança: implemente a infraestrutura como código (IaC) para workspaces do Machine Learning, clusters de computação, instâncias de computação e outros ambientes de implantação.</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14727,21 +14719,17 @@
       </c>
       <c r="L534" t="inlineStr">
         <is>
-          <t>aeb66f5c-45bc-45d8-a7bf-a6bd5c6e5f9a</t>
+          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="C535" t="inlineStr">
         <is>
-          <t>Isolamento de rede do Machine Learning: configure um ponto de extremidade privado para seu workspace do Machine Learning e conecte-se ao workspace por meio desse ponto de extremidade privado.</t>
-        </is>
-      </c>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>O isolamento de rede do Machine Learning aumenta a segurança, garantindo que o acesso ao workspace seja seguro e controlado. Com um ponto de extremidade privado configurado para seu workspace, você pode limitar o acesso ao workspace para ocorrer apenas nos endereços IP privados.</t>
-        </is>
-      </c>
+          <t>Observabilidade: monitore o desempenho de seus modelos implantados, incluindo descompasso de dados.</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
       <c r="F535" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14749,21 +14737,17 @@
       </c>
       <c r="L535" t="inlineStr">
         <is>
-          <t>af44fe21-713a-435f-97bd-34ec8221f729</t>
+          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="C536" t="inlineStr">
         <is>
-          <t>Permitir apenas acesso de saída aprovado: configure o modo de saída no acesso de saída gerenciado do workspace do Machine Learning como "Permitir apenas saída aprovada" para minimizar o risco de exfiltração de dados. Configure pontos de extremidade privados, marcas de serviço ou FQDNs (nomes de domínio totalmente qualificados) para recursos que você precisa acessar.</t>
-        </is>
-      </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>Essa configuração minimiza o risco de exfiltração de dados, melhorando a segurança dos dados. Com essa configuração habilitada, um agente mal-intencionado que obtém acesso ao seu sistema não pode enviar seus dados para um destino externo não aprovado.</t>
-        </is>
-      </c>
+          <t>Observabilidade: se seus modelos forem implantados em pontos de extremidade online, habilite o Application Insights para monitorar pontos de extremidade e implantações online. Monitore a infraestrutura de treinamento para garantir que você esteja atendendo aos seus requisitos básicos.</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14771,21 +14755,17 @@
       </c>
       <c r="L536" t="inlineStr">
         <is>
-          <t>d1cdc5a5-eb9a-43d7-ad74-6169482b28d0</t>
+          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="C537" t="inlineStr">
         <is>
-          <t>Isolamento de rede virtual para serviços dependentes: configure serviços dependentes, como Armazenamento, Key Vault e Registro de Contêiner com pontos de extremidade privados e desabilite o acesso público.</t>
-        </is>
-      </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>O isolamento de rede reforça a segurança restringindo o acesso às soluções de PaaS (plataforma como serviço) do Azure apenas a endereços IP privados.</t>
-        </is>
-      </c>
+          <t>Simplicidade: use ambientes selecionados otimizados para Machine Learning, quando disponíveis.</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14793,19 +14773,19 @@
       </c>
       <c r="L537" t="inlineStr">
         <is>
-          <t>0d8346f9-f2fe-4a4e-b153-662c5c6e4510</t>
+          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="C538" t="inlineStr">
         <is>
-          <t>Identidade gerenciada: use identidades gerenciadas para autenticação entre o Machine Learning e outros serviços.</t>
+          <t>Minimizar instâncias de workspace do Machine Learning: minimize o número de workspaces, quando possível, para reduzir a manutenção.</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>As identidades gerenciadas melhoram a segurança, eliminando a necessidade de armazenar credenciais e gerenciar e alternar manualmente as entidades de serviço.</t>
+          <t>Limitar o número de espaços de trabalho reduz o esforço de manutenção e o custo de operação. Para requisitos, como segurança, talvez você precise de vários workspaces separados. Minimize o número de espaços de trabalho quando possível.</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -14815,19 +14795,19 @@
       </c>
       <c r="L538" t="inlineStr">
         <is>
-          <t>bf2a8ddf-263e-46fb-b73a-ca8b9ba168e7</t>
+          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="C539" t="inlineStr">
         <is>
-          <t>Desabilitar autenticação local: desabilite a autenticação local para clusters e instâncias de computação do Machine Learning.</t>
+          <t>Aproveite os catálogos e registros de modelos: aproveite os catálogos e registros de modelos do Machine Learning para armazenar, controlar a versão e compartilhar ativos de aprendizado de máquina. Use catálogos de modelos do Machine Learning para ajudá-lo a implementar testes A/B e implantação de modelos.</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Desabilitar a autenticação local aumenta a segurança da computação do Machine Learning e fornece controle e gerenciamento centralizados de identidades e credenciais de recursos.</t>
+          <t>Use registros de modelo de aprendizado de máquina para armazenar e controlar a versão de seus modelos de aprendizado de máquina para acompanhar as alterações e manter a linhagem com o trabalho e os conjuntos de dados usados para treinamento. Com os catálogos de modelos de Machine Learning, suas equipes de ciência de dados podem descobrir, avaliar e ajustar modelos de machine learning básicos pré-treinados. O armazenamento de modelos com versão em registros de modelo do Machine Learning dá suporte a estratégias de implantação, como versões A/B, versões canário e reversões.</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -14837,19 +14817,19 @@
       </c>
       <c r="L539" t="inlineStr">
         <is>
-          <t>70477454-0ddb-4ad6-9342-1ad6290bbb06</t>
+          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="C540" t="inlineStr">
         <is>
-          <t>Desabilitar a porta SSH pública: verifique se a porta pública do Secure Shell (SSH) está fechada no cluster de computação do Machine Learning definindo 'remoteLoginPortPublicAccess' como 'Desabilitado'. Aplique uma configuração semelhante se você usar uma computação diferente.</t>
+          <t>Monitorar o desempenho do modelo: monitore o desempenho de seus modelos implantados e detecte descompassos de dados em conjuntos de dados.</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Desabilitar o acesso SSH ajuda a impedir que indivíduos não autorizados obtenham acesso e potencialmente causem danos ao seu sistema e protege você contra ataques de força bruta.</t>
+          <t>O monitoramento de modelos implantados garante que seus modelos atendam aos requisitos de desempenho. O monitoramento de descompasso de dados ajuda a detectar alterações nos dados de entrada que podem levar a um declínio no desempenho do modelo. O gerenciamento de descompasso de dados ajuda a garantir que seu modelo forneça resultados precisos ao longo do tempo.</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -14859,19 +14839,19 @@
       </c>
       <c r="L540" t="inlineStr">
         <is>
-          <t>cbd359bc-8057-4a9c-9183-c4fc1e70a69b</t>
+          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="C541" t="inlineStr">
         <is>
-          <t>Não provisionar endereços IP públicos para computação do Machine Learning: defina enableNodePublicIp como 'false' ao provisionar clusters de computação ou instâncias de computação do Machine Learning. Aplique uma configuração semelhante se você usar uma computação diferente.</t>
+          <t>Monitorar a infraestrutura: se seus modelos forem implantados em pontos de extremidade online, habilite o Application Insights para monitorar pontos de extremidade e implantações online. Monitore a infraestrutura de treinamento para garantir que você esteja atendendo aos seus requisitos básicos. Verifique se você está coletando logs de recursos para Machine Learning.</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Evite provisionar endereços IP públicos para aumentar a segurança, limitando o potencial de acesso não autorizado à sua instância de computação ou clusters.</t>
+          <t>O monitoramento de endpoints oferece visibilidade de métricas como latência de solicitação e solicitações por minuto. Você pode comparar seu desempenho com sua linha de base e usar essas informações para fazer alterações nos recursos de computação de acordo. Métricas de monitoramento, como bytes de rede, podem alertá-lo se você estiver se aproximando dos limites de cota e evitar a limitação. Da mesma forma, monitorar seu ambiente de treinamento fornece as informações para fazer alterações em seu ambiente de treinamento. Use essas informações para decidir aumentar ou diminuir a escala, aumentar ou diminuir com SKUs de desempenho diferente ou escolher entre CPUs ou GPUs.</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -14881,19 +14861,19 @@
       </c>
       <c r="L541" t="inlineStr">
         <is>
-          <t>cc532133-2bba-484f-b316-035b93b3ee6a</t>
+          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="C542" t="inlineStr">
         <is>
-          <t>Obter a imagem mais recente do sistema operacional: recrie instâncias de computação para obter a imagem mais recente do sistema operacional.</t>
+          <t>Preparar ambientes de treinamento de modelo: use ambientes coletados otimizados para Machine Learning, quando disponíveis.</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>O uso das imagens mais recentes garante que você mantenha um ambiente consistente, estável e seguro, incluindo a garantia de que você tenha os patches de segurança mais recentes.</t>
+          <t>Ambientes coletados são ambientes pré-criados fornecidos pelo Machine Learning que aceleram o tempo de implantação e reduzem a latência de implantação e treinamento. O uso de ambientes coletados melhora as taxas de sucesso de treinamento e implantação e evita compilações de imagem desnecessárias. Ambientes coletados, como o Contêiner do Azure para PyTorch, também podem ser otimizados para treinar modelos grandes no Machine Learning.</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -14903,21 +14883,17 @@
       </c>
       <c r="L542" t="inlineStr">
         <is>
-          <t>cb49b636-1011-43a0-a12b-25378f677153</t>
+          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="C543" t="inlineStr">
         <is>
-          <t>Controles rígidos de acesso ao workspace do Machine Learning: use grupos de ID do Microsoft Entra para gerenciar o acesso ao workspace e aderir ao princípio de privilégios mínimos para RBAC.</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>Controles rígidos de acesso ao espaço de trabalho aumentam a segurança, garantindo que os indivíduos tenham apenas as permissões necessárias para sua função. Um cientista de dados, por exemplo, pode ter acesso para executar experimentos, mas não para modificar as configurações de segurança, minimizando possíveis riscos de segurança.</t>
-        </is>
-      </c>
+          <t>Metas de desempenho: determine o tempo de treinamento aceitável e a frequência de retreinamento para seu modelo. Definir uma meta clara para o tempo de treinamento, juntamente com o teste, ajuda a determinar os recursos de computação, CPU versus GPU e SKUs de CPU necessários para atingir a meta de tempo de treinamento.</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="F543" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14925,21 +14901,17 @@
       </c>
       <c r="L543" t="inlineStr">
         <is>
-          <t>17cac647-8c6f-4a6f-a66d-c436e17c91c8</t>
+          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="C544" t="inlineStr">
         <is>
-          <t>Restringir implantações de catálogo de modelos: restrinja as implantações de modelos a registros específicos.</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>Restringir as implantações do catálogo de modelos a registros específicos garante que você implante apenas modelos em registros aprovados. Essa abordagem ajuda a regular o acesso aos modelos fundamentais de software livre.</t>
-        </is>
-      </c>
+          <t>Metas de desempenho: defina as metas de desempenho aceitáveis para seus modelos implantados, incluindo tempo de resposta, solicitações por segundo, taxa de erro e tempo de atividade. As metas de desempenho atuam como uma referência para a eficiência do modelo implantado. Os destinos podem ajudá-lo a fazer determinações de CPU versus GPU, escolhas de SKU de CPU e requisitos de dimensionamento.</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="F544" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14947,21 +14919,17 @@
       </c>
       <c r="L544" t="inlineStr">
         <is>
-          <t>18a61ee3-34d2-484a-a740-3c90d23c64b9</t>
+          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="C545" t="inlineStr">
         <is>
-          <t>Criptografar dados em repouso: considere usar chaves gerenciadas pelo cliente com o Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>A criptografia de dados em repouso aumenta a segurança dos dados, garantindo que os dados confidenciais sejam criptografados usando chaves gerenciadas diretamente por você. Se você tiver um requisito regulatório para gerenciar suas próprias chaves de criptografia, use esse recurso para cumprir esse requisito.</t>
-        </is>
-      </c>
+          <t>Atenda aos requisitos de capacidade: escolha os recursos de computação certos para o treinamento do modelo.</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14969,21 +14937,17 @@
       </c>
       <c r="L545" t="inlineStr">
         <is>
-          <t>5e14c11e-83fb-40f1-a8dc-d96767d73a13</t>
+          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="C546" t="inlineStr">
         <is>
-          <t>Minimize o risco de exfiltração de dados: implemente a prevenção de exfiltração de dados. Por exemplo, crie uma política de ponto de extremidade de serviço para filtrar o tráfego de rede virtual de saída e permitir a exfiltração de dados somente para contas específicas do Armazenamento do Azure.</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>Minimize o risco de exfiltração de dados limitando os requisitos de entrada e saída.</t>
-        </is>
-      </c>
+          <t>Atenda aos requisitos de capacidade: escolha os recursos de computação certos para implantações de modelo.</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -14991,14 +14955,14 @@
       </c>
       <c r="L546" t="inlineStr">
         <is>
-          <t>6782cd14-a63d-466c-a7c9-8a92afe3b396</t>
+          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="C547" t="inlineStr">
         <is>
-          <t>Otimização de uso: escolha os recursos apropriados para garantir que eles estejam alinhados com seus requisitos de carga de trabalho. Por exemplo, escolha entre CPUs ou GPUs, vários SKUs ou VMs de prioridade baixa versus regular.</t>
+          <t>Atenda aos requisitos de capacidade: escolha ambientes de implantação com recursos de dimensionamento automático para adicionar e remover capacidade conforme a demanda flutua.</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
@@ -15009,14 +14973,14 @@
       </c>
       <c r="L547" t="inlineStr">
         <is>
-          <t>cac38d1e-d21e-4af5-834d-d607469c6439</t>
+          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="C548" t="inlineStr">
         <is>
-          <t>Otimização de uso: verifique se os recursos de computação que não estão sendo usados sejam reduzidos ou desligados quando ociosos para reduzir o desperdício.</t>
+          <t>Alcance e mantenha o desempenho: monitore continuamente o desempenho de seus modelos implantados, revise os resultados e tome as ações apropriadas.</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
@@ -15027,14 +14991,14 @@
       </c>
       <c r="L548" t="inlineStr">
         <is>
-          <t>8e98fc4b-2fa4-44b9-9aa7-1c01f67aecb7</t>
+          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="C549" t="inlineStr">
         <is>
-          <t>Otimização de uso: aplique políticas e configure cotas para cumprir os limites superior e inferior do design.</t>
+          <t>Alcance e mantenha o desempenho: monitore continuamente o desempenho de sua infraestrutura de modelos implantados, analise os resultados e tome as ações apropriadas. Monitore a infraestrutura de treinamento para garantir que você esteja atendendo aos seus requisitos de tempo de treinamento.</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -15045,17 +15009,21 @@
       </c>
       <c r="L549" t="inlineStr">
         <is>
-          <t>dfafcc35-c8fb-429b-92c0-53f045884794</t>
+          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="C550" t="inlineStr">
         <is>
-          <t>Otimização de uso: teste a paralelização de cargas de trabalho de treinamento para determinar se os requisitos de treinamento podem ser atendidos em SKUs de custo mais baixo.</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
+          <t>Selecione os serviços de computação apropriados para treinamento de modelo: considere clusters de computação do Machine Learning em instâncias de computação para treinamento de modelo se você precisar de dimensionamento automático. Otimize seus recursos de computação com base nos requisitos de treinamento. Primeiro escolha entre CPUs e GPUs. O padrão é CPUs, mas considere GPUs para cargas de trabalho como aprendizado profundo, processamento de imagem ou vídeo ou grandes quantidades de dados. Em seguida, escolha o SKU de imagem que melhor se adapta à sua carga de trabalho. Use o teste para escolher a opção de computação que otimiza o custo em relação ao tempo de treinamento ao determinar sua linha de base.</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Selecionar a computação certa é fundamental, pois afeta diretamente o tempo de treinamento. Escolher o SKU e a CPU corretos em vez de GPU garante que o treinamento do modelo possa atender aos seus requisitos e metas de desempenho. Escolher um SKU de baixo desempenho que é usado em excesso pode levar a tempos de treinamento proibitivamente longos e problemas de desempenho. Os clusters de computação fornecem a capacidade de melhorar o desempenho escalando horizontalmente as cargas de trabalho que dão suporte ao dimensionamento horizontal. Esse método fornece flexibilidade para lidar com cargas de trabalho com diferentes demandas e permite adicionar ou remover máquinas conforme necessário.</t>
+        </is>
+      </c>
       <c r="F550" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15063,17 +15031,21 @@
       </c>
       <c r="L550" t="inlineStr">
         <is>
-          <t>14149f48-97d8-4614-9236-681f5fd42b34</t>
+          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="C551" t="inlineStr">
         <is>
-          <t>Otimização de taxa: compre Instâncias de Máquina Virtual Reservadas do Azure se você tiver uma boa estimativa de uso nos próximos um a três anos.</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
+          <t>Dimensionamento do ambiente de implantação do modelo: use os recursos de dimensionamento automático do ambiente de implantação. Para ambientes de implantação do AKS, use o dimensionador automático de cluster para dimensionar para atender à demanda. Para pontos de extremidade online, dimensione automaticamente por meio da integração com o recurso de dimensionamento automático do Azure Monitor.</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>O dimensionamento automático ajusta o número de instâncias do modelo implantado para corresponder à demanda.</t>
+        </is>
+      </c>
       <c r="F551" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15081,17 +15053,21 @@
       </c>
       <c r="L551" t="inlineStr">
         <is>
-          <t>945e262b-3a0f-4ac9-ac51-69b5500f9ee6</t>
+          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="C552" t="inlineStr">
         <is>
-          <t>Monitorar e otimizar: monitore o uso de recursos, como o uso de CPU e GPU, ao treinar modelos. Se os recursos não estiverem sendo totalmente usados, modifique seu código para usar melhor os recursos ou reduza verticalmente para tamanhos de VM menores ou mais baratos.</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
+          <t>Monitorar o desempenho do modelo: monitore o desempenho de seus modelos implantados.</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Acompanhar o desempenho de modelos em produção alerta você sobre possíveis problemas, como desvio de dados, desvio de previsão, qualidade de dados e desvio de atribuição de recursos. O monitoramento de descompasso de dados ajuda a detectar alterações nos dados de entrada que podem levar a um declínio no desempenho do modelo. O gerenciamento de descompasso de dados ajuda a garantir que seu modelo forneça resultados precisos ao longo do tempo.</t>
+        </is>
+      </c>
       <c r="F552" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15099,19 +15075,19 @@
       </c>
       <c r="L552" t="inlineStr">
         <is>
-          <t>563a3c8d-4168-4f18-a056-efb624734ecf</t>
+          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="C553" t="inlineStr">
         <is>
-          <t>Otimize os recursos de computação: otimize seus recursos de computação com base nos requisitos de sua carga de trabalho. Escolha o SKU que melhor se adapta à sua carga de trabalho:&lt;ul&gt;&lt;li&gt;Uso geral – Proporção balanceada de CPU para memória, boa para todos os fins.&lt;/li&gt;&lt;li&gt;Otimizado para computação – Alta proporção de CPU para memória, boa para cálculos pesados em matemática.&lt;/li&gt;&lt;li&gt;Memória otimizada – Alta memória para CPU, boa para cálculos na memória ou aplicativos de banco de dados.&lt;/li&gt;&lt;li&gt;Série M – Máquinas muito grandes que possuem grandes quantidades de memória e CPU. &lt;/li&gt;&lt;li&gt; GPU – Melhor para modelos com um alto número de variáveis que podem se beneficiar de maior paralelismo e instruções de núcleo especializadas. As aplicações típicas são aprendizado profundo, processamento de imagem ou vídeo, simulações científicas, mineração de dados e aproveitamento de estruturas de desenvolvimento de GPU. Teste com várias famílias e documente os resultados como sua linha de base. À medida que seu modelo e dados evoluem, o recurso de computação mais adequado pode mudar. Monitore os tempos de execução e reavalie conforme necessário.</t>
+          <t>Monitore a infraestrutura: monitore endpoints online e integre-se ao Monitor para rastrear e monitorar as métricas e os logs apropriados. Habilite o Application Insights ao criar implantações online. Monitore a infraestrutura de treinamento e examine o uso de recursos, como memória e uso de CPU ou GPU, ao treinar modelos para garantir que você esteja atendendo aos requisitos de linha de base.</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Selecionar a computação certa é fundamental, pois afeta diretamente o custo de execução de sua carga de trabalho. Escolher uma GPU ou um SKU de alto desempenho sem o uso adequado pode levar a gastos desnecessários, enquanto a escolha de computação subdimensionada pode levar a tempos de treinamento proibitivamente longos e problemas de desempenho.</t>
+          <t>O monitoramento de endpoints oferece visibilidade de métricas como latência de solicitação e solicitações por minuto. Você pode comparar seu desempenho com sua linha de base e usar essas informações para fazer alterações nos recursos de computação de acordo. Métricas de monitoramento, como bytes de rede, podem alertá-lo se você estiver se aproximando dos limites de cota e evitar a limitação. Da mesma forma, monitorar seu ambiente de treinamento fornece as informações para fazer alterações em seu ambiente de treinamento. Use essas informações para decidir aumentar ou diminuir a escala, aumentar ou diminuir com SKUs de desempenho diferente ou escolher entre CPUs ou GPUs.</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -15121,21 +15097,17 @@
       </c>
       <c r="L553" t="inlineStr">
         <is>
-          <t>3d87f935-99a6-4aee-aac2-069994de09ff</t>
+          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="C554" t="inlineStr">
         <is>
-          <t>Otimizar o dimensionamento de computação: configure seus clusters de computação para dimensionamento automático para garantir que você use apenas o que precisa. Para clusters de treinamento, defina o número mínimo de nós como 0 e configure a quantidade de tempo que o nó fica ocioso para um tempo apropriado. Para uma experimentação menos iterativa, reduza o tempo para economizar custos. Para uma experimentação mais iterativa, use um tempo maior para evitar o pagamento de escalonamento vertical ou reduzido após cada alteração.</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>Configure o dimensionamento automático para clusters de computação para reduzir verticalmente quando seu uso for baixo.  Defina o número mínimo de nós como 0 para que os clusters de treinamento sejam reduzidos verticalmente para 0 quando não estiverem em uso.</t>
-        </is>
-      </c>
+          <t>Resiliência: escolha a opção de implantação apropriada de taxa de transferência paga conforme o uso ou provisionada com base em seu caso de uso. Como a capacidade reservada aumenta a resiliência, escolha a taxa de transferência provisionada para soluções de produção. A abordagem de pagamento conforme o uso é ideal para ambientes de desenvolvimento/teste.</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
       <c r="F554" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15143,21 +15115,17 @@
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>d30cfeeb-6c61-4a9d-9a56-c8296cec72cb</t>
+          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="C555" t="inlineStr">
         <is>
-          <t>Definir políticas de encerramento de treinamento: defina políticas de encerramento antecipado para limitar a duração das execuções de treinamento ou encerrá-las antecipadamente.</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>A definição de políticas de encerramento pode ajudá-lo a economizar custos interrompendo as execuções inexecutadas antecipadamente.</t>
-        </is>
-      </c>
+          <t>Redundância: adicione os gateways apropriados na frente de suas implantações do OpenAI do Azure. O gateway deve ter a capacidade de resistir a falhas transitórias, como limitação, e também rotear para várias instâncias do OpenAI do Azure. Considere o roteamento para instâncias em diferentes regiões para criar redundância regional.</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15165,21 +15133,17 @@
       </c>
       <c r="L555" t="inlineStr">
         <is>
-          <t>098a7bee-444c-4351-aeb1-8bd97036299c</t>
+          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="C556" t="inlineStr">
         <is>
-          <t>Usar máquinas virtuais de baixa prioridade para cargas de trabalho em lotes: considere usar máquinas virtuais de baixa prioridade para cargas de trabalho em lotes que não são sensíveis ao tempo e nas quais as interrupções são recuperáveis.</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>As máquinas virtuais de baixa prioridade permitem que uma grande quantidade de poder de computação seja usada por um custo baixo. Eles aproveitam a capacidade excedente no Azure.</t>
-        </is>
-      </c>
+          <t>Resiliência: se você estiver usando a taxa de transferência provisionada, considere também implantar uma instância paga conforme o uso para lidar com o estouro. Você pode rotear chamadas para a instância paga conforme o uso por meio do gateway quando o modelo de taxa de transferência provisionada estiver limitado.</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15187,21 +15151,17 @@
       </c>
       <c r="L556" t="inlineStr">
         <is>
-          <t>41f2dd91-5765-4dfb-9db0-9b3e976b4afb</t>
+          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="C557" t="inlineStr">
         <is>
-          <t>Habilitar o desligamento ocioso para instâncias de computação: habilite o desligamento ocioso para instâncias de computação ou programe um horário de início e término se o tempo de uso for conhecido.</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>Por padrão, as instâncias de computação estão disponíveis para você, acumulando custos. Configurar instâncias de computação para desligar quando ociosas ou configurar um agendamento para elas economiza custos quando não estão em uso.</t>
-        </is>
-      </c>
+          <t>Resiliência: monitore o uso da capacidade para garantir que você não esteja excedendo os limites de taxa de transferência. Revise regularmente o uso da capacidade para obter previsões mais precisas e ajudar a evitar interrupções de serviço devido a restrições de capacidade.</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15209,21 +15169,17 @@
       </c>
       <c r="L557" t="inlineStr">
         <is>
-          <t>e3150ddd-f553-425f-bb91-249a9598e25e</t>
+          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="C558" t="inlineStr">
         <is>
-          <t>Paralelizar cargas de trabalho de treinamento: considere paralelizar cargas de trabalho de treinamento. Teste a execução deles com a ajuda dos componentes paralelos no Machine Learning.</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>Cargas de trabalho paralelas podem ser executadas em várias instâncias menores, potencialmente gerando economia de custos.</t>
-        </is>
-      </c>
+          <t>Resiliência: siga as diretrizes para ajustar com arquivos de dados grandes e importe os dados de um repositório de blobs do Azure. Arquivos grandes, de 100 MB ou mais, podem se tornar instáveis quando carregados por meio de formulários de várias partes porque as solicitações são atômicas e não podem ser repetidas ou retomadas.</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15231,21 +15187,17 @@
       </c>
       <c r="L558" t="inlineStr">
         <is>
-          <t>8b47ec85-0e9e-428b-9290-c590a7f4ab1a</t>
+          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="C559" t="inlineStr">
         <is>
-          <t>Instâncias de VM Reservadas do Azure: compre Instâncias de VM Reservadas do Azure se você tiver uma boa estimativa de uso nos próximos um a três anos. Aproveite as opções de capacidade reservada para serviços quando tiver boas estimativas de uso.</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>Compre Instâncias de VM Reservadas do Azure para pagar antecipadamente pelo uso da máquina virtual e fornecer descontos com preços pagos conforme o uso. O desconto é aplicado automaticamente para o uso da máquina virtual que corresponde à reserva.</t>
-        </is>
-      </c>
+          <t>Recuperação: defina uma estratégia de recuperação que inclua um plano de recuperação para modelos ajustados e para dados de treinamento carregados no Azure OpenAI. Como o Azure OpenAI não tem failover automático, você deve criar uma estratégia que englobe todo o serviço e todas as dependências, como o armazenamento que contém dados de treinamento.</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
       <c r="F559" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15253,17 +15205,21 @@
       </c>
       <c r="L559" t="inlineStr">
         <is>
-          <t>b4470844-d54d-4a1c-980c-37d09e17940d</t>
+          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="C560" t="inlineStr">
         <is>
-          <t>Padrões de desenvolvimento: aproveite os catálogos e registros de modelos do Machine Learning para armazenar, controlar a versão e compartilhar ativos de machine learning.</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
+          <t>Monitorar limites de taxa para pagamento conforme o uso: se você estiver usando a abordagem de pagamento conforme o uso, gerencie os limites de taxa para suas implantações de modelo e monitore o uso de tokens por minuto (TPM) e solicitações por minuto (RPM).</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Essas informações importantes de taxa de transferência fornecem as informações necessárias para garantir que você atribua TPM suficiente de sua cota para atender à demanda por suas implantações. Atribuir cota suficiente evita a limitação de chamadas para seus modelos implantados.</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15271,17 +15227,21 @@
       </c>
       <c r="L560" t="inlineStr">
         <is>
-          <t>4dace40c-2627-4eb1-9d18-4a6c03901283</t>
+          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="C561" t="inlineStr">
         <is>
-          <t>Automatize para eficiência: siga boas práticas de operações de machine learning (MLOps). Quando possível, crie pipelines automatizados de ponta a ponta para processos de preparação, treinamento e pontuação de dados. No desenvolvimento, use scripts em vez de notebooks para modelos de treinamento, pois os scripts são mais fáceis de integrar em pipelines automatizados.</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
+          <t>Monitorar a utilização gerenciada por provisionamento para taxa de transferência provisionada: se você estiver usando o modelo de pagamento de taxa de transferência provisionada, monitore a utilização gerenciada por provisionamento.</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>É importante monitorar a utilização gerenciada por provisionamento para garantir que ela não exceda 100%, para evitar a limitação de chamadas para seus modelos implantados.</t>
+        </is>
+      </c>
       <c r="F561" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15289,17 +15249,21 @@
       </c>
       <c r="L561" t="inlineStr">
         <is>
-          <t>2fe1daf9-b388-4d25-8ff8-39908ada7f27</t>
+          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="C562" t="inlineStr">
         <is>
-          <t>Implante com confiança: implemente a infraestrutura como código (IaC) para workspaces do Machine Learning, clusters de computação, instâncias de computação e outros ambientes de implantação.</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
+          <t>Ajustar filtros de conteúdo: ajuste os filtros de conteúdo para minimizar falsos positivos de filtros excessivamente agressivos.</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Os filtros de conteúdo bloqueiam prompts ou conclusões com base em uma análise de risco opaca. Verifique se os filtros de conteúdo estão ajustados para permitir o uso esperado para sua carga de trabalho.</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15307,14 +15271,14 @@
       </c>
       <c r="L562" t="inlineStr">
         <is>
-          <t>7b5de736-4956-4313-82be-0a0ff07d7ab6</t>
+          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="C563" t="inlineStr">
         <is>
-          <t>Observabilidade: monitore o desempenho de seus modelos implantados, incluindo descompasso de dados.</t>
+          <t>Proteger a confidencialidade: se você carregar dados de treinamento no Azure OpenAI, use chaves gerenciadas pelo cliente para criptografia de dados, implemente uma estratégia de rotação de chaves e exclua dados de treinamento, validação e resultados de treinamento. Se você usar um armazenamento de dados externo para dados de treinamento, siga as práticas recomendadas de segurança para esse armazenamento. Por exemplo, para o Armazenamento de Blobs do Azure, use chaves gerenciadas pelo cliente para criptografia e implemente uma estratégia de rotação de chaves. Use o acesso baseado em identidade gerenciada, implemente um perímetro de rede usando pontos de extremidade privados e habilite logs de acesso.</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
@@ -15325,14 +15289,14 @@
       </c>
       <c r="L563" t="inlineStr">
         <is>
-          <t>f8196404-8f76-4e65-9b32-46d8d777d1d3</t>
+          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="C564" t="inlineStr">
         <is>
-          <t>Observabilidade: se seus modelos forem implantados em pontos de extremidade online, habilite o Application Insights para monitorar pontos de extremidade e implantações online. Monitore a infraestrutura de treinamento para garantir que você esteja atendendo aos seus requisitos básicos.</t>
+          <t>Proteja a confidencialidade: proteja-se contra a exfiltração de dados limitando as URLs de saída que os recursos do OpenAI do Azure podem acessar.</t>
         </is>
       </c>
       <c r="D564" t="inlineStr"/>
@@ -15343,14 +15307,14 @@
       </c>
       <c r="L564" t="inlineStr">
         <is>
-          <t>d212d648-752b-480f-bda5-0d45d0185312</t>
+          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="C565" t="inlineStr">
         <is>
-          <t>Simplicidade: use ambientes selecionados otimizados para Machine Learning, quando disponíveis.</t>
+          <t>Proteger a integridade: implemente controles de acesso para autenticar e autorizar o acesso do usuário ao sistema usando o princípio de privilégios mínimos e usando identidades individuais em vez de chaves.</t>
         </is>
       </c>
       <c r="D565" t="inlineStr"/>
@@ -15361,21 +15325,17 @@
       </c>
       <c r="L565" t="inlineStr">
         <is>
-          <t>afd5b803-c151-4b8d-ae08-63cc8961a378</t>
+          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="C566" t="inlineStr">
         <is>
-          <t>Minimizar instâncias de workspace do Machine Learning: minimize o número de workspaces, quando possível, para reduzir a manutenção.</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>Limitar o número de espaços de trabalho reduz o esforço de manutenção e o custo de operação. Para requisitos, como segurança, talvez você precise de vários workspaces separados. Minimize o número de espaços de trabalho quando possível.</t>
-        </is>
-      </c>
+          <t>Proteja a integridade: implemente a detecção de risco de jailbreak para proteger suas implantações de modelo de linguagem contra ataques de injeção imediata.</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15383,21 +15343,17 @@
       </c>
       <c r="L566" t="inlineStr">
         <is>
-          <t>bb6c4c2f-65f4-4fab-ada7-ebe079bde9cb</t>
+          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="C567" t="inlineStr">
         <is>
-          <t>Aproveite os catálogos e registros de modelos: aproveite os catálogos e registros de modelos do Machine Learning para armazenar, controlar a versão e compartilhar ativos de aprendizado de máquina. Use catálogos de modelos do Machine Learning para ajudá-lo a implementar testes A/B e implantação de modelos.</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>Use registros de modelo de aprendizado de máquina para armazenar e controlar a versão de seus modelos de aprendizado de máquina para acompanhar as alterações e manter a linhagem com o trabalho e os conjuntos de dados usados para treinamento. Com os catálogos de modelos de Machine Learning, suas equipes de ciência de dados podem descobrir, avaliar e ajustar modelos de machine learning básicos pré-treinados. O armazenamento de modelos com versão em registros de modelo do Machine Learning dá suporte a estratégias de implantação, como versões A/B, versões canário e reversões.</t>
-        </is>
-      </c>
+          <t>Proteger a disponibilidade: use controles de segurança para evitar ataques que possam esgotar as cotas de uso do modelo. Você pode configurar controles para isolar o serviço em uma rede. Se o serviço precisar ser acessível pela Internet, considere usar um gateway para bloquear suspeitas de abuso usando roteamento ou limitação.</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15405,19 +15361,19 @@
       </c>
       <c r="L567" t="inlineStr">
         <is>
-          <t>31841d05-3372-4bd4-b8bc-efcaaee1bd88</t>
+          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="C568" t="inlineStr">
         <is>
-          <t>Monitorar o desempenho do modelo: monitore o desempenho de seus modelos implantados e detecte descompassos de dados em conjuntos de dados.</t>
+          <t>Chaves seguras: se sua arquitetura exigir autenticação baseada em chave OpenAI do Azure, armazene essas chaves no Azure Key Vault, não no código do aplicativo.</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>O monitoramento de modelos implantados garante que seus modelos atendam aos requisitos de desempenho. O monitoramento de descompasso de dados ajuda a detectar alterações nos dados de entrada que podem levar a um declínio no desempenho do modelo. O gerenciamento de descompasso de dados ajuda a garantir que seu modelo forneça resultados precisos ao longo do tempo.</t>
+          <t>Separar segredos do código armazenando-os no Key Vault reduz a chance de vazamento de segredos. A separação também facilita o gerenciamento central de segredos, facilitando responsabilidades como a rotação de chaves.</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -15427,19 +15383,19 @@
       </c>
       <c r="L568" t="inlineStr">
         <is>
-          <t>90a72a7e-6fb5-4e02-a159-7a4d907eb098</t>
+          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="C569" t="inlineStr">
         <is>
-          <t>Monitorar a infraestrutura: se seus modelos forem implantados em pontos de extremidade online, habilite o Application Insights para monitorar pontos de extremidade e implantações online. Monitore a infraestrutura de treinamento para garantir que você esteja atendendo aos seus requisitos básicos. Verifique se você está coletando logs de recursos para Machine Learning.</t>
+          <t>Restringir o acesso: desabilite o acesso público ao Azure OpenAI, a menos que sua carga de trabalho exija isso. Crie pontos de extremidade privados se você estiver se conectando de consumidores em uma rede virtual do Azure.</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>O monitoramento de endpoints oferece visibilidade de métricas como latência de solicitação e solicitações por minuto. Você pode comparar seu desempenho com sua linha de base e usar essas informações para fazer alterações nos recursos de computação de acordo. Métricas de monitoramento, como bytes de rede, podem alertá-lo se você estiver se aproximando dos limites de cota e evitar a limitação. Da mesma forma, monitorar seu ambiente de treinamento fornece as informações para fazer alterações em seu ambiente de treinamento. Use essas informações para decidir aumentar ou diminuir a escala, aumentar ou diminuir com SKUs de desempenho diferente ou escolher entre CPUs ou GPUs.</t>
+          <t>Controlar o acesso ao Azure OpenAI ajuda a evitar ataques de usuários não autorizados. O uso de pontos de extremidade privados garante que o tráfego de rede permaneça privado entre o aplicativo e a plataforma.</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -15449,19 +15405,19 @@
       </c>
       <c r="L569" t="inlineStr">
         <is>
-          <t>b1d87076-b253-47ae-8727-97f804e49a3c</t>
+          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="C570" t="inlineStr">
         <is>
-          <t>Preparar ambientes de treinamento de modelo: use ambientes coletados otimizados para Machine Learning, quando disponíveis.</t>
+          <t>ID do Microsoft Entra: use a ID do Microsoft Entra para autenticação e autorize o acesso ao Azure OpenAI usando o RBAC (controle de acesso baseado em função). Desabilite a autenticação local nos Serviços de IA do Azure e defina 'disableLocalAuth' como 'true'. Conceda identidades que executam conclusões ou geração de imagens à função de Usuário OpenAI dos Serviços Cognitivos. Conceda pipelines de automação de modelos e acesso ad hoc à ciência de dados de uma função como Colaborador OpenAI dos Serviços Cognitivos.</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Ambientes coletados são ambientes pré-criados fornecidos pelo Machine Learning que aceleram o tempo de implantação e reduzem a latência de implantação e treinamento. O uso de ambientes coletados melhora as taxas de sucesso de treinamento e implantação e evita compilações de imagem desnecessárias. Ambientes coletados, como o Contêiner do Azure para PyTorch, também podem ser otimizados para treinar modelos grandes no Machine Learning.</t>
+          <t>O uso do Microsoft Entra ID centraliza o componente de gerenciamento de identidade e elimina o uso de chaves de API. O uso do RBAC com a ID do Microsoft Entra garante que os usuários ou grupos tenham exatamente as permissões necessárias para realizar seu trabalho. Esse tipo de controle de acesso refinado não é possível com chaves de API do OpenAI do Azure.</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -15471,17 +15427,21 @@
       </c>
       <c r="L570" t="inlineStr">
         <is>
-          <t>4c6895ce-abd9-4c90-a386-c31bc0681869</t>
+          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="C571" t="inlineStr">
         <is>
-          <t>Metas de desempenho: determine o tempo de treinamento aceitável e a frequência de retreinamento para seu modelo. Definir uma meta clara para o tempo de treinamento, juntamente com o teste, ajuda a determinar os recursos de computação, CPU versus GPU e SKUs de CPU necessários para atingir a meta de tempo de treinamento.</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
+          <t>Usar chaves gerenciadas pelo cliente: use chaves gerenciadas pelo cliente para modelos ajustados e dados de treinamento carregados no Azure OpenAI.</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>O uso de chaves gerenciadas pelo cliente oferece maior flexibilidade para criar, girar, desabilitar e revogar controles de acesso.</t>
+        </is>
+      </c>
       <c r="F571" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15489,17 +15449,21 @@
       </c>
       <c r="L571" t="inlineStr">
         <is>
-          <t>82ffebb1-2e91-46a4-b796-3fa55c4c20e3</t>
+          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="C572" t="inlineStr">
         <is>
-          <t>Metas de desempenho: defina as metas de desempenho aceitáveis para seus modelos implantados, incluindo tempo de resposta, solicitações por segundo, taxa de erro e tempo de atividade. As metas de desempenho atuam como uma referência para a eficiência do modelo implantado. Os destinos podem ajudá-lo a fazer determinações de CPU versus GPU, escolhas de SKU de CPU e requisitos de dimensionamento.</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
+          <t>Proteja-se contra ataques de jailbreak: use o Azure AI Content Safety Studio para detectar riscos de jailbreak.</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Detecte tentativas de jailbreak para identificar e bloquear prompts que tentam ignorar os mecanismos de segurança de suas implantações do OpenAI do Azure.</t>
+        </is>
+      </c>
       <c r="F572" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15507,14 +15471,14 @@
       </c>
       <c r="L572" t="inlineStr">
         <is>
-          <t>5e526216-1b94-4cfe-86ef-bbce971f7f3a</t>
+          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="C573" t="inlineStr">
         <is>
-          <t>Atenda aos requisitos de capacidade: escolha os recursos de computação certos para o treinamento do modelo.</t>
+          <t>Gerenciamento de custos: desenvolva seu modelo de custo, considerando os tamanhos dos prompts. Entender os tamanhos de entrada e resposta do prompt e como o texto se traduz em tokens ajuda a criar um modelo de custo viável.</t>
         </is>
       </c>
       <c r="D573" t="inlineStr"/>
@@ -15525,14 +15489,14 @@
       </c>
       <c r="L573" t="inlineStr">
         <is>
-          <t>2d6ddbe2-2bcc-4629-a316-5d56d74ef68a</t>
+          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="C574" t="inlineStr">
         <is>
-          <t>Atenda aos requisitos de capacidade: escolha os recursos de computação certos para implantações de modelo.</t>
+          <t>Otimização de uso: comece com preços pagos conforme o uso do Azure OpenAI até que o uso do token seja previsível.</t>
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
@@ -15543,14 +15507,14 @@
       </c>
       <c r="L574" t="inlineStr">
         <is>
-          <t>0ab74767-80ac-454e-aab6-b546e38411f8</t>
+          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="C575" t="inlineStr">
         <is>
-          <t>Atenda aos requisitos de capacidade: escolha ambientes de implantação com recursos de dimensionamento automático para adicionar e remover capacidade conforme a demanda flutua.</t>
+          <t>Otimização de taxa: quando o uso do token for suficientemente alto e previsível durante um período de tempo, use o modelo de preços de taxa de transferência provisionada para melhor otimização de custos.</t>
         </is>
       </c>
       <c r="D575" t="inlineStr"/>
@@ -15561,14 +15525,14 @@
       </c>
       <c r="L575" t="inlineStr">
         <is>
-          <t>d47bd862-5302-4ecb-a551-37cb0d15e802</t>
+          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="C576" t="inlineStr">
         <is>
-          <t>Alcance e mantenha o desempenho: monitore continuamente o desempenho de seus modelos implantados, revise os resultados e tome as ações apropriadas.</t>
+          <t>Otimização de uso: considere os preços e os recursos do modelo ao escolher modelos. Comece com modelos menos dispendiosos para tarefas menos complexas, como geração de texto ou tarefas de conclusão. Para tarefas mais complexas, como tradução de idiomas ou compreensão de conteúdo, considere o uso de modelos mais avançados. Considere diferentes recursos de modelo e limites máximos de uso de token ao escolher um modelo apropriado para casos de uso como inserção de texto, geração de imagem ou cenários de transcrição. Ao selecionar cuidadosamente o modelo que melhor se adapta às suas necessidades, você pode otimizar os custos e, ao mesmo tempo, obter o desempenho desejado do aplicativo.</t>
         </is>
       </c>
       <c r="D576" t="inlineStr"/>
@@ -15579,14 +15543,14 @@
       </c>
       <c r="L576" t="inlineStr">
         <is>
-          <t>e10dead3-58c0-40b2-aa9b-39c64a68c555</t>
+          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="C577" t="inlineStr">
         <is>
-          <t>Alcance e mantenha o desempenho: monitore continuamente o desempenho de sua infraestrutura de modelos implantados, analise os resultados e tome as ações apropriadas. Monitore a infraestrutura de treinamento para garantir que você esteja atendendo aos seus requisitos de tempo de treinamento.</t>
+          <t>Otimização de uso: use as restrições de limitação de token oferecidas pelas chamadas de API, como 'max_tokens' e 'n', que indicam o número de conclusões a serem geradas.</t>
         </is>
       </c>
       <c r="D577" t="inlineStr"/>
@@ -15597,21 +15561,17 @@
       </c>
       <c r="L577" t="inlineStr">
         <is>
-          <t>e257de8e-a8ef-4b91-81a3-3d832682b1eb</t>
+          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="C578" t="inlineStr">
         <is>
-          <t>Selecione os serviços de computação apropriados para treinamento de modelo: considere clusters de computação do Machine Learning em instâncias de computação para treinamento de modelo se você precisar de dimensionamento automático. Otimize seus recursos de computação com base nos requisitos de treinamento. Primeiro escolha entre CPUs e GPUs. O padrão é CPUs, mas considere GPUs para cargas de trabalho como aprendizado profundo, processamento de imagem ou vídeo ou grandes quantidades de dados. Em seguida, escolha o SKU de imagem que melhor se adapta à sua carga de trabalho. Use o teste para escolher a opção de computação que otimiza o custo em relação ao tempo de treinamento ao determinar sua linha de base.</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>Selecionar a computação certa é fundamental, pois afeta diretamente o tempo de treinamento. Escolher o SKU e a CPU corretos em vez de GPU garante que o treinamento do modelo possa atender aos seus requisitos e metas de desempenho. Escolher um SKU de baixo desempenho que é usado em excesso pode levar a tempos de treinamento proibitivamente longos e problemas de desempenho. Os clusters de computação fornecem a capacidade de melhorar o desempenho escalando horizontalmente as cargas de trabalho que dão suporte ao dimensionamento horizontal. Esse método fornece flexibilidade para lidar com cargas de trabalho com diferentes demandas e permite adicionar ou remover máquinas conforme necessário.</t>
-        </is>
-      </c>
+          <t>Otimização de uso: maximize os pontos de interrupção de preço do Azure OpenAI, por exemplo, o ajuste fino e os pontos de interrupção do modelo, como geração de imagens. Como o ajuste fino é cobrado por hora, use o tempo que tiver disponível por hora para melhorar os resultados do ajuste fino, evitando passar para o próximo período de cobrança. Da mesma forma, o custo para gerar 100 imagens é o mesmo que o custo de 1 imagem. Maximize os pontos de interrupção de preço a seu favor.</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr"/>
       <c r="F578" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15619,21 +15579,17 @@
       </c>
       <c r="L578" t="inlineStr">
         <is>
-          <t>352a223c-dabd-46da-8752-56a87c6f18b7</t>
+          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="C579" t="inlineStr">
         <is>
-          <t>Dimensionamento do ambiente de implantação do modelo: use os recursos de dimensionamento automático do ambiente de implantação. Para ambientes de implantação do AKS, use o dimensionador automático de cluster para dimensionar para atender à demanda. Para pontos de extremidade online, dimensione automaticamente por meio da integração com o recurso de dimensionamento automático do Azure Monitor.</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>O dimensionamento automático ajusta o número de instâncias do modelo implantado para corresponder à demanda.</t>
-        </is>
-      </c>
+          <t>Otimização de uso: remova modelos ajustados não utilizados quando eles não estiverem mais sendo consumidos para evitar incorrer em uma taxa de hospedagem contínua.</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr"/>
       <c r="F579" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15641,21 +15597,17 @@
       </c>
       <c r="L579" t="inlineStr">
         <is>
-          <t>683ae603-156f-4186-8a82-aa2907fbb9bd</t>
+          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="C580" t="inlineStr">
         <is>
-          <t>Monitorar o desempenho do modelo: monitore o desempenho de seus modelos implantados.</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>Acompanhar o desempenho de modelos em produção alerta você sobre possíveis problemas, como desvio de dados, desvio de previsão, qualidade de dados e desvio de atribuição de recursos. O monitoramento de descompasso de dados ajuda a detectar alterações nos dados de entrada que podem levar a um declínio no desempenho do modelo. O gerenciamento de descompasso de dados ajuda a garantir que seu modelo forneça resultados precisos ao longo do tempo.</t>
-        </is>
-      </c>
+          <t>Ajuste o uso: Otimize a entrada imediata e o comprimento da resposta. Prompts mais longos aumentam os custos consumindo mais tokens. No entanto, os prompts que não têm contexto suficiente não ajudam os modelos a produzir bons resultados. Crie prompts concisos que forneçam contexto suficiente para que o modelo gere uma resposta útil. Certifique-se também de otimizar o limite do comprimento da resposta.</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr"/>
       <c r="F580" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15663,21 +15615,17 @@
       </c>
       <c r="L580" t="inlineStr">
         <is>
-          <t>eccdaab6-7458-4967-9cd4-da6a89e3ce8c</t>
+          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="C581" t="inlineStr">
         <is>
-          <t>Monitore a infraestrutura: monitore endpoints online e integre-se ao Monitor para rastrear e monitorar as métricas e os logs apropriados. Habilite o Application Insights ao criar implantações online. Monitore a infraestrutura de treinamento e examine o uso de recursos, como memória e uso de CPU ou GPU, ao treinar modelos para garantir que você esteja atendendo aos requisitos de linha de base.</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>O monitoramento de endpoints oferece visibilidade de métricas como latência de solicitação e solicitações por minuto. Você pode comparar seu desempenho com sua linha de base e usar essas informações para fazer alterações nos recursos de computação de acordo. Métricas de monitoramento, como bytes de rede, podem alertá-lo se você estiver se aproximando dos limites de cota e evitar a limitação. Da mesma forma, monitorar seu ambiente de treinamento fornece as informações para fazer alterações em seu ambiente de treinamento. Use essas informações para decidir aumentar ou diminuir a escala, aumentar ou diminuir com SKUs de desempenho diferente ou escolher entre CPUs ou GPUs.</t>
-        </is>
-      </c>
+          <t>Eficiência de custos: solicitações em lote sempre que possível para minimizar a sobrecarga por chamada, o que pode reduzir os custos gerais. Certifique-se de otimizar o tamanho do lote.</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr"/>
       <c r="F581" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15685,14 +15633,14 @@
       </c>
       <c r="L581" t="inlineStr">
         <is>
-          <t>76b80c26-8252-416e-aae1-ace03a9403dd</t>
+          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="C582" t="inlineStr">
         <is>
-          <t>Resiliência: escolha a opção de implantação apropriada de taxa de transferência paga conforme o uso ou provisionada com base em seu caso de uso. Como a capacidade reservada aumenta a resiliência, escolha a taxa de transferência provisionada para soluções de produção. A abordagem de pagamento conforme o uso é ideal para ambientes de desenvolvimento/teste.</t>
+          <t>Eficiência de custo: como os modelos têm custos de ajuste fino diferentes, considere esses custos se sua solução exigir ajuste fino.</t>
         </is>
       </c>
       <c r="D582" t="inlineStr"/>
@@ -15703,14 +15651,14 @@
       </c>
       <c r="L582" t="inlineStr">
         <is>
-          <t>154d9075-f8f8-4dc8-b8f4-651d875d5dfe</t>
+          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="C583" t="inlineStr">
         <is>
-          <t>Redundância: adicione os gateways apropriados na frente de suas implantações do OpenAI do Azure. O gateway deve ter a capacidade de resistir a falhas transitórias, como limitação, e também rotear para várias instâncias do OpenAI do Azure. Considere o roteamento para instâncias em diferentes regiões para criar redundância regional.</t>
+          <t>Monitore e otimize: configure um sistema de rastreamento de custos que monitore o uso do modelo. Use essas informações para ajudar a informar as escolhas de modelo e os tamanhos de prompt.</t>
         </is>
       </c>
       <c r="D583" t="inlineStr"/>
@@ -15721,17 +15669,21 @@
       </c>
       <c r="L583" t="inlineStr">
         <is>
-          <t>571ddd3c-601e-46a7-bf80-c52f04a301fb</t>
+          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="C584" t="inlineStr">
         <is>
-          <t>Resiliência: se você estiver usando a taxa de transferência provisionada, considere também implantar uma instância paga conforme o uso para lidar com o estouro. Você pode rotear chamadas para a instância paga conforme o uso por meio do gateway quando o modelo de taxa de transferência provisionada estiver limitado.</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
+          <t>Crie o código do cliente para definir limites: seus clientes personalizados devem usar os recursos de limite da API de conclusões do OpenAI do Azure, como limite máximo no número de tokens por modelo ('max_tokens') ou número de conclusões para geração ('n'). A configuração de limites garante que o servidor não produza mais do que o cliente precisa.</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>O uso de recursos de API para restringir o uso alinha o consumo do serviço com as necessidades do cliente. Isso economiza dinheiro, garantindo que o modelo não gere uma resposta excessivamente longa que consuma mais tokens do que o necessário.</t>
+        </is>
+      </c>
       <c r="F584" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15739,17 +15691,21 @@
       </c>
       <c r="L584" t="inlineStr">
         <is>
-          <t>3861cb87-64b1-4958-b439-5575b8d1fc67</t>
+          <t>afb53b41-825a-4310-b445-bf391792c568</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="C585" t="inlineStr">
         <is>
-          <t>Resiliência: monitore o uso da capacidade para garantir que você não esteja excedendo os limites de taxa de transferência. Revise regularmente o uso da capacidade para obter previsões mais precisas e ajudar a evitar interrupções de serviço devido a restrições de capacidade.</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
+          <t>Monitore o uso pago conforme o uso: se você usar a abordagem paga conforme o uso, monitore o uso do TPM e do RPM. Use essas informações para informar as decisões de projeto de arquitetura, como quais modelos usar e para otimizar os tamanhos dos prompts.</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>O monitoramento contínuo do TPM e do RPM fornece métricas relevantes para otimizar o custo dos modelos do OpenAI do Azure. Você pode acoplar esse monitoramento aos recursos do modelo e aos preços do modelo para otimizar o uso do modelo. Você também pode usar esse monitoramento para otimizar os tamanhos dos prompts.</t>
+        </is>
+      </c>
       <c r="F585" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15757,17 +15713,21 @@
       </c>
       <c r="L585" t="inlineStr">
         <is>
-          <t>7fd57f22-417b-47d5-88c9-ab7a2ceb5599</t>
+          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="C586" t="inlineStr">
         <is>
-          <t>Resiliência: siga as diretrizes para ajustar com arquivos de dados grandes e importe os dados de um repositório de blobs do Azure. Arquivos grandes, de 100 MB ou mais, podem se tornar instáveis quando carregados por meio de formulários de várias partes porque as solicitações são atômicas e não podem ser repetidas ou retomadas.</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
+          <t>Monitorar o uso da taxa de transferência provisionada: se você usar a taxa de transferência provisionada, monitore a utilização gerenciada por provisionamento para garantir que você não esteja subutilizando a taxa de transferência provisionada adquirida.</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>O monitoramento contínuo da utilização gerenciada por provisionamento fornece as informações necessárias para entender se você está subutilizando sua taxa de transferência provisionada.</t>
+        </is>
+      </c>
       <c r="F586" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15775,17 +15735,21 @@
       </c>
       <c r="L586" t="inlineStr">
         <is>
-          <t>950e6010-4345-43e6-a8e9-d8c95e45f818</t>
+          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="C587" t="inlineStr">
         <is>
-          <t>Recuperação: defina uma estratégia de recuperação que inclua um plano de recuperação para modelos ajustados e para dados de treinamento carregados no Azure OpenAI. Como o Azure OpenAI não tem failover automático, você deve criar uma estratégia que englobe todo o serviço e todas as dependências, como o armazenamento que contém dados de treinamento.</t>
-        </is>
-      </c>
-      <c r="D587" t="inlineStr"/>
+          <t>Gerenciamento de custos: use recursos de gerenciamento de custos com o OpenAI para monitorar custos, definir orçamentos para gerenciar custos e criar alertas para notificar as partes interessadas sobre riscos ou anomalias.</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>O monitoramento de custos, a definição de orçamentos e a definição de alertas fornecem à governança os processos de responsabilidade apropriados.</t>
+        </is>
+      </c>
       <c r="F587" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15793,21 +15757,17 @@
       </c>
       <c r="L587" t="inlineStr">
         <is>
-          <t>088c617d-fce0-4fab-b4cd-9f9eb6a96cff</t>
+          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="C588" t="inlineStr">
         <is>
-          <t>Monitorar limites de taxa para pagamento conforme o uso: se você estiver usando a abordagem de pagamento conforme o uso, gerencie os limites de taxa para suas implantações de modelo e monitore o uso de tokens por minuto (TPM) e solicitações por minuto (RPM).</t>
-        </is>
-      </c>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>Essas informações importantes de taxa de transferência fornecem as informações necessárias para garantir que você atribua TPM suficiente de sua cota para atender à demanda por suas implantações. Atribuir cota suficiente evita a limitação de chamadas para seus modelos implantados.</t>
-        </is>
-      </c>
+          <t>Cultura do Azure DevOps: garanta a implantação de instâncias do OpenAI do Azure em seus vários ambientes, como desenvolvimento, teste e produção. Certifique-se de ter ambientes para dar suporte ao aprendizado e à experimentação contínuos durante todo o ciclo de desenvolvimento.</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr"/>
       <c r="F588" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15815,21 +15775,17 @@
       </c>
       <c r="L588" t="inlineStr">
         <is>
-          <t>f109deb2-54f9-4405-a9f0-f90fd0f76adf</t>
+          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="C589" t="inlineStr">
         <is>
-          <t>Monitorar a utilização gerenciada por provisionamento para taxa de transferência provisionada: se você estiver usando o modelo de pagamento de taxa de transferência provisionada, monitore a utilização gerenciada por provisionamento.</t>
-        </is>
-      </c>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>É importante monitorar a utilização gerenciada por provisionamento para garantir que ela não exceda 100%, para evitar a limitação de chamadas para seus modelos implantados.</t>
-        </is>
-      </c>
+          <t>Observabilidade: monitore, agregue e visualize métricas apropriadas.</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr"/>
       <c r="F589" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15837,21 +15793,17 @@
       </c>
       <c r="L589" t="inlineStr">
         <is>
-          <t>ef12f5c3-dbe2-4040-be82-724eebc6f87e</t>
+          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="C590" t="inlineStr">
         <is>
-          <t>Ajustar filtros de conteúdo: ajuste os filtros de conteúdo para minimizar falsos positivos de filtros excessivamente agressivos.</t>
-        </is>
-      </c>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>Os filtros de conteúdo bloqueiam prompts ou conclusões com base em uma análise de risco opaca. Verifique se os filtros de conteúdo estão ajustados para permitir o uso esperado para sua carga de trabalho.</t>
-        </is>
-      </c>
+          <t>Observabilidade: se o diagnóstico do OpenAI do Azure for insuficiente para suas necessidades, considere usar um gateway como o Gerenciamento de API do Azure na frente do OpenAI do Azure para registrar prompts de entrada e respostas de saída, quando permitido. Essas informações podem ajudá-lo a entender a eficácia do modelo para prompts de entrada.</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr"/>
       <c r="F590" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15859,14 +15811,14 @@
       </c>
       <c r="L590" t="inlineStr">
         <is>
-          <t>efcf5f6a-02bb-4cc8-8018-055ebf2e57e0</t>
+          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="C591" t="inlineStr">
         <is>
-          <t>Proteger a confidencialidade: se você carregar dados de treinamento no Azure OpenAI, use chaves gerenciadas pelo cliente para criptografia de dados, implemente uma estratégia de rotação de chaves e exclua dados de treinamento, validação e resultados de treinamento. Se você usar um armazenamento de dados externo para dados de treinamento, siga as práticas recomendadas de segurança para esse armazenamento. Por exemplo, para o Armazenamento de Blobs do Azure, use chaves gerenciadas pelo cliente para criptografia e implemente uma estratégia de rotação de chaves. Use o acesso baseado em identidade gerenciada, implemente um perímetro de rede usando pontos de extremidade privados e habilite logs de acesso.</t>
+          <t>Implante com confiança: use a IaC (infraestrutura como código) para implantar o Azure OpenAI, implantações de modelo e outras infraestruturas necessárias para ajustar modelos.</t>
         </is>
       </c>
       <c r="D591" t="inlineStr"/>
@@ -15877,14 +15829,14 @@
       </c>
       <c r="L591" t="inlineStr">
         <is>
-          <t>a61b826b-9f3b-4f51-8e0e-a32a92865386</t>
+          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="C592" t="inlineStr">
         <is>
-          <t>Proteja a confidencialidade: proteja-se contra a exfiltração de dados limitando as URLs de saída que os recursos do OpenAI do Azure podem acessar.</t>
+          <t>Implante com confiança: siga as práticas de LLMOps (operações de modelo de linguagem grande) para operacionalizar o gerenciamento de seus LLMs OpenAI do Azure, incluindo implantação, ajuste fino e engenharia de prompt.</t>
         </is>
       </c>
       <c r="D592" t="inlineStr"/>
@@ -15895,14 +15847,14 @@
       </c>
       <c r="L592" t="inlineStr">
         <is>
-          <t>9f4bdfff-2c6c-4662-9139-1de51d2dbd20</t>
+          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="C593" t="inlineStr">
         <is>
-          <t>Proteger a integridade: implemente controles de acesso para autenticar e autorizar o acesso do usuário ao sistema usando o princípio de privilégios mínimos e usando identidades individuais em vez de chaves.</t>
+          <t>Automatize para eficiência: se você usar autenticação baseada em chave, implemente uma estratégia automatizada de rotação de chaves.</t>
         </is>
       </c>
       <c r="D593" t="inlineStr"/>
@@ -15913,17 +15865,21 @@
       </c>
       <c r="L593" t="inlineStr">
         <is>
-          <t>b8463e8d-daaa-4209-9944-0fb0587219a8</t>
+          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="C594" t="inlineStr">
         <is>
-          <t>Proteja a integridade: implemente a detecção de risco de jailbreak para proteger suas implantações de modelo de linguagem contra ataques de injeção imediata.</t>
-        </is>
-      </c>
-      <c r="D594" t="inlineStr"/>
+          <t>Habilitar e configurar o Diagnóstico do Azure: habilite e configure o Diagnóstico para o Serviço OpenAI do Azure.</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>O Diagnóstico coleta e analisa métricas e logs, ajudando você a monitorar a disponibilidade, o desempenho e a operação do OpenAI do Azure.</t>
+        </is>
+      </c>
       <c r="F594" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15931,14 +15887,14 @@
       </c>
       <c r="L594" t="inlineStr">
         <is>
-          <t>714249d8-2b60-4920-89a2-eab4a338ac02</t>
+          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="C595" t="inlineStr">
         <is>
-          <t>Proteger a disponibilidade: use controles de segurança para evitar ataques que possam esgotar as cotas de uso do modelo. Você pode configurar controles para isolar o serviço em uma rede. Se o serviço precisar ser acessível pela Internet, considere usar um gateway para bloquear suspeitas de abuso usando roteamento ou limitação.</t>
+          <t>Capacidade: Estimar as demandas de elasticidade dos consumidores. Identifique o tráfego de alta prioridade que requer respostas síncronas e o tráfego de baixa prioridade que pode ser assíncrono e em lote.</t>
         </is>
       </c>
       <c r="D595" t="inlineStr"/>
@@ -15949,21 +15905,17 @@
       </c>
       <c r="L595" t="inlineStr">
         <is>
-          <t>e0383d3b-71f1-4fda-9759-24cfd293abff</t>
+          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="C596" t="inlineStr">
         <is>
-          <t>Chaves seguras: se sua arquitetura exigir autenticação baseada em chave OpenAI do Azure, armazene essas chaves no Azure Key Vault, não no código do aplicativo.</t>
-        </is>
-      </c>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>Separar segredos do código armazenando-os no Key Vault reduz a chance de vazamento de segredos. A separação também facilita o gerenciamento central de segredos, facilitando responsabilidades como a rotação de chaves.</t>
-        </is>
-      </c>
+          <t>Capacidade: Benchmark requisitos de consumo de token com base nas demandas estimadas dos consumidores. Considere usar a ferramenta de benchmarking do Azure OpenAI para ajudá-lo a validar a taxa de transferência se você estiver usando implantações de PTU (unidade de taxa de transferência provisionada).</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr"/>
       <c r="F596" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15971,21 +15923,17 @@
       </c>
       <c r="L596" t="inlineStr">
         <is>
-          <t>c4310e87-1366-4523-b2e1-244e1074fbb0</t>
+          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="C597" t="inlineStr">
         <is>
-          <t>Restringir o acesso: desabilite o acesso público ao Azure OpenAI, a menos que sua carga de trabalho exija isso. Crie pontos de extremidade privados se você estiver se conectando de consumidores em uma rede virtual do Azure.</t>
-        </is>
-      </c>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>Controlar o acesso ao Azure OpenAI ajuda a evitar ataques de usuários não autorizados. O uso de pontos de extremidade privados garante que o tráfego de rede permaneça privado entre o aplicativo e a plataforma.</t>
-        </is>
-      </c>
+          <t>Capacidade: use a taxa de transferência provisionada para cargas de trabalho de produção. A taxa de transferência provisionada oferece memória e computação dedicadas, capacidade reservada e latência máxima consistente para a versão do modelo especificada. A oferta de pagamento conforme o uso pode sofrer de problemas de vizinhos barulhentos, como aumento da latência e limitação em regiões sob uso intenso. Além disso, a abordagem de pagamento conforme o uso não oferece capacidade garantida.</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr"/>
       <c r="F597" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -15993,21 +15941,17 @@
       </c>
       <c r="L597" t="inlineStr">
         <is>
-          <t>4a7a9a07-0229-4175-b784-9a99eded4d54</t>
+          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="C598" t="inlineStr">
         <is>
-          <t>ID do Microsoft Entra: use a ID do Microsoft Entra para autenticação e autorize o acesso ao Azure OpenAI usando o RBAC (controle de acesso baseado em função). Desabilite a autenticação local nos Serviços de IA do Azure e defina 'disableLocalAuth' como 'true'. Conceda identidades que executam conclusões ou geração de imagens à função de Usuário OpenAI dos Serviços Cognitivos. Conceda pipelines de automação de modelos e acesso ad hoc à ciência de dados de uma função como Colaborador OpenAI dos Serviços Cognitivos.</t>
-        </is>
-      </c>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>O uso do Microsoft Entra ID centraliza o componente de gerenciamento de identidade e elimina o uso de chaves de API. O uso do RBAC com a ID do Microsoft Entra garante que os usuários ou grupos tenham exatamente as permissões necessárias para realizar seu trabalho. Esse tipo de controle de acesso refinado não é possível com chaves de API do OpenAI do Azure.</t>
-        </is>
-      </c>
+          <t>Capacidade: adicione os gateways apropriados na frente de suas implantações do OpenAI do Azure. Certifique-se de que o gateway possa rotear para várias instâncias na mesma região ou em regiões diferentes.</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr"/>
       <c r="F598" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16015,21 +15959,17 @@
       </c>
       <c r="L598" t="inlineStr">
         <is>
-          <t>d5892190-2da9-43f4-b1e1-76b38b369643</t>
+          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="C599" t="inlineStr">
         <is>
-          <t>Usar chaves gerenciadas pelo cliente: use chaves gerenciadas pelo cliente para modelos ajustados e dados de treinamento carregados no Azure OpenAI.</t>
-        </is>
-      </c>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>O uso de chaves gerenciadas pelo cliente oferece maior flexibilidade para criar, girar, desabilitar e revogar controles de acesso.</t>
-        </is>
-      </c>
+          <t>Capacidade: aloque PTUs para cobrir o uso previsto e complemente essas PTUs com uma implantação de TPM para lidar com a elasticidade acima desse limite. Essa abordagem combina a taxa de transferência básica com a taxa de transferência elástica para eficiência. Como outras considerações, essa abordagem requer uma implementação de gateway personalizada para rotear solicitações para a implantação do TPM quando os limites da PTU forem atingidos.</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr"/>
       <c r="F599" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16037,21 +15977,17 @@
       </c>
       <c r="L599" t="inlineStr">
         <is>
-          <t>60a4703c-1086-45e1-9384-ebb32ab50696</t>
+          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="C600" t="inlineStr">
         <is>
-          <t>Proteja-se contra ataques de jailbreak: use o Azure AI Content Safety Studio para detectar riscos de jailbreak.</t>
-        </is>
-      </c>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>Detecte tentativas de jailbreak para identificar e bloquear prompts que tentam ignorar os mecanismos de segurança de suas implantações do OpenAI do Azure.</t>
-        </is>
-      </c>
+          <t>Capacidade: envie solicitações de alta prioridade de forma síncrona. Enfileire solicitações de baixa prioridade e envie-as em lotes quando a demanda for baixa.</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr"/>
       <c r="F600" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16059,14 +15995,14 @@
       </c>
       <c r="L600" t="inlineStr">
         <is>
-          <t>ce66eba7-5972-4cb5-8db0-b75c3720b220</t>
+          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="C601" t="inlineStr">
         <is>
-          <t>Gerenciamento de custos: desenvolva seu modelo de custo, considerando os tamanhos dos prompts. Entender os tamanhos de entrada e resposta do prompt e como o texto se traduz em tokens ajuda a criar um modelo de custo viável.</t>
+          <t>Capacidade: selecione um modelo que se alinhe aos seus requisitos de desempenho, considerando a compensação entre velocidade e complexidade de saída. O desempenho do modelo pode variar significativamente com base no tipo de modelo escolhido. Os modelos projetados para velocidade oferecem tempos de resposta mais rápidos, o que pode ser benéfico para aplicativos que exigem interações rápidas. Por outro lado, modelos mais sofisticados podem fornecer resultados de maior qualidade às custas do aumento do tempo de resposta.</t>
         </is>
       </c>
       <c r="D601" t="inlineStr"/>
@@ -16077,14 +16013,14 @@
       </c>
       <c r="L601" t="inlineStr">
         <is>
-          <t>08f7b66c-7679-479b-8e2f-41b3305613dc</t>
+          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="C602" t="inlineStr">
         <is>
-          <t>Otimização de uso: comece com preços pagos conforme o uso do Azure OpenAI até que o uso do token seja previsível.</t>
+          <t>Alcance o desempenho: para aplicativos como chatbots ou interfaces de conversação, considere implementar o streaming. O streaming pode aprimorar o desempenho percebido dos aplicativos OpenAI do Azure, fornecendo respostas aos usuários de maneira incremental, melhorando a experiência do usuário.</t>
         </is>
       </c>
       <c r="D602" t="inlineStr"/>
@@ -16095,14 +16031,14 @@
       </c>
       <c r="L602" t="inlineStr">
         <is>
-          <t>3f66f351-a073-40bb-94d2-326e1ea1a696</t>
+          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="C603" t="inlineStr">
         <is>
-          <t>Otimização de taxa: quando o uso do token for suficientemente alto e previsível durante um período de tempo, use o modelo de preços de taxa de transferência provisionada para melhor otimização de custos.</t>
+          <t>Obter desempenho: determine quando usar o ajuste fino antes de se comprometer com o ajuste fino. Embora existam bons casos de uso para ajuste fino, como quando as informações necessárias para orientar o modelo são muito longas ou complexas para caber no prompt, certifique-se de que as abordagens de engenharia imediata e geração aumentada por recuperação (RAG) não funcionem ou sejam comprovadamente mais caras.</t>
         </is>
       </c>
       <c r="D603" t="inlineStr"/>
@@ -16113,14 +16049,14 @@
       </c>
       <c r="L603" t="inlineStr">
         <is>
-          <t>3802ce2d-2a46-445d-92e2-2a23b2e40705</t>
+          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="C604" t="inlineStr">
         <is>
-          <t>Otimização de uso: considere os preços e os recursos do modelo ao escolher modelos. Comece com modelos menos dispendiosos para tarefas menos complexas, como geração de texto ou tarefas de conclusão. Para tarefas mais complexas, como tradução de idiomas ou compreensão de conteúdo, considere o uso de modelos mais avançados. Considere diferentes recursos de modelo e limites máximos de uso de token ao escolher um modelo apropriado para casos de uso como inserção de texto, geração de imagem ou cenários de transcrição. Ao selecionar cuidadosamente o modelo que melhor se adapta às suas necessidades, você pode otimizar os custos e, ao mesmo tempo, obter o desempenho desejado do aplicativo.</t>
+          <t>Obter desempenho: considere o uso de implantações de modelo dedicadas por grupo de consumidores para fornecer isolamento de uso por modelo que pode ajudar a evitar vizinhos barulhentos entre seus grupos de consumidores.</t>
         </is>
       </c>
       <c r="D604" t="inlineStr"/>
@@ -16131,14 +16067,14 @@
       </c>
       <c r="L604" t="inlineStr">
         <is>
-          <t>2b2303c0-e057-431d-9a02-20a1a0b2b5b9</t>
+          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="C605" t="inlineStr">
         <is>
-          <t>Otimização de uso: use as restrições de limitação de token oferecidas pelas chamadas de API, como 'max_tokens' e 'n', que indicam o número de conclusões a serem geradas.</t>
+          <t>Examine as cotas e os limites de Máquinas Virtuais que podem representar restrições de design. As VMs têm limites e cotas específicos, que variam de acordo com o tipo de VM ou a região. Pode haver restrições de assinatura, como o número de VMs por assinatura ou o número de núcleos por VM. Se outras cargas de trabalho compartilharem sua assinatura, sua capacidade de consumir dados poderá ser reduzida.</t>
         </is>
       </c>
       <c r="D605" t="inlineStr"/>
@@ -16149,14 +16085,14 @@
       </c>
       <c r="L605" t="inlineStr">
         <is>
-          <t>c4104d7c-4a4f-4b8a-9928-558a7c5c61d8</t>
+          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="C606" t="inlineStr">
         <is>
-          <t>Otimização de uso: maximize os pontos de interrupção de preço do Azure OpenAI, por exemplo, o ajuste fino e os pontos de interrupção do modelo, como geração de imagens. Como o ajuste fino é cobrado por hora, use o tempo que tiver disponível por hora para melhorar os resultados do ajuste fino, evitando passar para o próximo período de cobrança. Da mesma forma, o custo para gerar 100 imagens é o mesmo que o custo de 1 imagem. Maximize os pontos de interrupção de preço a seu favor.</t>
+          <t>Realize uma análise do modo de falha para minimizar os pontos de falha analisando as interações da VM com os componentes de rede e armazenamento. Escolha configurações como discos de sistema operacional (SO) efêmeros para localizar o acesso ao disco e evitar saltos de rede. Adicione um balanceador de carga para aprimorar a autopreservação distribuindo o tráfego de rede em várias VMs, o que melhora a disponibilidade e a confiabilidade.</t>
         </is>
       </c>
       <c r="D606" t="inlineStr"/>
@@ -16167,14 +16103,14 @@
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>fb44ea80-44a3-465f-9d50-98b800a90fd6</t>
+          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="C607" t="inlineStr">
         <is>
-          <t>Otimização de uso: remova modelos ajustados não utilizados quando eles não estiverem mais sendo consumidos para evitar incorrer em uma taxa de hospedagem contínua.</t>
+          <t>Calcule seus SLOs (objetivos de nível de serviço) compostos com base nos SLAs (contratos de nível de serviço) do Azure. Verifique se o SLO não é maior do que os SLAs do Azure para evitar expectativas irrealistas e possíveis problemas.</t>
         </is>
       </c>
       <c r="D607" t="inlineStr"/>
@@ -16185,14 +16121,14 @@
       </c>
       <c r="L607" t="inlineStr">
         <is>
-          <t>5f027af8-e168-4b86-8255-4ea6f74cfd87</t>
+          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="C608" t="inlineStr">
         <is>
-          <t>Ajuste o uso: Otimize a entrada imediata e o comprimento da resposta. Prompts mais longos aumentam os custos consumindo mais tokens. No entanto, os prompts que não têm contexto suficiente não ajudam os modelos a produzir bons resultados. Crie prompts concisos que forneçam contexto suficiente para que o modelo gere uma resposta útil. Certifique-se também de otimizar o limite do comprimento da resposta.</t>
+          <t>Crie um isolamento de estado. Os dados da carga de trabalho devem estar em um disco de dados separado para evitar interferência no disco do sistema operacional. Se uma VM falhar, você poderá criar um novo disco do sistema operacional com o mesmo disco de dados, o que garante resiliência e isolamento de falhas. Para obter mais informações, consulte Discos do sistema operacional efêmero.</t>
         </is>
       </c>
       <c r="D608" t="inlineStr"/>
@@ -16203,14 +16139,14 @@
       </c>
       <c r="L608" t="inlineStr">
         <is>
-          <t>23756c91-3a66-4733-98b7-448bc8441f56</t>
+          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="C609" t="inlineStr">
         <is>
-          <t>Eficiência de custos: solicitações em lote sempre que possível para minimizar a sobrecarga por chamada, o que pode reduzir os custos gerais. Certifique-se de otimizar o tamanho do lote.</t>
+          <t>Torne as VMs e suas dependências redundantes entre zonas. Se uma VM falhar, a carga de trabalho deverá continuar a funcionar devido à redundância. Inclua dependências em suas opções de redundância. Por exemplo, use as opções de redundância internas que estão disponíveis com discos. Use IPs com redundância de zona para garantir a disponibilidade dos dados e o alto tempo de atividade.</t>
         </is>
       </c>
       <c r="D609" t="inlineStr"/>
@@ -16221,14 +16157,14 @@
       </c>
       <c r="L609" t="inlineStr">
         <is>
-          <t>160154da-ea9e-4a84-ac35-8a731658c0fd</t>
+          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="C610" t="inlineStr">
         <is>
-          <t>Eficiência de custo: como os modelos têm custos de ajuste fino diferentes, considere esses custos se sua solução exigir ajuste fino.</t>
+          <t>Esteja pronto para escalar verticalmente e horizontalmente para evitar a degradação do nível de serviço e evitar falhas. Os Conjuntos de Dimensionamento de Máquinas Virtuais têm recursos de dimensionamento automático que criam novas instâncias conforme necessário e distribuem a carga entre várias VMs e zonas de disponibilidade.</t>
         </is>
       </c>
       <c r="D610" t="inlineStr"/>
@@ -16239,14 +16175,14 @@
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>739c80f6-0570-435b-ab82-2c8ce9d2deb8</t>
+          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="C611" t="inlineStr">
         <is>
-          <t>Monitore e otimize: configure um sistema de rastreamento de custos que monitore o uso do modelo. Use essas informações para ajudar a informar as escolhas de modelo e os tamanhos de prompt.</t>
+          <t>Explore as opções de recuperação automática. O Azure dá suporte ao monitoramento da degradação de integridade e aos recursos de autocorreção para VMs. Por exemplo, os conjuntos de dimensionamento fornecem reparos automáticos de instância. Em cenários mais avançados, a autocorreção envolve o uso do Azure Site Recovery, ter uma espera passiva para fazer failover ou reimplantar da IaC (infraestrutura como código). O método escolhido deve estar alinhado com os requisitos de negócios e suas operações organizacionais. Para obter mais informações, consulte Interrupções de serviço de VM.</t>
         </is>
       </c>
       <c r="D611" t="inlineStr"/>
@@ -16257,21 +16193,17 @@
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>518fd651-b13e-427e-a0de-f634a014f5b2</t>
+          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="C612" t="inlineStr">
         <is>
-          <t>Crie o código do cliente para definir limites: seus clientes personalizados devem usar os recursos de limite da API de conclusões do OpenAI do Azure, como limite máximo no número de tokens por modelo ('max_tokens') ou número de conclusões para geração ('n'). A configuração de limites garante que o servidor não produza mais do que o cliente precisa.</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>O uso de recursos de API para restringir o uso alinha o consumo do serviço com as necessidades do cliente. Isso economiza dinheiro, garantindo que o modelo não gere uma resposta excessivamente longa que consuma mais tokens do que o necessário.</t>
-        </is>
-      </c>
+          <t>Dimensione corretamente as VMs e suas dependências. Entenda o trabalho esperado da VM para garantir que ela não seja subdimensionada e possa lidar com a carga máxima. Ter capacidade extra para mitigar falhas.</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr"/>
       <c r="F612" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16279,21 +16211,17 @@
       </c>
       <c r="L612" t="inlineStr">
         <is>
-          <t>afb53b41-825a-4310-b445-bf391792c568</t>
+          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="C613" t="inlineStr">
         <is>
-          <t>Monitore o uso pago conforme o uso: se você usar a abordagem paga conforme o uso, monitore o uso do TPM e do RPM. Use essas informações para informar as decisões de projeto de arquitetura, como quais modelos usar e para otimizar os tamanhos dos prompts.</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>O monitoramento contínuo do TPM e do RPM fornece métricas relevantes para otimizar o custo dos modelos do OpenAI do Azure. Você pode acoplar esse monitoramento aos recursos do modelo e aos preços do modelo para otimizar o uso do modelo. Você também pode usar esse monitoramento para otimizar os tamanhos dos prompts.</t>
-        </is>
-      </c>
+          <t>Crie um plano abrangente de recuperação de desastres. A preparação para desastres envolve a criação de um plano abrangente e a decisão sobre uma tecnologia para recuperação.</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr"/>
       <c r="F613" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16301,21 +16229,17 @@
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>e91029f2-ddf4-41f3-8358-f31b5afbe8ba</t>
+          <t>cbe651de-8754-4078-8066-803f94814634</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="C614" t="inlineStr">
         <is>
-          <t>Monitorar o uso da taxa de transferência provisionada: se você usar a taxa de transferência provisionada, monitore a utilização gerenciada por provisionamento para garantir que você não esteja subutilizando a taxa de transferência provisionada adquirida.</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>O monitoramento contínuo da utilização gerenciada por provisionamento fornece as informações necessárias para entender se você está subutilizando sua taxa de transferência provisionada.</t>
-        </is>
-      </c>
+          <t>Execute operações com rigor. As opções de design de confiabilidade devem ser suportadas por operações eficazes com base nos princípios de monitoramento, teste de resiliência em produção, patches e atualizações de VM de aplicativo automatizados e consistência de implantações. Para orientação operacional, consulte Excelência Operacional.</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr"/>
       <c r="F614" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16323,19 +16247,19 @@
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>06a0b95c-b014-4205-8d0c-f074ec393239</t>
+          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="C615" t="inlineStr">
         <is>
-          <t>Gerenciamento de custos: use recursos de gerenciamento de custos com o OpenAI para monitorar custos, definir orçamentos para gerenciar custos e criar alertas para notificar as partes interessadas sobre riscos ou anomalias.</t>
+          <t>(Conjunto de escalas) Use Conjuntos de Dimensionamento de Máquinas Virtuais no modo de orquestração flexível para implantar VMs.</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>O monitoramento de custos, a definição de orçamentos e a definição de alertas fornecem à governança os processos de responsabilidade apropriados.</t>
+          <t>Prepare seu aplicativo para o futuro para dimensionamento e aproveite as garantias de alta disponibilidade que distribuem VMs entre domínios de falha em uma região ou zona de disponibilidade.</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -16345,17 +16269,21 @@
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>f18aba52-5587-43e6-b994-8cab7022167f</t>
+          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="C616" t="inlineStr">
         <is>
-          <t>Cultura do Azure DevOps: garanta a implantação de instâncias do OpenAI do Azure em seus vários ambientes, como desenvolvimento, teste e produção. Certifique-se de ter ambientes para dar suporte ao aprendizado e à experimentação contínuos durante todo o ciclo de desenvolvimento.</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr"/>
+          <t>(VMs) Implemente pontos de extremidade de integridade que emitem status de integridade da instância em VMs.  (Conjunto de escalas) Habilite reparos automáticos no conjunto de dimensionamento especificando a ação de reparo preferencial.  Considere definir um período de tempo durante o qual os reparos automáticos serão pausados se o estado da VM for alterado.</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Mantenha a disponibilidade mesmo que uma instância seja considerada não íntegra. Os reparos automáticos iniciam a recuperação substituindo a instância defeituosa. Definir uma janela de tempo pode evitar operações de reparo inadvertidas ou prematuras.</t>
+        </is>
+      </c>
       <c r="F616" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16363,17 +16291,21 @@
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>3c5f9e8e-c1a9-4c18-ac05-72877f24ff22</t>
+          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="C617" t="inlineStr">
         <is>
-          <t>Observabilidade: monitore, agregue e visualize métricas apropriadas.</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr"/>
+          <t>(Conjunto de escalas) Habilite o provisionamento excessivo em conjuntos de dimensionamento.</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>O provisionamento excessivo reduz os tempos de implantação e tem um custo-benefício porque as VMs extras não são cobradas.</t>
+        </is>
+      </c>
       <c r="F617" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16381,17 +16313,21 @@
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>56e72e7c-32bb-414b-bf04-d2883871aacb</t>
+          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="C618" t="inlineStr">
         <is>
-          <t>Observabilidade: se o diagnóstico do OpenAI do Azure for insuficiente para suas necessidades, considere usar um gateway como o Gerenciamento de API do Azure na frente do OpenAI do Azure para registrar prompts de entrada e respostas de saída, quando permitido. Essas informações podem ajudá-lo a entender a eficácia do modelo para prompts de entrada.</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr"/>
+          <t>(Conjunto de escalas) Permitir que a orquestração flexível distribua as instâncias de VM pelo maior número possível de domínios de falha.</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Essa opção isola os domínios de falha. Durante os períodos de manutenção, quando um domínio de falha é atualizado, as instâncias de VM ficam disponíveis nos outros domínios de falha.</t>
+        </is>
+      </c>
       <c r="F618" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16399,17 +16335,21 @@
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>63aedcb9-e01e-4df3-b9a6-13c13d6971d4</t>
+          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="C619" t="inlineStr">
         <is>
-          <t>Implante com confiança: use a IaC (infraestrutura como código) para implantar o Azure OpenAI, implantações de modelo e outras infraestruturas necessárias para ajustar modelos.</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr"/>
+          <t>(Conjunto de escalas) Implante em zonas de disponibilidade em conjuntos de dimensionamento. Configure pelo menos duas instâncias em cada zona. O balanceamento de zona distribui igualmente as instâncias entre as zonas.</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>As instâncias de VM são provisionadas em locais fisicamente separados em cada região do Azure que são tolerantes a falhas locais.  Lembre-se de que, dependendo da disponibilidade de recursos, pode haver um número ímpar de instâncias entre as zonas. O balanceamento de zona oferece suporte à disponibilidade, certificando-se de que, se uma zona estiver inativa, as outras zonas tenham instâncias suficientes.  Duas instâncias em cada zona fornecem um buffer durante as atualizações.</t>
+        </is>
+      </c>
       <c r="F619" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16417,17 +16357,21 @@
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>fe7a8e0a-b53a-48f0-a204-4e1e7e20ea4b</t>
+          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="C620" t="inlineStr">
         <is>
-          <t>Implante com confiança: siga as práticas de LLMOps (operações de modelo de linguagem grande) para operacionalizar o gerenciamento de seus LLMs OpenAI do Azure, incluindo implantação, ajuste fino e engenharia de prompt.</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr"/>
+          <t>(VMs) Aproveite o recurso de reservas de capacidade.</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>A capacidade é reservada para seu uso e está disponível dentro do escopo dos SLAs aplicáveis. Você pode excluir reservas de capacidade quando não precisar mais delas e a cobrança for baseada no consumo.</t>
+        </is>
+      </c>
       <c r="F620" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16435,14 +16379,14 @@
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>3dffb456-4675-4acb-b797-a5bf591e003a</t>
+          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="C621" t="inlineStr">
         <is>
-          <t>Automatize para eficiência: se você usar autenticação baseada em chave, implemente uma estratégia automatizada de rotação de chaves.</t>
+          <t>Examine as linhas de base de segurança para VMs do Linux e do Windows e Conjuntos de Dimensionamento de Máquinas Virtuais.</t>
         </is>
       </c>
       <c r="D621" t="inlineStr"/>
@@ -16453,21 +16397,17 @@
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>4c82d2b3-c083-4a0e-9cd2-92d2b00b4c96</t>
+          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="C622" t="inlineStr">
         <is>
-          <t>Habilitar e configurar o Diagnóstico do Azure: habilite e configure o Diagnóstico para o Serviço OpenAI do Azure.</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>O Diagnóstico coleta e analisa métricas e logs, ajudando você a monitorar a disponibilidade, o desempenho e a operação do OpenAI do Azure.</t>
-        </is>
-      </c>
+          <t>Garanta patches e atualizações de segurança oportunos e automatizados. Certifique-se de que as atualizações sejam distribuídas e validadas automaticamente usando um processo bem definido. Use uma solução como a Automação do Azure para gerenciar atualizações do sistema operacional e manter a conformidade de segurança fazendo atualizações críticas.</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr"/>
       <c r="F622" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16475,14 +16415,14 @@
       </c>
       <c r="L622" t="inlineStr">
         <is>
-          <t>ff3d2610-e8e8-4a78-aba5-556758a2798c</t>
+          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="C623" t="inlineStr">
         <is>
-          <t>Capacidade: Estimar as demandas de elasticidade dos consumidores. Identifique o tráfego de alta prioridade que requer respostas síncronas e o tráfego de baixa prioridade que pode ser assíncrono e em lote.</t>
+          <t>Identifique as VMs que mantêm o estado. Verifique se os dados são classificados de acordo com os rótulos de confidencialidade fornecidos pela sua organização. Proteja os dados usando controles de segurança, como níveis apropriados de criptografia em repouso e em trânsito. Se você tiver requisitos de alta sensibilidade, considere usar controles de alta segurança, como criptografia dupla e computação confidencial do Azure para proteger os dados em uso.</t>
         </is>
       </c>
       <c r="D623" t="inlineStr"/>
@@ -16493,14 +16433,14 @@
       </c>
       <c r="L623" t="inlineStr">
         <is>
-          <t>63dbbc6a-f840-4893-979c-2afcea82bf5f</t>
+          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="C624" t="inlineStr">
         <is>
-          <t>Capacidade: Benchmark requisitos de consumo de token com base nas demandas estimadas dos consumidores. Considere usar a ferramenta de benchmarking do Azure OpenAI para ajudá-lo a validar a taxa de transferência se você estiver usando implantações de PTU (unidade de taxa de transferência provisionada).</t>
+          <t>Forneça segmentação para as VMs e conjuntos de dimensionamento definindo limites de rede e controles de acesso. Coloque as VMs em grupos de recursos que compartilham o mesmo ciclo de vida.</t>
         </is>
       </c>
       <c r="D624" t="inlineStr"/>
@@ -16511,14 +16451,14 @@
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>14677a1d-0b65-455a-997b-1490c397fbc8</t>
+          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="C625" t="inlineStr">
         <is>
-          <t>Capacidade: use a taxa de transferência provisionada para cargas de trabalho de produção. A taxa de transferência provisionada oferece memória e computação dedicadas, capacidade reservada e latência máxima consistente para a versão do modelo especificada. A oferta de pagamento conforme o uso pode sofrer de problemas de vizinhos barulhentos, como aumento da latência e limitação em regiões sob uso intenso. Além disso, a abordagem de pagamento conforme o uso não oferece capacidade garantida.</t>
+          <t>Aplique controles de acesso às identidades que tentam acessar as VMs e também às VMs que alcançam outros recursos. Use a ID do Microsoft Entra para necessidades de autenticação e autorização. Coloque senhas fortes, autenticação multifator e RBAC (controle de acesso baseado em função) em vigor para suas VMs e suas dependências, como segredos, para permitir que as identidades permitidas executem apenas as operações esperadas de suas funções.</t>
         </is>
       </c>
       <c r="D625" t="inlineStr"/>
@@ -16529,14 +16469,14 @@
       </c>
       <c r="L625" t="inlineStr">
         <is>
-          <t>59c8767d-1b78-4016-92d5-ebd83032fafa</t>
+          <t>becd6031-a256-4186-995e-75817fc7783c</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="C626" t="inlineStr">
         <is>
-          <t>Capacidade: adicione os gateways apropriados na frente de suas implantações do OpenAI do Azure. Certifique-se de que o gateway possa rotear para várias instâncias na mesma região ou em regiões diferentes.</t>
+          <t>Use controles de rede para restringir o tráfego de entrada e saída. Isole VMs e conjuntos de dimensionamento na Rede Virtual do Azure e defina grupos de segurança de rede para filtrar o tráfego. Proteja-se contra ataques distribuídos de negação de serviço (DDoS). Use balanceadores de carga e regras de firewall para proteger contra tráfego mal-intencionado e ataques de exfiltração de dados.</t>
         </is>
       </c>
       <c r="D626" t="inlineStr"/>
@@ -16547,14 +16487,14 @@
       </c>
       <c r="L626" t="inlineStr">
         <is>
-          <t>a318b299-9d54-4dfc-8f20-b00ceed43ed0</t>
+          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="C627" t="inlineStr">
         <is>
-          <t>Capacidade: aloque PTUs para cobrir o uso previsto e complemente essas PTUs com uma implantação de TPM para lidar com a elasticidade acima desse limite. Essa abordagem combina a taxa de transferência básica com a taxa de transferência elástica para eficiência. Como outras considerações, essa abordagem requer uma implementação de gateway personalizada para rotear solicitações para a implantação do TPM quando os limites da PTU forem atingidos.</t>
+          <t>Reduza a superfície de ataque protegendo as imagens do sistema operacional e removendo componentes não utilizados. Use imagens menores e remova binários que não são necessários para executar a carga de trabalho. Aperte as configurações da VM removendo recursos, como contas e portas padrão, que você não precisa.</t>
         </is>
       </c>
       <c r="D627" t="inlineStr"/>
@@ -16565,14 +16505,14 @@
       </c>
       <c r="L627" t="inlineStr">
         <is>
-          <t>ceb21879-94da-485e-a24b-b30180fb566c</t>
+          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="C628" t="inlineStr">
         <is>
-          <t>Capacidade: envie solicitações de alta prioridade de forma síncrona. Enfileire solicitações de baixa prioridade e envie-as em lotes quando a demanda for baixa.</t>
+          <t>Proteja segredos, como os certificados necessários para proteger os dados em trânsito. Considere usar a extensão do Azure Key Vault para Windows ou Linux que atualiza automaticamente os certificados armazenados em um cofre de chaves. Quando detecta uma alteração nos certificados, a extensão recupera e instala os certificados correspondentes.</t>
         </is>
       </c>
       <c r="D628" t="inlineStr"/>
@@ -16583,14 +16523,14 @@
       </c>
       <c r="L628" t="inlineStr">
         <is>
-          <t>dd313c03-7429-4cb1-84e9-d982664c2dfc</t>
+          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="C629" t="inlineStr">
         <is>
-          <t>Capacidade: selecione um modelo que se alinhe aos seus requisitos de desempenho, considerando a compensação entre velocidade e complexidade de saída. O desempenho do modelo pode variar significativamente com base no tipo de modelo escolhido. Os modelos projetados para velocidade oferecem tempos de resposta mais rápidos, o que pode ser benéfico para aplicativos que exigem interações rápidas. Por outro lado, modelos mais sofisticados podem fornecer resultados de maior qualidade às custas do aumento do tempo de resposta.</t>
+          <t>Detecção de ameaças. Monitore VMs em busca de ameaças e configurações incorretas. Use o Defender para Servidores para capturar alterações de VM e sistema operacional e manter uma trilha de auditoria de acesso, novas contas e alterações nas permissões.</t>
         </is>
       </c>
       <c r="D629" t="inlineStr"/>
@@ -16601,14 +16541,14 @@
       </c>
       <c r="L629" t="inlineStr">
         <is>
-          <t>cdf82e76-ee07-47e6-9985-6b1c0a39dd42</t>
+          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="C630" t="inlineStr">
         <is>
-          <t>Alcance o desempenho: para aplicativos como chatbots ou interfaces de conversação, considere implementar o streaming. O streaming pode aprimorar o desempenho percebido dos aplicativos OpenAI do Azure, fornecendo respostas aos usuários de maneira incremental, melhorando a experiência do usuário.</t>
+          <t>Prevenção de ameaças. Proteja-se contra ataques de malware e agentes mal-intencionados implementando controles de segurança como firewalls, software antivírus e sistemas de detecção de intrusão. Determine se um TEE (Ambiente de Execução Confiável) é necessário.</t>
         </is>
       </c>
       <c r="D630" t="inlineStr"/>
@@ -16619,17 +16559,21 @@
       </c>
       <c r="L630" t="inlineStr">
         <is>
-          <t>9aa6da24-6a00-4381-9da6-66c9d5cbf41f</t>
+          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="C631" t="inlineStr">
         <is>
-          <t>Obter desempenho: determine quando usar o ajuste fino antes de se comprometer com o ajuste fino. Embora existam bons casos de uso para ajuste fino, como quando as informações necessárias para orientar o modelo são muito longas ou complexas para caber no prompt, certifique-se de que as abordagens de engenharia imediata e geração aumentada por recuperação (RAG) não funcionem ou sejam comprovadamente mais caras.</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr"/>
+          <t>(Conjunto de escalas) Atribua uma identidade gerenciada a conjuntos de dimensionamento. Todas as VMs no conjunto de dimensionamento obtêm a mesma identidade por meio do perfil de VM especificado.  (VMs) Você também pode atribuir uma identidade gerenciada a VMs individuais ao criá-las e, em seguida, adicioná-la a um conjunto de dimensionamento, se necessário.</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Quando as VMs se comunicam com outros recursos, elas cruzam um limite de confiança. Os conjuntos de dimensionamento e as VMs devem autenticar sua identidade antes que a comunicação seja permitida. A ID do Microsoft Entra lida com essa autenticação usando identidades gerenciadas.</t>
+        </is>
+      </c>
       <c r="F631" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16637,17 +16581,21 @@
       </c>
       <c r="L631" t="inlineStr">
         <is>
-          <t>456cbf54-9c2f-4c6e-9739-eca408fa6baf</t>
+          <t>21e2209a-6217-464b-9886-1914124b0721</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="C632" t="inlineStr">
         <is>
-          <t>Obter desempenho: considere o uso de implantações de modelo dedicadas por grupo de consumidores para fornecer isolamento de uso por modelo que pode ajudar a evitar vizinhos barulhentos entre seus grupos de consumidores.</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr"/>
+          <t>(Conjunto de escalas) Escolha SKUs de VM com recursos de segurança. Por exemplo, alguns SKUs dão suporte à criptografia do BitLocker e a computação confidencial fornece criptografia de dados em uso.  Revise os recursos para entender as limitações.</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Os recursos fornecidos pelo Azure são baseados em sinais capturados em muitos locatários e podem proteger os recursos melhor do que os controles personalizados. Você também pode usar políticas para impor esses controles.</t>
+        </is>
+      </c>
       <c r="F632" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16655,17 +16603,21 @@
       </c>
       <c r="L632" t="inlineStr">
         <is>
-          <t>2dc38e31-8e03-40f4-842d-58ac317c5106</t>
+          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="C633" t="inlineStr">
         <is>
-          <t>Examine as cotas e os limites de Máquinas Virtuais que podem representar restrições de design. As VMs têm limites e cotas específicos, que variam de acordo com o tipo de VM ou a região. Pode haver restrições de assinatura, como o número de VMs por assinatura ou o número de núcleos por VM. Se outras cargas de trabalho compartilharem sua assinatura, sua capacidade de consumir dados poderá ser reduzida.</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Aplique tags recomendadas pela organização nos recursos provisionados.</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>A marcação é uma maneira comum de segmentar e organizar recursos e pode ser crucial durante o gerenciamento de incidentes. Para obter mais informações, consulte Finalidade de nomear e marcar.</t>
+        </is>
+      </c>
       <c r="F633" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16673,17 +16625,21 @@
       </c>
       <c r="L633" t="inlineStr">
         <is>
-          <t>999ecfef-c272-4cd8-8bd0-9cd5335fb695</t>
+          <t>944802d9-671c-479f-b973-fd6111a18486</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="C634" t="inlineStr">
         <is>
-          <t>Realize uma análise do modo de falha para minimizar os pontos de falha analisando as interações da VM com os componentes de rede e armazenamento. Escolha configurações como discos de sistema operacional (SO) efêmeros para localizar o acesso ao disco e evitar saltos de rede. Adicione um balanceador de carga para aprimorar a autopreservação distribuindo o tráfego de rede em várias VMs, o que melhora a disponibilidade e a confiabilidade.</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Defina um perfil de segurança com os recursos de segurança que você deseja habilitar na configuração da VM.  Por exemplo, quando você especifica a criptografia no host no perfil, os dados armazenados no host da VM são criptografados em repouso e os fluxos são criptografados para o serviço de armazenamento.</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Os recursos no perfil de segurança são habilitados automaticamente quando a VM é criada.  Para obter mais informações, consulte Linha de base de segurança do Azure para Conjuntos de Dimensionamento de Máquinas Virtuais.</t>
+        </is>
+      </c>
       <c r="F634" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16691,17 +16647,21 @@
       </c>
       <c r="L634" t="inlineStr">
         <is>
-          <t>bf605fe8-6171-4c01-8290-d6c79a21cf10</t>
+          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="C635" t="inlineStr">
         <is>
-          <t>Calcule seus SLOs (objetivos de nível de serviço) compostos com base nos SLAs (contratos de nível de serviço) do Azure. Verifique se o SLO não é maior do que os SLAs do Azure para evitar expectativas irrealistas e possíveis problemas.</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr"/>
+          <t>(VMs) Escolha opções de rede segura para o perfil de rede da sua VM.  Não associe diretamente endereços IP públicos às suas VMs e não habilite o encaminhamento de IP.  Verifique se todos os adaptadores de rede virtual têm um grupo de segurança de rede associado.</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Você pode definir controles de segmentação no perfil de rede.  Os invasores verificam endereços IP públicos, o que torna as VMs vulneráveis a ameaças.</t>
+        </is>
+      </c>
       <c r="F635" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16709,17 +16669,21 @@
       </c>
       <c r="L635" t="inlineStr">
         <is>
-          <t>4cd18dd0-57e4-4fc9-a8ad-74c3333b6d8b</t>
+          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="C636" t="inlineStr">
         <is>
-          <t>Crie um isolamento de estado. Os dados da carga de trabalho devem estar em um disco de dados separado para evitar interferência no disco do sistema operacional. Se uma VM falhar, você poderá criar um novo disco do sistema operacional com o mesmo disco de dados, o que garante resiliência e isolamento de falhas. Para obter mais informações, consulte Discos do sistema operacional efêmero.</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr"/>
+          <t>(VMs) Escolha opções de armazenamento seguro para o perfil de armazenamento da VM.  Habilite a criptografia de disco e a criptografia de dados em repouso por padrão. Desabilite o acesso à rede pública aos discos da VM.</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Desabilitar o acesso à rede pública ajuda a impedir o acesso não autorizado aos seus dados e recursos.</t>
+        </is>
+      </c>
       <c r="F636" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16727,17 +16691,21 @@
       </c>
       <c r="L636" t="inlineStr">
         <is>
-          <t>90e0bce0-bc44-42ba-be28-2f3dde2f4b37</t>
+          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="C637" t="inlineStr">
         <is>
-          <t>Torne as VMs e suas dependências redundantes entre zonas. Se uma VM falhar, a carga de trabalho deverá continuar a funcionar devido à redundância. Inclua dependências em suas opções de redundância. Por exemplo, use as opções de redundância internas que estão disponíveis com discos. Use IPs com redundância de zona para garantir a disponibilidade dos dados e o alto tempo de atividade.</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Inclua extensões em suas VMs que protegem contra ameaças.  Por exemplo, - Extensão do Key Vault para Windows e Linux - Autenticação de ID do Microsoft Entra - Microsoft Antimalware para Serviços de Nuvem e Máquinas Virtuais do Azure - Extensão do Azure Disk Encryption para Windows e Linux.</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>As extensões são usadas para inicializar as VMs com o software certo que protege o acesso de e para as VMs.  As extensões fornecidas pela Microsoft são atualizadas com frequência para acompanhar os padrões de segurança em evolução.</t>
+        </is>
+      </c>
       <c r="F637" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16745,14 +16713,14 @@
       </c>
       <c r="L637" t="inlineStr">
         <is>
-          <t>6d76e7b9-52d3-4878-83ab-2a08df23c8f6</t>
+          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="C638" t="inlineStr">
         <is>
-          <t>Esteja pronto para escalar verticalmente e horizontalmente para evitar a degradação do nível de serviço e evitar falhas. Os Conjuntos de Dimensionamento de Máquinas Virtuais têm recursos de dimensionamento automático que criam novas instâncias conforme necessário e distribuem a carga entre várias VMs e zonas de disponibilidade.</t>
+          <t>Estime custos realistas. Use a calculadora de preços para estimar os custos de suas VMs. Identifique a melhor VM para sua carga de trabalho usando o seletor de VM. Para obter mais informações, consulte Preços do Linux e do Windows.</t>
         </is>
       </c>
       <c r="D638" t="inlineStr"/>
@@ -16763,14 +16731,14 @@
       </c>
       <c r="L638" t="inlineStr">
         <is>
-          <t>56d104f5-469e-4ead-bf17-7c81c746dabe</t>
+          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="C639" t="inlineStr">
         <is>
-          <t>Explore as opções de recuperação automática. O Azure dá suporte ao monitoramento da degradação de integridade e aos recursos de autocorreção para VMs. Por exemplo, os conjuntos de dimensionamento fornecem reparos automáticos de instância. Em cenários mais avançados, a autocorreção envolve o uso do Azure Site Recovery, ter uma espera passiva para fazer failover ou reimplantar da IaC (infraestrutura como código). O método escolhido deve estar alinhado com os requisitos de negócios e suas operações organizacionais. Para obter mais informações, consulte Interrupções de serviço de VM.</t>
+          <t>Implemente proteções de custos. Use políticas de governança para restringir tipos de recursos, configurações e locais. Use o RBAC para bloquear ações que podem levar a gastos excessivos.</t>
         </is>
       </c>
       <c r="D639" t="inlineStr"/>
@@ -16781,14 +16749,14 @@
       </c>
       <c r="L639" t="inlineStr">
         <is>
-          <t>3395416e-27c6-4ded-941a-de4e562c5c00</t>
+          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="C640" t="inlineStr">
         <is>
-          <t>Dimensione corretamente as VMs e suas dependências. Entenda o trabalho esperado da VM para garantir que ela não seja subdimensionada e possa lidar com a carga máxima. Ter capacidade extra para mitigar falhas.</t>
+          <t>Escolha os recursos certos. Sua seleção de tamanhos de plano de VM e SKUs afeta diretamente o custo geral. Escolha VMs com base nas características da carga de trabalho. A carga de trabalho é intensiva em CPU ou executa processos interruptíveis? Cada SKU tem opções de disco associadas que afetam o custo geral.</t>
         </is>
       </c>
       <c r="D640" t="inlineStr"/>
@@ -16799,14 +16767,14 @@
       </c>
       <c r="L640" t="inlineStr">
         <is>
-          <t>3d633098-6fc7-4752-907c-5a02d53ffba2</t>
+          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="C641" t="inlineStr">
         <is>
-          <t>Crie um plano abrangente de recuperação de desastres. A preparação para desastres envolve a criação de um plano abrangente e a decisão sobre uma tecnologia para recuperação.</t>
+          <t>Escolha os recursos certos para recursos dependentes. Economize nos custos de armazenamento de backup para a camada padrão do cofre usando o armazenamento do Backup do Azure com capacidade reservada. Ele oferece um desconto quando você se compromete com uma reserva de um ou três anos.</t>
         </is>
       </c>
       <c r="D641" t="inlineStr"/>
@@ -16817,14 +16785,14 @@
       </c>
       <c r="L641" t="inlineStr">
         <is>
-          <t>cbe651de-8754-4078-8066-803f94814634</t>
+          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="C642" t="inlineStr">
         <is>
-          <t>Execute operações com rigor. As opções de design de confiabilidade devem ser suportadas por operações eficazes com base nos princípios de monitoramento, teste de resiliência em produção, patches e atualizações de VM de aplicativo automatizados e consistência de implantações. Para orientação operacional, consulte Excelência Operacional.</t>
+          <t>Escolha o modelo de faturamento certo. Avalie se os modelos baseados em compromisso para computação otimizam os custos com base nos requisitos de negócios da carga de trabalho. Considere estas opções do Azure:</t>
         </is>
       </c>
       <c r="D642" t="inlineStr"/>
@@ -16835,21 +16803,17 @@
       </c>
       <c r="L642" t="inlineStr">
         <is>
-          <t>6bbb44ad-f6ed-4990-b519-a56e4d995170</t>
+          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="C643" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Use Conjuntos de Dimensionamento de Máquinas Virtuais no modo de orquestração flexível para implantar VMs.</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>Prepare seu aplicativo para o futuro para dimensionamento e aproveite as garantias de alta disponibilidade que distribuem VMs entre domínios de falha em uma região ou zona de disponibilidade.</t>
-        </is>
-      </c>
+          <t>Monitore o uso. Monitore continuamente os padrões de uso e detecte VMs não utilizadas ou subutilizadas. Para essas instâncias, desligue as instâncias de VM quando elas não estiverem em uso. O monitoramento é uma abordagem fundamental da Excelência Operacional. Para obter mais informações, consulte as recomendações em Excelência Operacional.</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16857,21 +16821,17 @@
       </c>
       <c r="L643" t="inlineStr">
         <is>
-          <t>bb45d3f7-dae7-4eb6-a823-76737e6d0d88</t>
+          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="C644" t="inlineStr">
         <is>
-          <t>(VMs) Implemente pontos de extremidade de integridade que emitem status de integridade da instância em VMs.  (Conjunto de escalas) Habilite reparos automáticos no conjunto de dimensionamento especificando a ação de reparo preferencial.  Considere definir um período de tempo durante o qual os reparos automáticos serão pausados se o estado da VM for alterado.</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>Mantenha a disponibilidade mesmo que uma instância seja considerada não íntegra. Os reparos automáticos iniciam a recuperação substituindo a instância defeituosa. Definir uma janela de tempo pode evitar operações de reparo inadvertidas ou prematuras.</t>
-        </is>
-      </c>
+          <t>Procure maneiras de otimizar. Algumas estratégias incluem escolher a abordagem mais econômica entre aumentar os recursos em um sistema existente, ou escalar verticalmente, e adicionar mais instâncias desse sistema, ou escalar horizontalmente. Você pode descarregar a demanda distribuindo-a para outros recursos ou pode reduzir a demanda implementando filas de prioridade, descarregamento de gateway, buffer e limitação de taxa. Para obter mais informações, consulte as recomendações em Eficiência de desempenho.</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16879,19 +16839,19 @@
       </c>
       <c r="L644" t="inlineStr">
         <is>
-          <t>29912435-4c36-465e-91e2-6c8fcb42b33f</t>
+          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="C645" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Habilite o provisionamento excessivo em conjuntos de dimensionamento.</t>
+          <t>(VMs, conjunto de dimensionamento) Escolha o tamanho e o SKU do plano de VM corretos. Identifique os melhores tamanhos de VM para sua carga de trabalho.  Use o seletor de VM para identificar a melhor VM para sua carga de trabalho. Consulte os preços do Windows e do Linux.  Para cargas de trabalho como trabalhos de processamento em lotes altamente paralelos que podem tolerar algumas interrupções, considere usar Máquinas Virtuais Spot do Azure. As máquinas virtuais spot são boas para experimentar, desenvolver e testar soluções em grande escala.</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>O provisionamento excessivo reduz os tempos de implantação e tem um custo-benefício porque as VMs extras não são cobradas.</t>
+          <t>Os SKUs são precificados de acordo com os recursos que oferecem. Se você não precisar de recursos avançados, não gaste demais em SKUs.  As máquinas virtuais spot aproveitam a capacidade excedente no Azure a um custo menor.</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -16901,19 +16861,19 @@
       </c>
       <c r="L645" t="inlineStr">
         <is>
-          <t>71982e91-2b16-4f49-b91e-7c52a6e0042a</t>
+          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="C646" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Permitir que a orquestração flexível distribua as instâncias de VM pelo maior número possível de domínios de falha.</t>
+          <t>(VMs, conjunto de dimensionamento) Avalie as opções de disco associadas aos SKUs da VM.  Determine suas necessidades de desempenho, tendo em mente suas necessidades de capacidade de armazenamento e levando em conta os padrões flutuantes de carga de trabalho.  Por exemplo, o disco SSD Premium v2 do Azure permite que você ajuste granularmente seu desempenho, independentemente do tamanho do disco.</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>Essa opção isola os domínios de falha. Durante os períodos de manutenção, quando um domínio de falha é atualizado, as instâncias de VM ficam disponíveis nos outros domínios de falha.</t>
+          <t>Alguns tipos de disco de alto desempenho oferecem recursos e estratégias extras de otimização de custos.  A capacidade de ajuste do disco SSD Premium v2 pode reduzir custos porque fornece alto desempenho sem superprovisionamento, o que poderia levar a recursos subutilizados.</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -16923,19 +16883,19 @@
       </c>
       <c r="L646" t="inlineStr">
         <is>
-          <t>07b6117e-18f8-4df2-9816-9bba2f028219</t>
+          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="C647" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Implante em zonas de disponibilidade em conjuntos de dimensionamento. Configure pelo menos duas instâncias em cada zona. O balanceamento de zona distribui igualmente as instâncias entre as zonas.</t>
+          <t>(Conjunto de escalas) Combine VMs regulares com máquinas virtuais spot.  A orquestração flexível permite distribuir máquinas virtuais spot com base em uma porcentagem especificada.</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>As instâncias de VM são provisionadas em locais fisicamente separados em cada região do Azure que são tolerantes a falhas locais.  Lembre-se de que, dependendo da disponibilidade de recursos, pode haver um número ímpar de instâncias entre as zonas. O balanceamento de zona oferece suporte à disponibilidade, certificando-se de que, se uma zona estiver inativa, as outras zonas tenham instâncias suficientes.  Duas instâncias em cada zona fornecem um buffer durante as atualizações.</t>
+          <t>Reduza os custos de infraestrutura de computação aplicando os grandes descontos das máquinas virtuais spot.</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -16945,19 +16905,19 @@
       </c>
       <c r="L647" t="inlineStr">
         <is>
-          <t>056b1e06-a521-4662-9c87-19371260efe6</t>
+          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="C648" t="inlineStr">
         <is>
-          <t>(VMs) Aproveite o recurso de reservas de capacidade.</t>
+          <t>(Conjunto de escalas) Reduza o número de instâncias de VM quando a demanda diminuir. Defina uma política de redução horizontal com base em critérios.   Pare as VMs fora do horário comercial. Você pode usar o recurso Iniciar/Parar da Automação do Azure e configurá-lo de acordo com suas necessidades de negócios.</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>A capacidade é reservada para seu uso e está disponível dentro do escopo dos SLAs aplicáveis. Você pode excluir reservas de capacidade quando não precisar mais delas e a cobrança for baseada no consumo.</t>
+          <t>Reduzir ou interromper recursos quando eles não estão em uso reduz o número de VMs em execução no conjunto de dimensionamento, o que economiza custos.  O recurso Start/Stop é uma opção de automação de baixo custo.</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -16967,17 +16927,21 @@
       </c>
       <c r="L648" t="inlineStr">
         <is>
-          <t>2554bcd7-c6b8-4461-aaaa-071092d5483f</t>
+          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="C649" t="inlineStr">
         <is>
-          <t>Examine as linhas de base de segurança para VMs do Linux e do Windows e Conjuntos de Dimensionamento de Máquinas Virtuais.</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Aproveite a mobilidade de licenças usando o Benefício Híbrido do Azure. As VMs têm uma opção de licenciamento que permite que você traga suas próprias licenças do sistema operacional Windows Server local para o Azure.  O Benefício Híbrido do Azure também permite que você traga determinadas assinaturas do Linux para o Azure.</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>Você pode maximizar suas licenças locais enquanto obtém os benefícios da nuvem.</t>
+        </is>
+      </c>
       <c r="F649" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -16985,14 +16949,14 @@
       </c>
       <c r="L649" t="inlineStr">
         <is>
-          <t>fa5e017f-a99c-4fcc-883b-e16427f4e05d</t>
+          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="C650" t="inlineStr">
         <is>
-          <t>Garanta patches e atualizações de segurança oportunos e automatizados. Certifique-se de que as atualizações sejam distribuídas e validadas automaticamente usando um processo bem definido. Use uma solução como a Automação do Azure para gerenciar atualizações do sistema operacional e manter a conformidade de segurança fazendo atualizações críticas.</t>
+          <t>Monitore as instâncias de VM. Colete logs e métricas de instâncias de VM para monitorar o uso de recursos e medir a integridade das instâncias. Algumas métricas comuns incluem uso da CPU, número de solicitações e latência de entrada/saída (E/S). Configure alertas do Azure Monitor para ser notificado sobre problemas e detectar alterações de configuração em seu ambiente.</t>
         </is>
       </c>
       <c r="D650" t="inlineStr"/>
@@ -17003,14 +16967,14 @@
       </c>
       <c r="L650" t="inlineStr">
         <is>
-          <t>63866f61-ef77-4793-9257-dfc53e87a550</t>
+          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="C651" t="inlineStr">
         <is>
-          <t>Identifique as VMs que mantêm o estado. Verifique se os dados são classificados de acordo com os rótulos de confidencialidade fornecidos pela sua organização. Proteja os dados usando controles de segurança, como níveis apropriados de criptografia em repouso e em trânsito. Se você tiver requisitos de alta sensibilidade, considere usar controles de alta segurança, como criptografia dupla e computação confidencial do Azure para proteger os dados em uso.</t>
+          <t>Monitore a integridade das VMs e suas dependências.</t>
         </is>
       </c>
       <c r="D651" t="inlineStr"/>
@@ -17021,14 +16985,14 @@
       </c>
       <c r="L651" t="inlineStr">
         <is>
-          <t>5bc85e31-f7fa-4102-8e43-6fbe7add0d89</t>
+          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="C652" t="inlineStr">
         <is>
-          <t>Forneça segmentação para as VMs e conjuntos de dimensionamento definindo limites de rede e controles de acesso. Coloque as VMs em grupos de recursos que compartilham o mesmo ciclo de vida.</t>
+          <t>Crie um plano de manutenção que inclua patches regulares do sistema como parte das operações de rotina. Inclua processos de emergência que permitam a aplicação imediata de patches. Você pode ter processos personalizados para gerenciar a aplicação de patch ou delegar parcialmente a tarefa ao Azure.</t>
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
@@ -17039,14 +17003,14 @@
       </c>
       <c r="L652" t="inlineStr">
         <is>
-          <t>d5320544-6d25-46c7-ab46-e81e5d85d9b3</t>
+          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="C653" t="inlineStr">
         <is>
-          <t>Aplique controles de acesso às identidades que tentam acessar as VMs e também às VMs que alcançam outros recursos. Use a ID do Microsoft Entra para necessidades de autenticação e autorização. Coloque senhas fortes, autenticação multifator e RBAC (controle de acesso baseado em função) em vigor para suas VMs e suas dependências, como segredos, para permitir que as identidades permitidas executem apenas as operações esperadas de suas funções.</t>
+          <t>Automatize processos de inicialização, execução de scripts e configuração de VMs. Você pode automatizar processos usando extensões ou scripts personalizados. Recomendamos as seguintes opções:</t>
         </is>
       </c>
       <c r="D653" t="inlineStr"/>
@@ -17057,14 +17021,14 @@
       </c>
       <c r="L653" t="inlineStr">
         <is>
-          <t>becd6031-a256-4186-995e-75817fc7783c</t>
+          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="C654" t="inlineStr">
         <is>
-          <t>Use controles de rede para restringir o tráfego de entrada e saída. Isole VMs e conjuntos de dimensionamento na Rede Virtual do Azure e defina grupos de segurança de rede para filtrar o tráfego. Proteja-se contra ataques distribuídos de negação de serviço (DDoS). Use balanceadores de carga e regras de firewall para proteger contra tráfego mal-intencionado e ataques de exfiltração de dados.</t>
+          <t>Tenha processos para instalar atualizações automáticas. Considere usar a aplicação automática de patches de convidado de VM para uma distribuição oportuna de patches críticos e patches de segurança. Use o Azure Update Manager para gerenciar atualizações do sistema operacional para suas máquinas virtuais Windows e Linux no Azure.</t>
         </is>
       </c>
       <c r="D654" t="inlineStr"/>
@@ -17075,14 +17039,14 @@
       </c>
       <c r="L654" t="inlineStr">
         <is>
-          <t>cc96d188-8a1f-4b48-9525-d6f3f867f322</t>
+          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="C655" t="inlineStr">
         <is>
-          <t>Reduza a superfície de ataque protegendo as imagens do sistema operacional e removendo componentes não utilizados. Use imagens menores e remova binários que não são necessários para executar a carga de trabalho. Aperte as configurações da VM removendo recursos, como contas e portas padrão, que você não precisa.</t>
+          <t>Crie um ambiente de teste que corresponda ao seu ambiente de produção para testar atualizações e alterações antes de implantá-las na produção. Tenha processos em vigor para testar as atualizações de segurança, linhas de base de desempenho e falhas de confiabilidade. Aproveite as bibliotecas de falhas do Azure Chaos Studio para injetar e simular condições de erro. Para obter mais informações, consulte Biblioteca de falhas e ações do Azure Chaos Studio.</t>
         </is>
       </c>
       <c r="D655" t="inlineStr"/>
@@ -17093,14 +17057,14 @@
       </c>
       <c r="L655" t="inlineStr">
         <is>
-          <t>66e5f683-0d57-4ed1-b2bd-68e4549631bc</t>
+          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="C656" t="inlineStr">
         <is>
-          <t>Proteja segredos, como os certificados necessários para proteger os dados em trânsito. Considere usar a extensão do Azure Key Vault para Windows ou Linux que atualiza automaticamente os certificados armazenados em um cofre de chaves. Quando detecta uma alteração nos certificados, a extensão recupera e instala os certificados correspondentes.</t>
+          <t>Gerencie sua cota. Planeje o nível de cota que sua carga de trabalho requer e revise esse nível regularmente à medida que a carga de trabalho evolui. Se você precisar aumentar ou diminuir sua cota, solicite essas alterações com antecedência.</t>
         </is>
       </c>
       <c r="D656" t="inlineStr"/>
@@ -17111,17 +17075,21 @@
       </c>
       <c r="L656" t="inlineStr">
         <is>
-          <t>961b264a-fddf-43d4-b137-a132429c2874</t>
+          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="C657" t="inlineStr">
         <is>
-          <t>Detecção de ameaças. Monitore VMs em busca de ameaças e configurações incorretas. Use o Defender para Servidores para capturar alterações de VM e sistema operacional e manter uma trilha de auditoria de acesso, novas contas e alterações nas permissões.</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr"/>
+          <t>(Conjunto de escalas) Os Conjuntos de Dimensionamento de Máquinas Virtuais no modo de orquestração flexível podem ajudar a simplificar a implantação e o gerenciamento de sua carga de trabalho. Por exemplo, você pode gerenciar facilmente a autocorreção usando reparos automáticos.</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>A orquestração flexível pode gerenciar instâncias de VM em escala. Entregar VMs individuais adiciona sobrecarga operacional.  Por exemplo, quando você exclui instâncias de VM, os discos e NICs associados também são excluídos automaticamente. As instâncias de VM são distribuídas em vários domínios de falha para que as operações de atualização não interrompam o serviço.</t>
+        </is>
+      </c>
       <c r="F657" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17129,17 +17097,21 @@
       </c>
       <c r="L657" t="inlineStr">
         <is>
-          <t>39b32108-5423-42aa-beaa-1601df1971f6</t>
+          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="C658" t="inlineStr">
         <is>
-          <t>Prevenção de ameaças. Proteja-se contra ataques de malware e agentes mal-intencionados implementando controles de segurança como firewalls, software antivírus e sistemas de detecção de intrusão. Determine se um TEE (Ambiente de Execução Confiável) é necessário.</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr"/>
+          <t>(Conjunto de escalas) Mantenha suas VMs atualizadas definindo uma política de atualização. Recomendamos atualizações contínuas. No entanto, se você precisar de controle granular, opte por atualizar manualmente.  Para orquestração flexível, você pode usar o Azure Update Manager.</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>A segurança é o principal motivo para atualizações. As garantias de segurança para as instâncias não devem diminuir com o tempo.  As atualizações contínuas são feitas em lotes, o que garante que todas as instâncias não fiquem inativas ao mesmo tempo.</t>
+        </is>
+      </c>
       <c r="F658" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17147,19 +17119,19 @@
       </c>
       <c r="L658" t="inlineStr">
         <is>
-          <t>fb9921a8-884c-40df-a588-a554143809f2</t>
+          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="C659" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Atribua uma identidade gerenciada a conjuntos de dimensionamento. Todas as VMs no conjunto de dimensionamento obtêm a mesma identidade por meio do perfil de VM especificado.  (VMs) Você também pode atribuir uma identidade gerenciada a VMs individuais ao criá-las e, em seguida, adicioná-la a um conjunto de dimensionamento, se necessário.</t>
+          <t>(VMs, conjunto de dimensionamento) Implante automaticamente aplicativos de VM da Galeria de Computação do Azure definindo os aplicativos no perfil.</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>Quando as VMs se comunicam com outros recursos, elas cruzam um limite de confiança. Os conjuntos de dimensionamento e as VMs devem autenticar sua identidade antes que a comunicação seja permitida. A ID do Microsoft Entra lida com essa autenticação usando identidades gerenciadas.</t>
+          <t>As VMs no conjunto de dimensionamento são criadas e os aplicativos especificados são pré-instalados, o que facilita o gerenciamento.</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -17169,19 +17141,19 @@
       </c>
       <c r="L659" t="inlineStr">
         <is>
-          <t>21e2209a-6217-464b-9886-1914124b0721</t>
+          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="C660" t="inlineStr">
         <is>
-          <t>(Conjunto de escalas) Escolha SKUs de VM com recursos de segurança. Por exemplo, alguns SKUs dão suporte à criptografia do BitLocker e a computação confidencial fornece criptografia de dados em uso.  Revise os recursos para entender as limitações.</t>
+          <t>Instale componentes de software pré-construídos como extensões como parte da inicialização.  O Azure dá suporte a muitas extensões que podem ser usadas para configurar, monitorar, proteger e fornecer aplicativos utilitários para suas VMs.   Habilite atualizações automáticas em extensões.</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>Os recursos fornecidos pelo Azure são baseados em sinais capturados em muitos locatários e podem proteger os recursos melhor do que os controles personalizados. Você também pode usar políticas para impor esses controles.</t>
+          <t>As extensões podem ajudar a simplificar a instalação do software em escala sem que você precise instalá-lo, configurá-lo ou atualizá-lo manualmente em cada VM.</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -17191,19 +17163,19 @@
       </c>
       <c r="L660" t="inlineStr">
         <is>
-          <t>f13132ec-ac80-4a27-a14e-b7b357523df1</t>
+          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="C661" t="inlineStr">
         <is>
-          <t>(VMs, conjunto de dimensionamento) Aplique tags recomendadas pela organização nos recursos provisionados.</t>
+          <t>(VMs, conjunto de dimensionamento) Monitore e meça a integridade das instâncias de VM.  Implante a extensão do agente do Monitor em suas VMs para coletar dados de monitoramento do sistema operacional convidado com regras de coleta de dados específicas do sistema operacional.  Habilite os insights da VM para monitorar a integridade e o desempenho e exibir tendências dos dados coletados. Use o diagnóstico de inicialização para obter informações à medida que as VMs são inicializadas. O diagnóstico de inicialização também diagnostica falhas de inicialização.</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>A marcação é uma maneira comum de segmentar e organizar recursos e pode ser crucial durante o gerenciamento de incidentes. Para obter mais informações, consulte Finalidade de nomear e marcar.</t>
+          <t>Os dados de monitoramento estão no centro da resolução de incidentes. Uma pilha de monitoramento abrangente fornece informações sobre o desempenho das VMs e sua integridade. Ao monitorar continuamente as instâncias, você pode estar pronto ou evitar falhas como sobrecarga de desempenho e problemas de confiabilidade.</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -17213,21 +17185,17 @@
       </c>
       <c r="L661" t="inlineStr">
         <is>
-          <t>944802d9-671c-479f-b973-fd6111a18486</t>
+          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="C662" t="inlineStr">
         <is>
-          <t>(VMs, conjunto de dimensionamento) Defina um perfil de segurança com os recursos de segurança que você deseja habilitar na configuração da VM.  Por exemplo, quando você especifica a criptografia no host no perfil, os dados armazenados no host da VM são criptografados em repouso e os fluxos são criptografados para o serviço de armazenamento.</t>
-        </is>
-      </c>
-      <c r="D662" t="inlineStr">
-        <is>
-          <t>Os recursos no perfil de segurança são habilitados automaticamente quando a VM é criada.  Para obter mais informações, consulte Linha de base de segurança do Azure para Conjuntos de Dimensionamento de Máquinas Virtuais.</t>
-        </is>
-      </c>
+          <t>Defina metas de desempenho. Identifique métricas de VM para rastrear e medir indicadores de desempenho, como tempo de resposta, utilização da CPU e utilização de memória, bem como métricas de carga de trabalho, como transações por segundo, usuários simultâneos e disponibilidade e integridade.</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17235,21 +17203,17 @@
       </c>
       <c r="L662" t="inlineStr">
         <is>
-          <t>a6b12603-c2e3-43fd-9a79-6e6317817278</t>
+          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="C663" t="inlineStr">
         <is>
-          <t>(VMs) Escolha opções de rede segura para o perfil de rede da sua VM.  Não associe diretamente endereços IP públicos às suas VMs e não habilite o encaminhamento de IP.  Verifique se todos os adaptadores de rede virtual têm um grupo de segurança de rede associado.</t>
-        </is>
-      </c>
-      <c r="D663" t="inlineStr">
-        <is>
-          <t>Você pode definir controles de segmentação no perfil de rede.  Os invasores verificam endereços IP públicos, o que torna as VMs vulneráveis a ameaças.</t>
-        </is>
-      </c>
+          <t>Considere o perfil de desempenho de VMs, conjuntos de dimensionamento e configuração de disco em seu planejamento de capacidade. Cada SKU tem um perfil diferente de memória e CPU e se comporta de maneira diferente dependendo do tipo de carga de trabalho. Realize pilotos e provas de conceito para entender o comportamento de desempenho sob a carga de trabalho específica.</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17257,21 +17221,17 @@
       </c>
       <c r="L663" t="inlineStr">
         <is>
-          <t>3c83a4bb-2b58-4fae-9a65-37490fecaf1c</t>
+          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="C664" t="inlineStr">
         <is>
-          <t>(VMs) Escolha opções de armazenamento seguro para o perfil de armazenamento da VM.  Habilite a criptografia de disco e a criptografia de dados em repouso por padrão. Desabilite o acesso à rede pública aos discos da VM.</t>
-        </is>
-      </c>
-      <c r="D664" t="inlineStr">
-        <is>
-          <t>Desabilitar o acesso à rede pública ajuda a impedir o acesso não autorizado aos seus dados e recursos.</t>
-        </is>
-      </c>
+          <t>Ajuste de desempenho da VM. Aproveite a otimização de desempenho e o aprimoramento de recursos conforme exigido pela carga de trabalho. Por exemplo, use Non-Volatile Memory Express (NVMe) conectado localmente para casos de uso de alto desempenho e rede acelerada e use SSD Premium v2 para melhor desempenho e escalabilidade.</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17279,21 +17239,17 @@
       </c>
       <c r="L664" t="inlineStr">
         <is>
-          <t>fe1df647-99c3-43ea-b8ed-507b23f120e0</t>
+          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="C665" t="inlineStr">
         <is>
-          <t>(VMs, conjunto de dimensionamento) Inclua extensões em suas VMs que protegem contra ameaças.  Por exemplo, - Extensão do Key Vault para Windows e Linux - Autenticação de ID do Microsoft Entra - Microsoft Antimalware para Serviços de Nuvem e Máquinas Virtuais do Azure - Extensão do Azure Disk Encryption para Windows e Linux.</t>
-        </is>
-      </c>
-      <c r="D665" t="inlineStr">
-        <is>
-          <t>As extensões são usadas para inicializar as VMs com o software certo que protege o acesso de e para as VMs.  As extensões fornecidas pela Microsoft são atualizadas com frequência para acompanhar os padrões de segurança em evolução.</t>
-        </is>
-      </c>
+          <t>Leve em consideração os serviços dependentes. As dependências de carga de trabalho, como cache, tráfego de rede e redes de distribuição de conteúdo, que interagem com as VMs podem afetar o desempenho. Além disso, considere a distribuição geográfica, como zonas e regiões, que podem adicionar latência.</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17301,14 +17257,14 @@
       </c>
       <c r="L665" t="inlineStr">
         <is>
-          <t>06c4068a-2562-4cc4-9269-8bdb6b349c3a</t>
+          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="C666" t="inlineStr">
         <is>
-          <t>Estime custos realistas. Use a calculadora de preços para estimar os custos de suas VMs. Identifique a melhor VM para sua carga de trabalho usando o seletor de VM. Para obter mais informações, consulte Preços do Linux e do Windows.</t>
+          <t>Colete dados de desempenho. Siga as práticas recomendadas de Excelência Operacional para monitorar e implantar as extensões apropriadas para visualizar métricas que acompanham os indicadores de desempenho.</t>
         </is>
       </c>
       <c r="D666" t="inlineStr"/>
@@ -17319,14 +17275,14 @@
       </c>
       <c r="L666" t="inlineStr">
         <is>
-          <t>3e760d37-8430-4da5-833d-95bff2d43e4f</t>
+          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="C667" t="inlineStr">
         <is>
-          <t>Implemente proteções de custos. Use políticas de governança para restringir tipos de recursos, configurações e locais. Use o RBAC para bloquear ações que podem levar a gastos excessivos.</t>
+          <t>Grupos de posicionamento por proximidade. Use grupos de posicionamento por proximidade em cargas de trabalho em que a baixa latência é necessária para garantir que as VMs estejam fisicamente localizadas próximas umas das outras.</t>
         </is>
       </c>
       <c r="D667" t="inlineStr"/>
@@ -17337,17 +17293,21 @@
       </c>
       <c r="L667" t="inlineStr">
         <is>
-          <t>284bc1f9-59a6-491e-8070-d05e31e29ee7</t>
+          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="C668" t="inlineStr">
         <is>
-          <t>Escolha os recursos certos. Sua seleção de tamanhos de plano de VM e SKUs afeta diretamente o custo geral. Escolha VMs com base nas características da carga de trabalho. A carga de trabalho é intensiva em CPU ou executa processos interruptíveis? Cada SKU tem opções de disco associadas que afetam o custo geral.</t>
-        </is>
-      </c>
-      <c r="D668" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Escolha SKUs para VMs que se alinham ao seu planejamento de capacidade. Tenha uma boa compreensão de seus requisitos de carga de trabalho, incluindo o número de núcleos, memória, armazenamento e largura de banda de rede para que você possa filtrar SKUs inadequados.</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>O dimensionamento correto de suas VMs é uma decisão fundamental que afeta significativamente o desempenho de sua carga de trabalho. Sem o conjunto certo de VMs, você pode ter problemas de desempenho e acumular custos desnecessários.</t>
+        </is>
+      </c>
       <c r="F668" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17355,17 +17315,21 @@
       </c>
       <c r="L668" t="inlineStr">
         <is>
-          <t>353f0d7a-b104-43c3-b3e9-926af6458844</t>
+          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="C669" t="inlineStr">
         <is>
-          <t>Escolha os recursos certos para recursos dependentes. Economize nos custos de armazenamento de backup para a camada padrão do cofre usando o armazenamento do Backup do Azure com capacidade reservada. Ele oferece um desconto quando você se compromete com uma reserva de um ou três anos.</t>
-        </is>
-      </c>
-      <c r="D669" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Implante VMs de carga de trabalho sensíveis à latência em grupos de posicionamento por proximidade.</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>Os grupos de posicionamento por proximidade reduzem a distância física entre os recursos de computação do Azure, o que pode melhorar o desempenho e reduzir a latência de rede entre VMs autônomas, VMs em vários conjuntos de disponibilidade ou VMs em vários conjuntos de dimensionamento.</t>
+        </is>
+      </c>
       <c r="F669" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17373,17 +17337,21 @@
       </c>
       <c r="L669" t="inlineStr">
         <is>
-          <t>dff9f383-b459-4359-907e-bd33a92d4bd6</t>
+          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="C670" t="inlineStr">
         <is>
-          <t>Escolha o modelo de faturamento certo. Avalie se os modelos baseados em compromisso para computação otimizam os custos com base nos requisitos de negócios da carga de trabalho. Considere estas opções do Azure:</t>
-        </is>
-      </c>
-      <c r="D670" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento)  Defina o perfil de armazenamento analisando o desempenho do disco das cargas de trabalho existentes e o SKU da VM.  Use SSDs Premium para VMs de produção. Ajuste o desempenho dos discos com o SSD Premium v2. Use dispositivos NVMe conectados localmente.</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>Os SSDs Premium oferecem VMs de suporte a disco de alto desempenho e baixa latência com cargas de trabalho com uso intensivo de E/S.  O SSD Premium v2 não requer redimensionamento de disco, o que permite alto desempenho sem provisionamento excessivo e minimiza o custo da capacidade não utilizada.  Quando disponível em SKUs de VM, o NVMe conectado localmente ou dispositivos semelhantes podem oferecer alto desempenho, especialmente para casos de uso que exigem altas operações de entrada/saída por segundo (IOPS) e baixa latência.</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17391,17 +17359,21 @@
       </c>
       <c r="L670" t="inlineStr">
         <is>
-          <t>24cfa2c5-9e77-48e8-82ad-c5e98c636a69</t>
+          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="C671" t="inlineStr">
         <is>
-          <t>Monitore o uso. Monitore continuamente os padrões de uso e detecte VMs não utilizadas ou subutilizadas. Para essas instâncias, desligue as instâncias de VM quando elas não estiverem em uso. O monitoramento é uma abordagem fundamental da Excelência Operacional. Para obter mais informações, consulte as recomendações em Excelência Operacional.</t>
-        </is>
-      </c>
-      <c r="D671" t="inlineStr"/>
+          <t>(VMs) Considere habilitar a rede acelerada.</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>Ele permite a virtualização de E/S de raiz única (SR-IOV) para uma VM, o que melhora muito seu desempenho de rede.</t>
+        </is>
+      </c>
       <c r="F671" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -17409,587 +17381,27 @@
       </c>
       <c r="L671" t="inlineStr">
         <is>
-          <t>046215f1-13ee-4fbf-893d-eeafa28ab76b</t>
+          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="C672" t="inlineStr">
         <is>
-          <t>Procure maneiras de otimizar. Algumas estratégias incluem escolher a abordagem mais econômica entre aumentar os recursos em um sistema existente, ou escalar verticalmente, e adicionar mais instâncias desse sistema, ou escalar horizontalmente. Você pode descarregar a demanda distribuindo-a para outros recursos ou pode reduzir a demanda implementando filas de prioridade, descarregamento de gateway, buffer e limitação de taxa. Para obter mais informações, consulte as recomendações em Eficiência de desempenho.</t>
-        </is>
-      </c>
-      <c r="D672" t="inlineStr"/>
+          <t>(VMs, conjunto de dimensionamento) Defina regras de dimensionamento automático para aumentar ou diminuir o número de instâncias de VM em seu conjunto de dimensionamento com base na demanda.</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>Se a demanda do aplicativo aumentar, a carga nas instâncias de VM no conjunto de dimensionamento aumentará. As regras de dimensionamento automático garantem que você tenha recursos suficientes para atender à demanda.</t>
+        </is>
+      </c>
       <c r="F672" t="inlineStr">
         <is>
           <t>Não verificado</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
-        <is>
-          <t>877c04dd-441f-4202-9b87-9eeb3c60b564</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="C673" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Escolha o tamanho e o SKU do plano de VM corretos. Identifique os melhores tamanhos de VM para sua carga de trabalho.  Use o seletor de VM para identificar a melhor VM para sua carga de trabalho. Consulte os preços do Windows e do Linux.  Para cargas de trabalho como trabalhos de processamento em lotes altamente paralelos que podem tolerar algumas interrupções, considere usar Máquinas Virtuais Spot do Azure. As máquinas virtuais spot são boas para experimentar, desenvolver e testar soluções em grande escala.</t>
-        </is>
-      </c>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>Os SKUs são precificados de acordo com os recursos que oferecem. Se você não precisar de recursos avançados, não gaste demais em SKUs.  As máquinas virtuais spot aproveitam a capacidade excedente no Azure a um custo menor.</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>90700d86-70f6-433f-b995-b9ad8cfdec84</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="C674" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Avalie as opções de disco associadas aos SKUs da VM.  Determine suas necessidades de desempenho, tendo em mente suas necessidades de capacidade de armazenamento e levando em conta os padrões flutuantes de carga de trabalho.  Por exemplo, o disco SSD Premium v2 do Azure permite que você ajuste granularmente seu desempenho, independentemente do tamanho do disco.</t>
-        </is>
-      </c>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>Alguns tipos de disco de alto desempenho oferecem recursos e estratégias extras de otimização de custos.  A capacidade de ajuste do disco SSD Premium v2 pode reduzir custos porque fornece alto desempenho sem superprovisionamento, o que poderia levar a recursos subutilizados.</t>
-        </is>
-      </c>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>14211a5a-ea48-4aa1-9f24-e46689328dda</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="C675" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Combine VMs regulares com máquinas virtuais spot.  A orquestração flexível permite distribuir máquinas virtuais spot com base em uma porcentagem especificada.</t>
-        </is>
-      </c>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>Reduza os custos de infraestrutura de computação aplicando os grandes descontos das máquinas virtuais spot.</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>38d3a88b-a84f-46f3-95ce-76a4e245027b</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="C676" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Reduza o número de instâncias de VM quando a demanda diminuir. Defina uma política de redução horizontal com base em critérios.   Pare as VMs fora do horário comercial. Você pode usar o recurso Iniciar/Parar da Automação do Azure e configurá-lo de acordo com suas necessidades de negócios.</t>
-        </is>
-      </c>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>Reduzir ou interromper recursos quando eles não estão em uso reduz o número de VMs em execução no conjunto de dimensionamento, o que economiza custos.  O recurso Start/Stop é uma opção de automação de baixo custo.</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>eccee9b1-70f3-4c96-8223-35e24d842201</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Aproveite a mobilidade de licenças usando o Benefício Híbrido do Azure. As VMs têm uma opção de licenciamento que permite que você traga suas próprias licenças do sistema operacional Windows Server local para o Azure.  O Benefício Híbrido do Azure também permite que você traga determinadas assinaturas do Linux para o Azure.</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>Você pode maximizar suas licenças locais enquanto obtém os benefícios da nuvem.</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>3c34c3e4-5715-472e-953e-2d5030bf18a0</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Monitore as instâncias de VM. Colete logs e métricas de instâncias de VM para monitorar o uso de recursos e medir a integridade das instâncias. Algumas métricas comuns incluem uso da CPU, número de solicitações e latência de entrada/saída (E/S). Configure alertas do Azure Monitor para ser notificado sobre problemas e detectar alterações de configuração em seu ambiente.</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr"/>
-      <c r="F678" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>fc1734b9-fefe-403d-bfc9-c2beca6f12a2</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>Monitore a integridade das VMs e suas dependências.</t>
-        </is>
-      </c>
-      <c r="D679" t="inlineStr"/>
-      <c r="F679" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>724b847d-caf4-4e90-83e7-f4c71e68c4f7</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="C680" t="inlineStr">
-        <is>
-          <t>Crie um plano de manutenção que inclua patches regulares do sistema como parte das operações de rotina. Inclua processos de emergência que permitam a aplicação imediata de patches. Você pode ter processos personalizados para gerenciar a aplicação de patch ou delegar parcialmente a tarefa ao Azure.</t>
-        </is>
-      </c>
-      <c r="D680" t="inlineStr"/>
-      <c r="F680" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>f99e71a9-05ee-41c2-81b7-8d794763040b</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="C681" t="inlineStr">
-        <is>
-          <t>Automatize processos de inicialização, execução de scripts e configuração de VMs. Você pode automatizar processos usando extensões ou scripts personalizados. Recomendamos as seguintes opções:</t>
-        </is>
-      </c>
-      <c r="D681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>ca34b9c2-69db-4256-a354-c491877f79ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="C682" t="inlineStr">
-        <is>
-          <t>Tenha processos para instalar atualizações automáticas. Considere usar a aplicação automática de patches de convidado de VM para uma distribuição oportuna de patches críticos e patches de segurança. Use o Azure Update Manager para gerenciar atualizações do sistema operacional para suas máquinas virtuais Windows e Linux no Azure.</t>
-        </is>
-      </c>
-      <c r="D682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>821779c7-588f-40af-a740-8dd41fb585fd</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="C683" t="inlineStr">
-        <is>
-          <t>Crie um ambiente de teste que corresponda ao seu ambiente de produção para testar atualizações e alterações antes de implantá-las na produção. Tenha processos em vigor para testar as atualizações de segurança, linhas de base de desempenho e falhas de confiabilidade. Aproveite as bibliotecas de falhas do Azure Chaos Studio para injetar e simular condições de erro. Para obter mais informações, consulte Biblioteca de falhas e ações do Azure Chaos Studio.</t>
-        </is>
-      </c>
-      <c r="D683" t="inlineStr"/>
-      <c r="F683" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>079c8821-00dd-4eaf-9cae-5a3dbfd6fdfa</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>Gerencie sua cota. Planeje o nível de cota que sua carga de trabalho requer e revise esse nível regularmente à medida que a carga de trabalho evolui. Se você precisar aumentar ou diminuir sua cota, solicite essas alterações com antecedência.</t>
-        </is>
-      </c>
-      <c r="D684" t="inlineStr"/>
-      <c r="F684" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>77cdbef0-ba18-4ef0-9ef4-088931e331c7</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="C685" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Os Conjuntos de Dimensionamento de Máquinas Virtuais no modo de orquestração flexível podem ajudar a simplificar a implantação e o gerenciamento de sua carga de trabalho. Por exemplo, você pode gerenciar facilmente a autocorreção usando reparos automáticos.</t>
-        </is>
-      </c>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>A orquestração flexível pode gerenciar instâncias de VM em escala. Entregar VMs individuais adiciona sobrecarga operacional.  Por exemplo, quando você exclui instâncias de VM, os discos e NICs associados também são excluídos automaticamente. As instâncias de VM são distribuídas em vários domínios de falha para que as operações de atualização não interrompam o serviço.</t>
-        </is>
-      </c>
-      <c r="F685" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>3049efb5-d3ae-4e36-a8fa-12f2c4a44144</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="C686" t="inlineStr">
-        <is>
-          <t>(Conjunto de escalas) Mantenha suas VMs atualizadas definindo uma política de atualização. Recomendamos atualizações contínuas. No entanto, se você precisar de controle granular, opte por atualizar manualmente.  Para orquestração flexível, você pode usar o Azure Update Manager.</t>
-        </is>
-      </c>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>A segurança é o principal motivo para atualizações. As garantias de segurança para as instâncias não devem diminuir com o tempo.  As atualizações contínuas são feitas em lotes, o que garante que todas as instâncias não fiquem inativas ao mesmo tempo.</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>19de83a6-2f87-49b1-8241-d1d687f46658</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="C687" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Implante automaticamente aplicativos de VM da Galeria de Computação do Azure definindo os aplicativos no perfil.</t>
-        </is>
-      </c>
-      <c r="D687" t="inlineStr">
-        <is>
-          <t>As VMs no conjunto de dimensionamento são criadas e os aplicativos especificados são pré-instalados, o que facilita o gerenciamento.</t>
-        </is>
-      </c>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>65c832e8-2882-45ed-b239-0e68f74975aa</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>Instale componentes de software pré-construídos como extensões como parte da inicialização.  O Azure dá suporte a muitas extensões que podem ser usadas para configurar, monitorar, proteger e fornecer aplicativos utilitários para suas VMs.   Habilite atualizações automáticas em extensões.</t>
-        </is>
-      </c>
-      <c r="D688" t="inlineStr">
-        <is>
-          <t>As extensões podem ajudar a simplificar a instalação do software em escala sem que você precise instalá-lo, configurá-lo ou atualizá-lo manualmente em cada VM.</t>
-        </is>
-      </c>
-      <c r="F688" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>40266c61-9685-4ee1-8cb6-a899a6b573f2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Monitore e meça a integridade das instâncias de VM.  Implante a extensão do agente do Monitor em suas VMs para coletar dados de monitoramento do sistema operacional convidado com regras de coleta de dados específicas do sistema operacional.  Habilite os insights da VM para monitorar a integridade e o desempenho e exibir tendências dos dados coletados. Use o diagnóstico de inicialização para obter informações à medida que as VMs são inicializadas. O diagnóstico de inicialização também diagnostica falhas de inicialização.</t>
-        </is>
-      </c>
-      <c r="D689" t="inlineStr">
-        <is>
-          <t>Os dados de monitoramento estão no centro da resolução de incidentes. Uma pilha de monitoramento abrangente fornece informações sobre o desempenho das VMs e sua integridade. Ao monitorar continuamente as instâncias, você pode estar pronto ou evitar falhas como sobrecarga de desempenho e problemas de confiabilidade.</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>72e210dc-5abb-4569-b650-ec27003bb1cf</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>Defina metas de desempenho. Identifique métricas de VM para rastrear e medir indicadores de desempenho, como tempo de resposta, utilização da CPU e utilização de memória, bem como métricas de carga de trabalho, como transações por segundo, usuários simultâneos e disponibilidade e integridade.</t>
-        </is>
-      </c>
-      <c r="D690" t="inlineStr"/>
-      <c r="F690" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>0303e75c-321d-42b0-9226-b05f43633d50</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>Considere o perfil de desempenho de VMs, conjuntos de dimensionamento e configuração de disco em seu planejamento de capacidade. Cada SKU tem um perfil diferente de memória e CPU e se comporta de maneira diferente dependendo do tipo de carga de trabalho. Realize pilotos e provas de conceito para entender o comportamento de desempenho sob a carga de trabalho específica.</t>
-        </is>
-      </c>
-      <c r="D691" t="inlineStr"/>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>f2c0ba97-9170-43ab-90b5-b30f159913ba</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="C692" t="inlineStr">
-        <is>
-          <t>Ajuste de desempenho da VM. Aproveite a otimização de desempenho e o aprimoramento de recursos conforme exigido pela carga de trabalho. Por exemplo, use Non-Volatile Memory Express (NVMe) conectado localmente para casos de uso de alto desempenho e rede acelerada e use SSD Premium v2 para melhor desempenho e escalabilidade.</t>
-        </is>
-      </c>
-      <c r="D692" t="inlineStr"/>
-      <c r="F692" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>ffee7b2f-b57c-40cc-a8ab-9044dead9dc7</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="C693" t="inlineStr">
-        <is>
-          <t>Leve em consideração os serviços dependentes. As dependências de carga de trabalho, como cache, tráfego de rede e redes de distribuição de conteúdo, que interagem com as VMs podem afetar o desempenho. Além disso, considere a distribuição geográfica, como zonas e regiões, que podem adicionar latência.</t>
-        </is>
-      </c>
-      <c r="D693" t="inlineStr"/>
-      <c r="F693" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>75cf3a03-3d7c-4199-8138-45ff62b1f7a5</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>Colete dados de desempenho. Siga as práticas recomendadas de Excelência Operacional para monitorar e implantar as extensões apropriadas para visualizar métricas que acompanham os indicadores de desempenho.</t>
-        </is>
-      </c>
-      <c r="D694" t="inlineStr"/>
-      <c r="F694" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>739525ea-4d0a-4965-baef-ab0325fbed67</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="C695" t="inlineStr">
-        <is>
-          <t>Grupos de posicionamento por proximidade. Use grupos de posicionamento por proximidade em cargas de trabalho em que a baixa latência é necessária para garantir que as VMs estejam fisicamente localizadas próximas umas das outras.</t>
-        </is>
-      </c>
-      <c r="D695" t="inlineStr"/>
-      <c r="F695" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>39acd43b-a405-439b-83c9-b9d79d9cdba6</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Escolha SKUs para VMs que se alinham ao seu planejamento de capacidade. Tenha uma boa compreensão de seus requisitos de carga de trabalho, incluindo o número de núcleos, memória, armazenamento e largura de banda de rede para que você possa filtrar SKUs inadequados.</t>
-        </is>
-      </c>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>O dimensionamento correto de suas VMs é uma decisão fundamental que afeta significativamente o desempenho de sua carga de trabalho. Sem o conjunto certo de VMs, você pode ter problemas de desempenho e acumular custos desnecessários.</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>67cc04db-4b74-40f4-9bf6-0ba5f758b45e</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Implante VMs de carga de trabalho sensíveis à latência em grupos de posicionamento por proximidade.</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>Os grupos de posicionamento por proximidade reduzem a distância física entre os recursos de computação do Azure, o que pode melhorar o desempenho e reduzir a latência de rede entre VMs autônomas, VMs em vários conjuntos de disponibilidade ou VMs em vários conjuntos de dimensionamento.</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>ef3de2ad-d5b6-4931-9fc7-28249d9300c0</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento)  Defina o perfil de armazenamento analisando o desempenho do disco das cargas de trabalho existentes e o SKU da VM.  Use SSDs Premium para VMs de produção. Ajuste o desempenho dos discos com o SSD Premium v2. Use dispositivos NVMe conectados localmente.</t>
-        </is>
-      </c>
-      <c r="D698" t="inlineStr">
-        <is>
-          <t>Os SSDs Premium oferecem VMs de suporte a disco de alto desempenho e baixa latência com cargas de trabalho com uso intensivo de E/S.  O SSD Premium v2 não requer redimensionamento de disco, o que permite alto desempenho sem provisionamento excessivo e minimiza o custo da capacidade não utilizada.  Quando disponível em SKUs de VM, o NVMe conectado localmente ou dispositivos semelhantes podem oferecer alto desempenho, especialmente para casos de uso que exigem altas operações de entrada/saída por segundo (IOPS) e baixa latência.</t>
-        </is>
-      </c>
-      <c r="F698" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>a91aae92-2b2c-4c88-b268-2c70b995a952</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>(VMs) Considere habilitar a rede acelerada.</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>Ele permite a virtualização de E/S de raiz única (SR-IOV) para uma VM, o que melhora muito seu desempenho de rede.</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>57e446da-1b2e-4bdc-abc9-3e978a11e940</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>(VMs, conjunto de dimensionamento) Defina regras de dimensionamento automático para aumentar ou diminuir o número de instâncias de VM em seu conjunto de dimensionamento com base na demanda.</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>Se a demanda do aplicativo aumentar, a carga nas instâncias de VM no conjunto de dimensionamento aumentará. As regras de dimensionamento automático garantem que você tenha recursos suficientes para atender à demanda.</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
-      <c r="L700" t="inlineStr">
         <is>
           <t>785858b0-2f0b-476d-9f1e-af92b57314c9</t>
         </is>
@@ -18121,7 +17533,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F701" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F673" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
